--- a/counts/ALS Mice/experimental/results/tg_1-tg_3/KEGG.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_3/KEGG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="806">
   <si>
     <t>ID</t>
   </si>
@@ -135,12 +135,12 @@
     <t>mmu05169</t>
   </si>
   <si>
+    <t>mmu05165</t>
+  </si>
+  <si>
     <t>mmu04810</t>
   </si>
   <si>
-    <t>mmu05165</t>
-  </si>
-  <si>
     <t>mmu04151</t>
   </si>
   <si>
@@ -150,12 +150,12 @@
     <t>mmu04144</t>
   </si>
   <si>
+    <t>mmu05162</t>
+  </si>
+  <si>
     <t>mmu05134</t>
   </si>
   <si>
-    <t>mmu05162</t>
-  </si>
-  <si>
     <t>mmu04392</t>
   </si>
   <si>
@@ -174,12 +174,12 @@
     <t>mmu05167</t>
   </si>
   <si>
+    <t>mmu04530</t>
+  </si>
+  <si>
     <t>mmu00520</t>
   </si>
   <si>
-    <t>mmu04530</t>
-  </si>
-  <si>
     <t>mmu05133</t>
   </si>
   <si>
@@ -195,6 +195,9 @@
     <t>mmu04145</t>
   </si>
   <si>
+    <t>mmu05225</t>
+  </si>
+  <si>
     <t>mmu04659</t>
   </si>
   <si>
@@ -216,6 +219,9 @@
     <t>mmu05216</t>
   </si>
   <si>
+    <t>mmu05215</t>
+  </si>
+  <si>
     <t>mmu03030</t>
   </si>
   <si>
@@ -252,24 +258,21 @@
     <t>mmu05416</t>
   </si>
   <si>
+    <t>mmu04666</t>
+  </si>
+  <si>
+    <t>mmu00410</t>
+  </si>
+  <si>
     <t>mmu04066</t>
   </si>
   <si>
-    <t>mmu00410</t>
-  </si>
-  <si>
-    <t>mmu04666</t>
-  </si>
-  <si>
-    <t>mmu05215</t>
+    <t>mmu04350</t>
   </si>
   <si>
     <t>mmu03420</t>
   </si>
   <si>
-    <t>mmu04350</t>
-  </si>
-  <si>
     <t>mmu04141</t>
   </si>
   <si>
@@ -285,18 +288,18 @@
     <t>mmu05210</t>
   </si>
   <si>
+    <t>mmu00052</t>
+  </si>
+  <si>
+    <t>mmu04658</t>
+  </si>
+  <si>
+    <t>mmu05223</t>
+  </si>
+  <si>
     <t>mmu00071</t>
   </si>
   <si>
-    <t>mmu00052</t>
-  </si>
-  <si>
-    <t>mmu04658</t>
-  </si>
-  <si>
-    <t>mmu05223</t>
-  </si>
-  <si>
     <t>mmu04920</t>
   </si>
   <si>
@@ -411,12 +414,12 @@
     <t>Epstein-Barr virus infection</t>
   </si>
   <si>
+    <t>Human papillomavirus infection</t>
+  </si>
+  <si>
     <t>Regulation of actin cytoskeleton</t>
   </si>
   <si>
-    <t>Human papillomavirus infection</t>
-  </si>
-  <si>
     <t>PI3K-Akt signaling pathway</t>
   </si>
   <si>
@@ -426,12 +429,12 @@
     <t>Endocytosis</t>
   </si>
   <si>
+    <t>Measles</t>
+  </si>
+  <si>
     <t>Legionellosis</t>
   </si>
   <si>
-    <t>Measles</t>
-  </si>
-  <si>
     <t>Hippo signaling pathway - multiple species</t>
   </si>
   <si>
@@ -450,12 +453,12 @@
     <t>Kaposi's sarcoma-associated herpesvirus infection</t>
   </si>
   <si>
+    <t>Tight junction</t>
+  </si>
+  <si>
     <t>Amino sugar and nucleotide sugar metabolism</t>
   </si>
   <si>
-    <t>Tight junction</t>
-  </si>
-  <si>
     <t>Pertussis</t>
   </si>
   <si>
@@ -471,6 +474,9 @@
     <t>Phagosome</t>
   </si>
   <si>
+    <t>Hepatocellular carcinoma</t>
+  </si>
+  <si>
     <t>Th17 cell differentiation</t>
   </si>
   <si>
@@ -492,6 +498,9 @@
     <t>Thyroid cancer</t>
   </si>
   <si>
+    <t>Prostate cancer</t>
+  </si>
+  <si>
     <t>DNA replication</t>
   </si>
   <si>
@@ -528,24 +537,21 @@
     <t>Viral myocarditis</t>
   </si>
   <si>
+    <t>Fc gamma R-mediated phagocytosis</t>
+  </si>
+  <si>
+    <t>beta-Alanine metabolism</t>
+  </si>
+  <si>
     <t>HIF-1 signaling pathway</t>
   </si>
   <si>
-    <t>beta-Alanine metabolism</t>
-  </si>
-  <si>
-    <t>Fc gamma R-mediated phagocytosis</t>
-  </si>
-  <si>
-    <t>Prostate cancer</t>
+    <t>TGF-beta signaling pathway</t>
   </si>
   <si>
     <t>Nucleotide excision repair</t>
   </si>
   <si>
-    <t>TGF-beta signaling pathway</t>
-  </si>
-  <si>
     <t>Protein processing in endoplasmic reticulum</t>
   </si>
   <si>
@@ -561,18 +567,18 @@
     <t>Colorectal cancer</t>
   </si>
   <si>
+    <t>Galactose metabolism</t>
+  </si>
+  <si>
+    <t>Th1 and Th2 cell differentiation</t>
+  </si>
+  <si>
+    <t>Non-small cell lung cancer</t>
+  </si>
+  <si>
     <t>Fatty acid degradation</t>
   </si>
   <si>
-    <t>Galactose metabolism</t>
-  </si>
-  <si>
-    <t>Th1 and Th2 cell differentiation</t>
-  </si>
-  <si>
-    <t>Non-small cell lung cancer</t>
-  </si>
-  <si>
     <t>Adipocytokine signaling pathway</t>
   </si>
   <si>
@@ -594,409 +600,418 @@
     <t>Sphingolipid metabolism</t>
   </si>
   <si>
-    <t>152/2895</t>
-  </si>
-  <si>
-    <t>78/2895</t>
-  </si>
-  <si>
-    <t>50/2895</t>
-  </si>
-  <si>
-    <t>103/2895</t>
-  </si>
-  <si>
-    <t>47/2895</t>
-  </si>
-  <si>
-    <t>83/2895</t>
-  </si>
-  <si>
-    <t>59/2895</t>
-  </si>
-  <si>
-    <t>46/2895</t>
-  </si>
-  <si>
-    <t>98/2895</t>
-  </si>
-  <si>
-    <t>73/2895</t>
-  </si>
-  <si>
-    <t>107/2895</t>
-  </si>
-  <si>
-    <t>63/2895</t>
-  </si>
-  <si>
-    <t>61/2895</t>
-  </si>
-  <si>
-    <t>189/2895</t>
-  </si>
-  <si>
-    <t>92/2895</t>
-  </si>
-  <si>
-    <t>76/2895</t>
-  </si>
-  <si>
-    <t>112/2895</t>
-  </si>
-  <si>
-    <t>84/2895</t>
-  </si>
-  <si>
-    <t>72/2895</t>
-  </si>
-  <si>
-    <t>97/2895</t>
-  </si>
-  <si>
-    <t>31/2895</t>
-  </si>
-  <si>
-    <t>60/2895</t>
-  </si>
-  <si>
-    <t>39/2895</t>
-  </si>
-  <si>
-    <t>108/2895</t>
-  </si>
-  <si>
-    <t>105/2895</t>
-  </si>
-  <si>
-    <t>161/2895</t>
-  </si>
-  <si>
-    <t>159/2895</t>
-  </si>
-  <si>
-    <t>44/2895</t>
-  </si>
-  <si>
-    <t>127/2895</t>
-  </si>
-  <si>
-    <t>35/2895</t>
-  </si>
-  <si>
-    <t>70/2895</t>
-  </si>
-  <si>
-    <t>19/2895</t>
-  </si>
-  <si>
-    <t>22/2895</t>
-  </si>
-  <si>
-    <t>118/2895</t>
-  </si>
-  <si>
-    <t>53/2895</t>
-  </si>
-  <si>
-    <t>30/2895</t>
-  </si>
-  <si>
-    <t>82/2895</t>
-  </si>
-  <si>
-    <t>42/2895</t>
-  </si>
-  <si>
-    <t>26/2895</t>
-  </si>
-  <si>
-    <t>87/2895</t>
-  </si>
-  <si>
-    <t>41/2895</t>
-  </si>
-  <si>
-    <t>29/2895</t>
-  </si>
-  <si>
-    <t>58/2895</t>
-  </si>
-  <si>
-    <t>32/2895</t>
-  </si>
-  <si>
-    <t>15/2895</t>
-  </si>
-  <si>
-    <t>23/2895</t>
-  </si>
-  <si>
-    <t>20/2895</t>
-  </si>
-  <si>
-    <t>34/2895</t>
-  </si>
-  <si>
-    <t>33/2895</t>
-  </si>
-  <si>
-    <t>79/2895</t>
-  </si>
-  <si>
-    <t>64/2895</t>
-  </si>
-  <si>
-    <t>28/2895</t>
-  </si>
-  <si>
-    <t>13/2895</t>
-  </si>
-  <si>
-    <t>45/2895</t>
-  </si>
-  <si>
-    <t>52/2895</t>
-  </si>
-  <si>
-    <t>25/2895</t>
-  </si>
-  <si>
-    <t>43/2895</t>
-  </si>
-  <si>
-    <t>77/2895</t>
-  </si>
-  <si>
-    <t>38/2895</t>
-  </si>
-  <si>
-    <t>27/2895</t>
-  </si>
-  <si>
-    <t>36/2895</t>
-  </si>
-  <si>
-    <t>67/2895</t>
-  </si>
-  <si>
-    <t>57/2895</t>
-  </si>
-  <si>
-    <t>282/8092</t>
-  </si>
-  <si>
-    <t>124/8092</t>
-  </si>
-  <si>
-    <t>72/8092</t>
-  </si>
-  <si>
-    <t>183/8092</t>
-  </si>
-  <si>
-    <t>67/8092</t>
-  </si>
-  <si>
-    <t>142/8092</t>
-  </si>
-  <si>
-    <t>92/8092</t>
-  </si>
-  <si>
-    <t>177/8092</t>
-  </si>
-  <si>
-    <t>199/8092</t>
-  </si>
-  <si>
-    <t>136/8092</t>
-  </si>
-  <si>
-    <t>104/8092</t>
-  </si>
-  <si>
-    <t>100/8092</t>
-  </si>
-  <si>
-    <t>394/8092</t>
-  </si>
-  <si>
-    <t>168/8092</t>
-  </si>
-  <si>
-    <t>133/8092</t>
-  </si>
-  <si>
-    <t>215/8092</t>
-  </si>
-  <si>
-    <t>206/8092</t>
-  </si>
-  <si>
-    <t>154/8092</t>
-  </si>
-  <si>
-    <t>108/8092</t>
-  </si>
-  <si>
-    <t>128/8092</t>
-  </si>
-  <si>
-    <t>186/8092</t>
-  </si>
-  <si>
-    <t>143/8092</t>
-  </si>
-  <si>
-    <t>178/8092</t>
-  </si>
-  <si>
-    <t>46/8092</t>
-  </si>
-  <si>
-    <t>63/8092</t>
-  </si>
-  <si>
-    <t>115/8092</t>
-  </si>
-  <si>
-    <t>78/8092</t>
-  </si>
-  <si>
-    <t>220/8092</t>
-  </si>
-  <si>
-    <t>214/8092</t>
-  </si>
-  <si>
-    <t>350/8092</t>
-  </si>
-  <si>
-    <t>346/8092</t>
-  </si>
-  <si>
-    <t>76/8092</t>
-  </si>
-  <si>
-    <t>270/8092</t>
-  </si>
-  <si>
-    <t>58/8092</t>
-  </si>
-  <si>
-    <t>26/8092</t>
-  </si>
-  <si>
-    <t>32/8092</t>
-  </si>
-  <si>
-    <t>252/8092</t>
-  </si>
-  <si>
-    <t>83/8092</t>
-  </si>
-  <si>
-    <t>99/8092</t>
-  </si>
-  <si>
-    <t>217/8092</t>
-  </si>
-  <si>
-    <t>49/8092</t>
-  </si>
-  <si>
-    <t>167/8092</t>
-  </si>
-  <si>
-    <t>75/8092</t>
-  </si>
-  <si>
-    <t>41/8092</t>
-  </si>
-  <si>
-    <t>52/8092</t>
-  </si>
-  <si>
-    <t>101/8092</t>
-  </si>
-  <si>
-    <t>182/8092</t>
-  </si>
-  <si>
-    <t>102/8092</t>
-  </si>
-  <si>
-    <t>56/8092</t>
-  </si>
-  <si>
-    <t>21/8092</t>
-  </si>
-  <si>
-    <t>37/8092</t>
-  </si>
-  <si>
-    <t>35/8092</t>
-  </si>
-  <si>
-    <t>31/8092</t>
-  </si>
-  <si>
-    <t>61/8092</t>
-  </si>
-  <si>
-    <t>59/8092</t>
-  </si>
-  <si>
-    <t>231/8092</t>
-  </si>
-  <si>
-    <t>132/8092</t>
-  </si>
-  <si>
-    <t>18/8092</t>
-  </si>
-  <si>
-    <t>88/8092</t>
-  </si>
-  <si>
-    <t>105/8092</t>
-  </si>
-  <si>
-    <t>33/8092</t>
-  </si>
-  <si>
-    <t>87/8092</t>
-  </si>
-  <si>
-    <t>44/8092</t>
-  </si>
-  <si>
-    <t>85/8092</t>
-  </si>
-  <si>
-    <t>121/8092</t>
-  </si>
-  <si>
-    <t>74/8092</t>
-  </si>
-  <si>
-    <t>66/8092</t>
-  </si>
-  <si>
-    <t>71/8092</t>
-  </si>
-  <si>
-    <t>146/8092</t>
-  </si>
-  <si>
-    <t>122/8092</t>
-  </si>
-  <si>
-    <t>69/8092</t>
-  </si>
-  <si>
-    <t>48/8092</t>
+    <t>152/2900</t>
+  </si>
+  <si>
+    <t>78/2900</t>
+  </si>
+  <si>
+    <t>50/2900</t>
+  </si>
+  <si>
+    <t>103/2900</t>
+  </si>
+  <si>
+    <t>47/2900</t>
+  </si>
+  <si>
+    <t>83/2900</t>
+  </si>
+  <si>
+    <t>59/2900</t>
+  </si>
+  <si>
+    <t>46/2900</t>
+  </si>
+  <si>
+    <t>98/2900</t>
+  </si>
+  <si>
+    <t>73/2900</t>
+  </si>
+  <si>
+    <t>107/2900</t>
+  </si>
+  <si>
+    <t>63/2900</t>
+  </si>
+  <si>
+    <t>61/2900</t>
+  </si>
+  <si>
+    <t>189/2900</t>
+  </si>
+  <si>
+    <t>92/2900</t>
+  </si>
+  <si>
+    <t>76/2900</t>
+  </si>
+  <si>
+    <t>112/2900</t>
+  </si>
+  <si>
+    <t>84/2900</t>
+  </si>
+  <si>
+    <t>72/2900</t>
+  </si>
+  <si>
+    <t>97/2900</t>
+  </si>
+  <si>
+    <t>31/2900</t>
+  </si>
+  <si>
+    <t>60/2900</t>
+  </si>
+  <si>
+    <t>39/2900</t>
+  </si>
+  <si>
+    <t>108/2900</t>
+  </si>
+  <si>
+    <t>161/2900</t>
+  </si>
+  <si>
+    <t>105/2900</t>
+  </si>
+  <si>
+    <t>159/2900</t>
+  </si>
+  <si>
+    <t>44/2900</t>
+  </si>
+  <si>
+    <t>127/2900</t>
+  </si>
+  <si>
+    <t>70/2900</t>
+  </si>
+  <si>
+    <t>35/2900</t>
+  </si>
+  <si>
+    <t>19/2900</t>
+  </si>
+  <si>
+    <t>22/2900</t>
+  </si>
+  <si>
+    <t>118/2900</t>
+  </si>
+  <si>
+    <t>53/2900</t>
+  </si>
+  <si>
+    <t>82/2900</t>
+  </si>
+  <si>
+    <t>30/2900</t>
+  </si>
+  <si>
+    <t>42/2900</t>
+  </si>
+  <si>
+    <t>26/2900</t>
+  </si>
+  <si>
+    <t>87/2900</t>
+  </si>
+  <si>
+    <t>41/2900</t>
+  </si>
+  <si>
+    <t>29/2900</t>
+  </si>
+  <si>
+    <t>58/2900</t>
+  </si>
+  <si>
+    <t>32/2900</t>
+  </si>
+  <si>
+    <t>15/2900</t>
+  </si>
+  <si>
+    <t>23/2900</t>
+  </si>
+  <si>
+    <t>20/2900</t>
+  </si>
+  <si>
+    <t>34/2900</t>
+  </si>
+  <si>
+    <t>33/2900</t>
+  </si>
+  <si>
+    <t>79/2900</t>
+  </si>
+  <si>
+    <t>64/2900</t>
+  </si>
+  <si>
+    <t>28/2900</t>
+  </si>
+  <si>
+    <t>13/2900</t>
+  </si>
+  <si>
+    <t>45/2900</t>
+  </si>
+  <si>
+    <t>52/2900</t>
+  </si>
+  <si>
+    <t>43/2900</t>
+  </si>
+  <si>
+    <t>25/2900</t>
+  </si>
+  <si>
+    <t>77/2900</t>
+  </si>
+  <si>
+    <t>38/2900</t>
+  </si>
+  <si>
+    <t>27/2900</t>
+  </si>
+  <si>
+    <t>36/2900</t>
+  </si>
+  <si>
+    <t>67/2900</t>
+  </si>
+  <si>
+    <t>57/2900</t>
+  </si>
+  <si>
+    <t>282/8114</t>
+  </si>
+  <si>
+    <t>124/8114</t>
+  </si>
+  <si>
+    <t>72/8114</t>
+  </si>
+  <si>
+    <t>183/8114</t>
+  </si>
+  <si>
+    <t>67/8114</t>
+  </si>
+  <si>
+    <t>142/8114</t>
+  </si>
+  <si>
+    <t>92/8114</t>
+  </si>
+  <si>
+    <t>177/8114</t>
+  </si>
+  <si>
+    <t>199/8114</t>
+  </si>
+  <si>
+    <t>136/8114</t>
+  </si>
+  <si>
+    <t>104/8114</t>
+  </si>
+  <si>
+    <t>100/8114</t>
+  </si>
+  <si>
+    <t>394/8114</t>
+  </si>
+  <si>
+    <t>168/8114</t>
+  </si>
+  <si>
+    <t>133/8114</t>
+  </si>
+  <si>
+    <t>215/8114</t>
+  </si>
+  <si>
+    <t>206/8114</t>
+  </si>
+  <si>
+    <t>154/8114</t>
+  </si>
+  <si>
+    <t>108/8114</t>
+  </si>
+  <si>
+    <t>128/8114</t>
+  </si>
+  <si>
+    <t>186/8114</t>
+  </si>
+  <si>
+    <t>143/8114</t>
+  </si>
+  <si>
+    <t>178/8114</t>
+  </si>
+  <si>
+    <t>46/8114</t>
+  </si>
+  <si>
+    <t>63/8114</t>
+  </si>
+  <si>
+    <t>115/8114</t>
+  </si>
+  <si>
+    <t>78/8114</t>
+  </si>
+  <si>
+    <t>220/8114</t>
+  </si>
+  <si>
+    <t>350/8114</t>
+  </si>
+  <si>
+    <t>214/8114</t>
+  </si>
+  <si>
+    <t>346/8114</t>
+  </si>
+  <si>
+    <t>76/8114</t>
+  </si>
+  <si>
+    <t>270/8114</t>
+  </si>
+  <si>
+    <t>58/8114</t>
+  </si>
+  <si>
+    <t>26/8114</t>
+  </si>
+  <si>
+    <t>32/8114</t>
+  </si>
+  <si>
+    <t>252/8114</t>
+  </si>
+  <si>
+    <t>83/8114</t>
+  </si>
+  <si>
+    <t>99/8114</t>
+  </si>
+  <si>
+    <t>217/8114</t>
+  </si>
+  <si>
+    <t>167/8114</t>
+  </si>
+  <si>
+    <t>49/8114</t>
+  </si>
+  <si>
+    <t>75/8114</t>
+  </si>
+  <si>
+    <t>41/8114</t>
+  </si>
+  <si>
+    <t>52/8114</t>
+  </si>
+  <si>
+    <t>101/8114</t>
+  </si>
+  <si>
+    <t>182/8114</t>
+  </si>
+  <si>
+    <t>170/8114</t>
+  </si>
+  <si>
+    <t>102/8114</t>
+  </si>
+  <si>
+    <t>56/8114</t>
+  </si>
+  <si>
+    <t>21/8114</t>
+  </si>
+  <si>
+    <t>37/8114</t>
+  </si>
+  <si>
+    <t>97/8114</t>
+  </si>
+  <si>
+    <t>35/8114</t>
+  </si>
+  <si>
+    <t>31/8114</t>
+  </si>
+  <si>
+    <t>61/8114</t>
+  </si>
+  <si>
+    <t>59/8114</t>
+  </si>
+  <si>
+    <t>231/8114</t>
+  </si>
+  <si>
+    <t>132/8114</t>
+  </si>
+  <si>
+    <t>18/8114</t>
+  </si>
+  <si>
+    <t>88/8114</t>
+  </si>
+  <si>
+    <t>87/8114</t>
+  </si>
+  <si>
+    <t>33/8114</t>
+  </si>
+  <si>
+    <t>106/8114</t>
+  </si>
+  <si>
+    <t>85/8114</t>
+  </si>
+  <si>
+    <t>44/8114</t>
+  </si>
+  <si>
+    <t>121/8114</t>
+  </si>
+  <si>
+    <t>74/8114</t>
+  </si>
+  <si>
+    <t>66/8114</t>
+  </si>
+  <si>
+    <t>50/8114</t>
+  </si>
+  <si>
+    <t>71/8114</t>
+  </si>
+  <si>
+    <t>146/8114</t>
+  </si>
+  <si>
+    <t>122/8114</t>
+  </si>
+  <si>
+    <t>69/8114</t>
+  </si>
+  <si>
+    <t>48/8114</t>
   </si>
   <si>
     <t>22415/12444/16414/16818/18591/18519/20375/71810/21803/19698/12028/20850/11652/16151/19385/107995/12567/12387/18973/21812/12048/14365/13712/234729/21374/22411/14991/17865/242705/21423/18045/12330/22333/30939/18972/217232/26406/20851/53859/18035/14281/21809/17702/26401/22334/22418/19057/19645/17869/22422/12914/23872/11908/12575/56310/16169/73181/15001/16992/17128/18596/69745/14283/19697/18034/18590/11798/16177/16178/13714/11910/16184/18538/74343/22329/18033/60599/59001/21894/12580/20525/52206/18595/19384/56317/66979/22419/16653/17000/21937/70461/16408/16186/11739/11513/16168/16453/18021/12442/17127/21813/17532/18018/22420/12445/15015/14960/22417/15894/15000/14998/13654/20130/13653/21808/12236/14369/18708/15002/12257/11911/14362/22695/14367/14366/57265/16476/15042/328572/66922/15039/22059/15018/14972/12916/66440/12237/15040/15007/73333/12443/667977/15019/14964/14961/12579/15024/15006/14999/93897/19428/15013</t>
@@ -1092,12 +1107,12 @@
     <t>56463/19182/20375/26400/19698/12576/20848/11652/16151/66420/15507/12505/20020/19185/21762/21374/68652/14991/22123/26397/69920/21929/12534/17246/19184/66997/22627/53859/245841/18035/66354/19179/19766/20963/19645/22631/17869/66513/78929/12914/16155/12575/18037/19106/69241/13001/19697/18034/12566/23997/70247/19231/22352/22029/59029/22034/12428/74414/69870/18033/26409/433759/14191/12494/231329/19384/57296/18036/16408/16179/13666/16453/16154/69833/234779/15015/15894/69253/66491/56436/17463/19664/230073/18708/17096/13000/12495/16476/26416/15042/328572/15039/12043/22059/15512/15018/14972/20016/15040/15007/667977/15019/14964/12995/15024/15006/19428/15013</t>
   </si>
   <si>
+    <t>22415/12444/16402/16421/27060/22371/16391/12576/12028/11652/16151/26395/12540/12567/12387/51792/14365/19053/19211/21374/18132/16776/22411/14991/22370/17305/16362/15214/16773/13649/17246/26941/217325/19179/21828/22418/19645/22422/56233/12914/15205/16419/15975/15976/12575/17858/21826/19106/12005/16774/93687/18596/14102/19697/21416/320910/16404/12566/16412/12370/20846/14268/226519/16782/226849/16780/241226/23928/18128/16410/16403/26427/12841/19650/12428/18129/78284/13645/21827/18033/12448/21923/12913/433759/15207/20750/19303/23962/16848/22419/16653/21937/14082/94216/12830/13685/12827/12367/142980/19651/12845/270118/73699/319480/19225/22420/12445/16399/100038882/15015/22417/21871/18131/19664/20847/21825/12571/14369/18708/52432/231655/56489/19699/235542/56458/224912/14362/14367/106759/12835/14366/57265/103806/16779/231991/15042/328572/21415/15039/93737/12018/22059/14784/15018/433586/14972/170787/107932/55927/12829/15040/15007/70315/12443/667977/15019/14964/15024/15006/93897/15013</t>
+  </si>
+  <si>
     <t>16414/18591/16402/16421/19353/26395/14186/76709/12540/11848/67771/22325/216963/17906/19046/109711/12928/18643/13649/67112/14674/382562/12062/544963/22330/219140/56419/17886/105855/224105/16419/107589/67268/19877/13367/18596/320910/16404/108100/117150/16412/18590/14268/241226/329165/50884/16410/16403/14178/20779/13645/54635/404710/18720/242687/18595/56378/19303/11461/56443/11867/16653/20430/29875/70584/17907/16409/16411/16408/14168/22376/17698/14182/12927/19684/319480/17532/12669/19354/22324/54004/245857/16399/14701/14173/237860/20130/19045/12672/18708/238564/14062/19241/12475/22350/14184/60595/66922/12631/330662/11465/98932/381924/213788/68089</t>
   </si>
   <si>
-    <t>22415/12444/16402/16421/27060/22371/16391/12576/12028/11652/16151/26395/12540/12567/12387/51792/14365/19053/19211/21374/18132/16776/22411/14991/22370/17305/16362/15214/16773/13649/17246/26941/217325/19179/21828/22418/19645/22422/56233/12914/15205/16419/15975/15976/12575/17858/21826/19106/12005/16774/93687/18596/14102/19697/21416/320910/16404/12566/16412/12370/20846/14268/226519/16782/226849/16780/241226/23928/18128/16410/16403/26427/12841/19650/12428/18129/78284/13645/21827/18033/12448/21923/12913/433759/15207/20750/19303/23962/16848/22419/16653/21937/14082/94216/12830/13685/12827/12367/142980/19651/12845/270118/73699/319480/19225/22420/12445/16399/100038882/15015/22417/21871/18131/19664/20847/21825/12571/14369/18708/52432/231655/56489/19699/235542/56458/224912/14362/14367/106759/12835/14366/57265/103806/16779/231991/15042/328572/21415/15039/93737/12018/22059/14784/15018/433586/14972/170787/107932/55927/12829/15040/15007/70315/12443/667977/15019/14964/15024/15006/93897/15013</t>
-  </si>
-  <si>
     <t>18053/12444/18591/16402/16421/19353/22371/12576/20869/16197/11652/16151/109333/26395/14186/16001/16337/13836/12567/51792/12048/17295/19053/19211/12977/16776/20181/22370/12539/16773/20393/74747/13649/17246/67112/14257/30955/22627/320207/20963/21828/18414/22631/11600/17869/16419/15975/15976/15370/12575/14695/21826/16774/18596/12978/16452/19697/83490/320910/16404/12566/16412/18590/170755/14268/226519/16782/226849/16780/241226/16184/263803/23928/16410/16403/14178/26427/12125/12841/14696/18049/74343/78284/16194/13636/24088/13645/54635/13639/21827/18033/12448/21923/12913/20104/108079/12986/15234/18127/14688/18595/20750/14693/16653/16190/14168/94216/12830/16186/11601/13685/12827/14182/19651/16453/12845/53978/73699/319480/12669/67168/12445/16399/14701/65086/14173/14700/17210/14710/21898/21825/12571/74551/18708/52432/11911/19699/235542/104709/12835/14062/56484/78134/18750/16779/231991/14184/14600/12043/320795/75705/18413/22059/14784/12829/381810/14707/16188/12443</t>
   </si>
   <si>
@@ -1107,12 +1122,12 @@
     <t>12390/19344/234852/14275/11772/17274/20405/19158/14186/16001/27681/76709/12540/70527/21812/12389/11848/232910/67771/216963/22088/78287/12343/14991/271457/19159/72318/109689/19345/19341/22187/67282/30930/13649/17246/19325/18806/13132/208650/22042/69150/213990/57440/68767/28006/83814/13660/208092/16184/215632/22034/77038/98878/69178/66371/228998/20779/18805/18720/76959/12757/12345/18595/56378/77407/56443/11867/22376/16186/75767/71955/73711/56440/27965/17127/21813/69710/13430/68953/12402/13854/15015/18854/54673/73728/212285/75608/72543/26431/320129/194309/11845/12767/55988/11840/52055/11842/211914/14772/15042/14184/66251/347722/15039/93737/106572/66914/15512/216869/15018/14972/15040/15007/667977/15019/14964/259300/26385/215280/19326/12774/68089/19349/15024/15006/15013/67064</t>
   </si>
   <si>
+    <t>12444/170770/16391/12576/20848/20850/11652/12567/68652/14360/21929/15979/14694/20851/18035/21933/68135/208650/15975/15976/17858/19106/13001/14102/16452/19697/12566/54123/20846/14130/16184/71586/22034/16176/16175/16159/24088/18033/12448/26409/22062/68098/23961/18036/17698/16186/16179/13666/16453/17874/246728/12445/228607/21898/20847/12571/230073/18708/56489/170743/81897/13000/246730/22059/266632/15512/13448/12443/12995/56382</t>
+  </si>
+  <si>
     <t>16414/11783/20224/19324/66397/18035/12266/76308/19697/12369/18034/12362/12370/12747/16176/16159/20333/24088/18033/269523/16409/66824/12367/17874/13627/21898/16173/11840/12475/15512/17951/67160/12176/17952/17948</t>
   </si>
   <si>
-    <t>12444/170770/16391/12576/20848/20850/11652/12567/68652/14360/21929/15979/14694/20851/18035/21933/68135/208650/15975/15976/17858/19106/13001/14102/16452/19697/12566/54123/20846/14130/16184/71586/22034/16176/16175/16159/24088/18033/12448/26409/22062/68098/23961/18036/17698/16186/16179/13666/16453/17874/246728/12445/228607/21898/20847/12571/230073/18708/56489/170743/81897/13000/246730/22059/266632/15512/13448/12443/12995/56382</t>
-  </si>
-  <si>
     <t>21678/68473/18016/56289/211652/50523/16475/56274/27373/29806/215653/97064/21679/101543/233651/16798/232157/22601/21676</t>
   </si>
   <si>
@@ -1131,12 +1146,12 @@
     <t>18591/19353/16391/26400/15162/12028/20848/11652/16151/12122/26395/12567/12387/14991/17164/56486/242705/22187/15979/30955/320207/18035/15251/14281/20963/16195/19057/19645/17869/12914/57781/12524/54720/15975/15976/12575/73181/14695/19106/12266/14102/16452/19697/54123/12768/12370/20846/20779/14696/18033/14688/14693/16438/57436/16653/16439/21937/14082/11601/12367/142980/18021/93739/75600/19225/18018/234779/56208/15015/14701/14173/15894/100504663/14700/14710/20847/12571/18708/17096/56489/22695/104709/106759/16476/26416/15042/328572/15039/12018/22059/15018/14972/15040/15007/14707/12443/667977/15019/14964/12774/15024/15006/15013</t>
   </si>
   <si>
+    <t>72058/60363/19353/26400/17274/20869/241113/12540/12567/51792/11848/18016/19053/75723/17906/109711/66713/26941/217325/17883/218518/18260/26401/58187/17886/12737/15163/12394/67268/19877/83814/21873/16412/74117/18538/20779/68328/16800/54357/108079/19079/11461/56449/22323/21872/70497/13043/22376/17698/19684/73699/56332/17882/231830/235442/18417/16456/12638/12741/27494/52432/104027/224912/434204/56173/72065/22350/16476/67374/60595/93737/17879/76089/13866/11465/19082/98932/12443/26408/668940/17904/667772</t>
+  </si>
+  <si>
     <t>15277/216558/109754/216019/14584/14635/15212/29858/54128/15211/72157/212032/227620/94181/230582/66681/22235/19703/69080/234730/56174/14751/245847/15275/103988/74091/320635/26384/109785/67883</t>
   </si>
   <si>
-    <t>72058/60363/19353/26400/17274/20869/241113/12540/12567/51792/11848/18016/19053/75723/17906/109711/66713/26941/217325/17883/218518/18260/26401/58187/17886/12737/15163/12394/67268/19877/83814/21873/16412/74117/18538/20779/68328/16800/54357/108079/19079/11461/56449/22323/21872/70497/13043/22376/17698/19684/73699/56332/17882/231830/235442/18417/16456/12638/12741/27494/52432/104027/224912/434204/56173/72065/22350/16476/67374/60595/93737/17879/76089/13866/11465/19082/98932/12443/26408/668940/17904/667772</t>
-  </si>
-  <si>
     <t>16414/16402/11848/16362/14281/12258/12266/12263/19697/12369/17087/16412/12362/22034/16176/16175/16159/18033/16409/66824/16179/12367/75600/17874/14678/216799/12259/12262/12260/50908/21898/15900/106759/12475/16476/26416/50909/225471/12631/266632/12268/317677</t>
   </si>
   <si>
@@ -1152,6 +1167,9 @@
     <t>16414/16402/19344/67951/27060/19353/12491/13057/17113/11972/13058/11974/14129/17969/14991/16784/271457/54411/19345/53331/12330/13039/21828/22042/16419/21826/11984/12266/15001/21355/20288/16412/17970/14130/17533/16410/20333/24088/21827/242341/100226/22319/11461/53421/12721/16409/16783/12845/15015/140792/14960/71693/21354/15000/14998/21871/13040/21898/66290/21825/15002/12475/21899/66212/15042/18779/50909/15039/246256/14131/15018/14972/11465/15040/15007/17972/667977/15019/14964/14961/20335/56644/19349/15024/15006/14999/15013</t>
   </si>
   <si>
+    <t>22415/20587/14871/21803/50868/18104/12028/11652/26395/15368/16001/12567/12387/21812/12048/14365/56615/17295/13712/19211/17873/18024/22411/242705/13649/21809/23882/27015/22418/19645/17869/22422/12575/12005/17128/93687/16973/21416/14873/14859/56456/14865/16842/15234/11461/22419/16653/29861/14860/17127/21813/22420/14872/234779/13197/22417/21808/12571/14863/14369/18708/20416/14362/14367/212398/14366/57265/18750/21415/12018/14862/22059/14784/14870/11465/14867/239985/12443/26462/83796/18752/93897</t>
+  </si>
+  <si>
     <t>16818/16161/20852/21803/20848/20850/16151/21812/14462/20183/20181/11622/15979/20851/18035/15251/14281/16364/16195/19057/12394/18037/15001/17128/16452/19697/16177/20846/22637/16184/16176/16194/19885/18033/18036/60504/16190/16186/16453/18021/19883/17127/21813/18018/14960/15000/14998/20182/15002/16476/26416/14961/14999</t>
   </si>
   <si>
@@ -1173,6 +1191,9 @@
     <t>12028/26395/12387/17873/20183/20181/23882/27015/17869/12575/21416/18510/59069/16842/18211/16653/13197/20182/76551/21415/12018/22059/12443</t>
   </si>
   <si>
+    <t>18591/12576/11652/16151/26395/16001/12387/104156/19211/242705/13649/17246/18035/18792/19645/12914/12575/18596/19697/21416/12566/18590/16178/26427/20732/78284/16842/13645/54635/18033/12448/12913/18595/16653/18791/14182/94224/13876/18708/11911/56458/231991/328572/21415/12043/22059/14784/14870/13866/12443</t>
+  </si>
+  <si>
     <t>68275/17216/17218/18973/18972/17217/106344/14156/18969/69745/17219/18538/59001/19891/72151/17220/66979/69263/327762/17215/69724/16881</t>
   </si>
   <si>
@@ -1209,24 +1230,21 @@
     <t>16414/20391/19353/12122/12389/14991/14360/16773/13052/12524/15001/12370/11352/11350/24051/11461/16408/12367/19354/15015/14960/15894/15000/14998/13138/15002/13405/140781/15042/15039/15018/14972/11465/15040/15007/12443/667977/15019/14964/14961/12519/15024/15006/14999/15013</t>
   </si>
   <si>
+    <t>19353/15162/11652/14389/26395/76709/12540/67771/22325/14129/17969/12928/94176/18806/20963/18753/17909/16331/19264/14130/18805/18720/67916/242687/56378/56443/11867/22323/22376/16332/19354/13430/22324/234779/18708/17096/11845/18750/211914/12631/20698/17118/18752/68089</t>
+  </si>
+  <si>
+    <t>56847/104776/74147/66054/67689/93747/97212/56752/14417/228608/11669/99586/72535/110695/73748/268860/11364/14415/56690/621603</t>
+  </si>
+  <si>
     <t>15277/21857/12576/20848/11652/26395/15368/16001/16337/228026/13058/15979/216019/13649/17347/15251/13614/11600/12914/22042/12575/12322/19697/212032/16194/13645/18033/20104/20525/17346/18127/17000/11601/13685/112405/22041/22346/234779/15275/18787/21898/18708/18750/108058/328572/12043/14433/112406/18655/13866/16828/18752</t>
   </si>
   <si>
-    <t>56847/104776/74147/66054/67689/93747/97212/56752/14417/228608/11669/99586/72535/110695/73748/268860/11364/14415/56690/621603</t>
-  </si>
-  <si>
-    <t>19353/15162/11652/14389/26395/76709/12540/67771/22325/14129/17969/12928/94176/18806/20963/18753/17909/16331/19264/14130/18805/18720/67916/242687/56378/56443/11867/22323/22376/16332/19354/13430/22324/234779/18708/17096/11845/18750/211914/12631/20698/17118/18752/68089</t>
-  </si>
-  <si>
-    <t>18591/12576/11652/16151/26395/16001/12387/19211/242705/13649/17246/18035/19645/12914/12575/18596/19697/21416/12566/18590/26427/78284/16842/13645/54635/18033/12448/12913/18595/16653/14182/94224/18708/11911/56458/231991/328572/21415/12043/22059/14784/14870/13866/12443</t>
+    <t>20683/268977/21803/51792/21812/11848/15903/19053/13179/15902/21809/15904/17129/12166/17869/12914/68010/19877/17128/11477/13559/19650/18741/17125/73699/12160/17127/21813/21402/17130/21781/12161/21808/21825/17965/15901/21815/11480/12167/328572/228839/12168/12579</t>
   </si>
   <si>
     <t>68275/13870/14884/18973/18972/17420/71991/50505/106344/13872/13194/69745/22592/18538/22590/59001/19359/19891/72151/66979/22591/99375/69263/66467/16881</t>
   </si>
   <si>
-    <t>20683/268977/21803/51792/21812/11848/15903/19053/13179/15902/21809/15904/17129/12166/17869/12914/68010/19877/17128/11477/13559/19650/18741/17125/73699/12160/17127/21813/21402/17130/21781/12161/21808/21825/17965/15901/21815/11480/12167/328572/228839/12168/12579</t>
-  </si>
-  <si>
     <t>20832/26400/19089/17155/12028/22230/22213/18024/116891/66530/140740/20224/56709/66753/12330/66397/78943/107513/100037258/13135/67819/140499/50873/19106/81500/18453/13198/12304/12364/72265/12334/13418/81910/27054/20014/69276/67437/19359/269523/18786/13200/67397/53421/192193/110379/13666/23802/64209/16430/68292/21402/227619/230815/108687/223455/69608/22393/80286/217365/17872/216440/70361/11911/226418/216197/270669/240667/66212/50762/12043/12018/15512/26408/109815/66105/20335/56550</t>
   </si>
   <si>
@@ -1242,18 +1260,18 @@
     <t>19353/170770/21803/12028/11652/26395/12387/21812/11848/17873/11799/14281/21809/23882/27015/17869/12575/12005/17128/58801/21416/19730/12125/16842/16653/12367/17127/21813/19354/13197/21808/18708/16476/21415/12043/12018/22059/12443</t>
   </si>
   <si>
+    <t>15277/11677/216558/216019/14635/14387/72157/212032/14595/66681/14187/11605/18642/319625/15275/103988/12091/67861/76051</t>
+  </si>
+  <si>
+    <t>16818/16161/20852/13389/20850/16151/14462/16162/15979/20851/18035/14281/19057/18037/15001/16452/19697/20846/22637/16184/18128/16159/18129/18033/18036/16190/16186/16453/18021/270118/18018/14960/15000/14998/18131/19664/15002/103806/16476/26416/433586/14961/14999</t>
+  </si>
+  <si>
+    <t>12028/20848/20850/11652/26395/12567/56289/17873/20183/20181/242705/13649/20851/23882/27015/19645/12575/13645/16653/16453/234779/13197/20182/12571/18708/56484/18750/12018/22059/14784/14198/13866/12443/18752</t>
+  </si>
+  <si>
     <t>270076/11370/11430/23986/74147/13177/12894/93747/97212/11363/56752/15107/11532/12896/80911/11669/11409/66885/94180/74205/72535/113868/52538/110695/231086/11364/11522</t>
   </si>
   <si>
-    <t>15277/11677/216558/216019/14635/14387/72157/212032/14595/66681/14187/11605/18642/319625/15275/103988/12091/67861/76051</t>
-  </si>
-  <si>
-    <t>16818/16161/20852/13389/20850/16151/14462/16162/15979/20851/18035/14281/19057/18037/15001/16452/19697/20846/22637/16184/18128/16159/18129/18033/18036/16190/16186/16453/18021/270118/18018/14960/15000/14998/18131/19664/15002/103806/16476/26416/433586/14961/14999</t>
-  </si>
-  <si>
-    <t>12028/20848/20850/11652/26395/12567/56289/17873/20183/20181/242705/13649/20851/23882/27015/19645/12575/13645/16653/16453/234779/13197/20182/12571/18708/56484/18750/12018/22059/14784/14198/13866/12443/18752</t>
-  </si>
-  <si>
     <t>12491/20869/20848/11652/16151/241113/20183/20181/20528/18976/18035/19013/18037/16452/12894/19697/72674/18033/108079/21938/20525/19079/109648/68465/21937/18036/94180/74205/384783/20182/74551/100705/19247/12702/16370/19082</t>
   </si>
   <si>
@@ -1362,12 +1380,12 @@
     <t>mmu04014</t>
   </si>
   <si>
+    <t>mmu04720</t>
+  </si>
+  <si>
     <t>mmu04015</t>
   </si>
   <si>
-    <t>mmu04720</t>
-  </si>
-  <si>
     <t>mmu00562</t>
   </si>
   <si>
@@ -1383,15 +1401,15 @@
     <t>mmu05032</t>
   </si>
   <si>
+    <t>mmu04260</t>
+  </si>
+  <si>
+    <t>mmu04970</t>
+  </si>
+  <si>
     <t>mmu04921</t>
   </si>
   <si>
-    <t>mmu04260</t>
-  </si>
-  <si>
-    <t>mmu04970</t>
-  </si>
-  <si>
     <t>mmu04932</t>
   </si>
   <si>
@@ -1422,48 +1440,48 @@
     <t>mmu04730</t>
   </si>
   <si>
+    <t>mmu04136</t>
+  </si>
+  <si>
+    <t>mmu03018</t>
+  </si>
+  <si>
+    <t>mmu04270</t>
+  </si>
+  <si>
+    <t>mmu04146</t>
+  </si>
+  <si>
+    <t>mmu00564</t>
+  </si>
+  <si>
+    <t>mmu05224</t>
+  </si>
+  <si>
+    <t>mmu01521</t>
+  </si>
+  <si>
+    <t>mmu04910</t>
+  </si>
+  <si>
+    <t>mmu00230</t>
+  </si>
+  <si>
+    <t>mmu04727</t>
+  </si>
+  <si>
+    <t>mmu04371</t>
+  </si>
+  <si>
     <t>mmu05211</t>
   </si>
   <si>
-    <t>mmu04146</t>
-  </si>
-  <si>
-    <t>mmu04136</t>
-  </si>
-  <si>
-    <t>mmu04270</t>
-  </si>
-  <si>
-    <t>mmu03018</t>
-  </si>
-  <si>
-    <t>mmu00564</t>
-  </si>
-  <si>
-    <t>mmu05224</t>
-  </si>
-  <si>
-    <t>mmu01521</t>
-  </si>
-  <si>
-    <t>mmu04910</t>
-  </si>
-  <si>
-    <t>mmu00230</t>
-  </si>
-  <si>
-    <t>mmu04727</t>
-  </si>
-  <si>
-    <t>mmu04371</t>
+    <t>mmu04912</t>
   </si>
   <si>
     <t>mmu04080</t>
   </si>
   <si>
-    <t>mmu04912</t>
-  </si>
-  <si>
     <t>mmu00100</t>
   </si>
   <si>
@@ -1536,6 +1554,9 @@
     <t>mmu04931</t>
   </si>
   <si>
+    <t>mmu01200</t>
+  </si>
+  <si>
     <t>Axon guidance</t>
   </si>
   <si>
@@ -1623,12 +1644,12 @@
     <t>Ras signaling pathway</t>
   </si>
   <si>
+    <t>Long-term potentiation</t>
+  </si>
+  <si>
     <t>Rap1 signaling pathway</t>
   </si>
   <si>
-    <t>Long-term potentiation</t>
-  </si>
-  <si>
     <t>Inositol phosphate metabolism</t>
   </si>
   <si>
@@ -1644,15 +1665,15 @@
     <t>Morphine addiction</t>
   </si>
   <si>
+    <t>Cardiac muscle contraction</t>
+  </si>
+  <si>
+    <t>Salivary secretion</t>
+  </si>
+  <si>
     <t>Oxytocin signaling pathway</t>
   </si>
   <si>
-    <t>Cardiac muscle contraction</t>
-  </si>
-  <si>
-    <t>Salivary secretion</t>
-  </si>
-  <si>
     <t>Non-alcoholic fatty liver disease (NAFLD)</t>
   </si>
   <si>
@@ -1683,48 +1704,48 @@
     <t>Long-term depression</t>
   </si>
   <si>
+    <t>Autophagy - other</t>
+  </si>
+  <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
+    <t>Vascular smooth muscle contraction</t>
+  </si>
+  <si>
+    <t>Peroxisome</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>Breast cancer</t>
+  </si>
+  <si>
+    <t>EGFR tyrosine kinase inhibitor resistance</t>
+  </si>
+  <si>
+    <t>Insulin signaling pathway</t>
+  </si>
+  <si>
+    <t>Purine metabolism</t>
+  </si>
+  <si>
+    <t>GABAergic synapse</t>
+  </si>
+  <si>
+    <t>Apelin signaling pathway</t>
+  </si>
+  <si>
     <t>Renal cell carcinoma</t>
   </si>
   <si>
-    <t>Peroxisome</t>
-  </si>
-  <si>
-    <t>Autophagy - other</t>
-  </si>
-  <si>
-    <t>Vascular smooth muscle contraction</t>
-  </si>
-  <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
-    <t>Glycerophospholipid metabolism</t>
-  </si>
-  <si>
-    <t>Breast cancer</t>
-  </si>
-  <si>
-    <t>EGFR tyrosine kinase inhibitor resistance</t>
-  </si>
-  <si>
-    <t>Insulin signaling pathway</t>
-  </si>
-  <si>
-    <t>Purine metabolism</t>
-  </si>
-  <si>
-    <t>GABAergic synapse</t>
-  </si>
-  <si>
-    <t>Apelin signaling pathway</t>
+    <t>GnRH signaling pathway</t>
   </si>
   <si>
     <t>Neuroactive ligand-receptor interaction</t>
   </si>
   <si>
-    <t>GnRH signaling pathway</t>
-  </si>
-  <si>
     <t>Steroid biosynthesis</t>
   </si>
   <si>
@@ -1797,319 +1818,319 @@
     <t>Insulin resistance</t>
   </si>
   <si>
-    <t>106/2632</t>
-  </si>
-  <si>
-    <t>72/2632</t>
-  </si>
-  <si>
-    <t>88/2632</t>
-  </si>
-  <si>
-    <t>99/2632</t>
-  </si>
-  <si>
-    <t>77/2632</t>
-  </si>
-  <si>
-    <t>81/2632</t>
-  </si>
-  <si>
-    <t>102/2632</t>
-  </si>
-  <si>
-    <t>84/2632</t>
-  </si>
-  <si>
-    <t>59/2632</t>
-  </si>
-  <si>
-    <t>75/2632</t>
-  </si>
-  <si>
-    <t>58/2632</t>
-  </si>
-  <si>
-    <t>95/2632</t>
-  </si>
-  <si>
-    <t>79/2632</t>
-  </si>
-  <si>
-    <t>20/2632</t>
-  </si>
-  <si>
-    <t>51/2632</t>
-  </si>
-  <si>
-    <t>54/2632</t>
-  </si>
-  <si>
-    <t>52/2632</t>
-  </si>
-  <si>
-    <t>62/2632</t>
-  </si>
-  <si>
-    <t>39/2632</t>
-  </si>
-  <si>
-    <t>171/2632</t>
-  </si>
-  <si>
-    <t>68/2632</t>
-  </si>
-  <si>
-    <t>48/2632</t>
-  </si>
-  <si>
-    <t>53/2632</t>
-  </si>
-  <si>
-    <t>18/2632</t>
-  </si>
-  <si>
-    <t>66/2632</t>
-  </si>
-  <si>
-    <t>105/2632</t>
-  </si>
-  <si>
-    <t>41/2632</t>
-  </si>
-  <si>
-    <t>92/2632</t>
-  </si>
-  <si>
-    <t>49/2632</t>
-  </si>
-  <si>
-    <t>74/2632</t>
-  </si>
-  <si>
-    <t>43/2632</t>
-  </si>
-  <si>
-    <t>78/2632</t>
-  </si>
-  <si>
-    <t>110/2632</t>
-  </si>
-  <si>
-    <t>57/2632</t>
-  </si>
-  <si>
-    <t>33/2632</t>
-  </si>
-  <si>
-    <t>44/2632</t>
-  </si>
-  <si>
-    <t>32/2632</t>
-  </si>
-  <si>
-    <t>24/2632</t>
-  </si>
-  <si>
-    <t>36/2632</t>
-  </si>
-  <si>
-    <t>35/2632</t>
-  </si>
-  <si>
-    <t>42/2632</t>
-  </si>
-  <si>
-    <t>60/2632</t>
-  </si>
-  <si>
-    <t>47/2632</t>
-  </si>
-  <si>
-    <t>40/2632</t>
-  </si>
-  <si>
-    <t>64/2632</t>
-  </si>
-  <si>
-    <t>63/2632</t>
-  </si>
-  <si>
-    <t>117/2632</t>
-  </si>
-  <si>
-    <t>13/2632</t>
-  </si>
-  <si>
-    <t>23/2632</t>
-  </si>
-  <si>
-    <t>26/2632</t>
-  </si>
-  <si>
-    <t>111/2632</t>
-  </si>
-  <si>
-    <t>55/2632</t>
-  </si>
-  <si>
-    <t>21/2632</t>
-  </si>
-  <si>
-    <t>56/2632</t>
-  </si>
-  <si>
-    <t>46/2632</t>
-  </si>
-  <si>
-    <t>29/2632</t>
-  </si>
-  <si>
-    <t>31/2632</t>
-  </si>
-  <si>
-    <t>34/2632</t>
-  </si>
-  <si>
-    <t>27/2632</t>
-  </si>
-  <si>
-    <t>14/2632</t>
-  </si>
-  <si>
-    <t>61/2632</t>
-  </si>
-  <si>
-    <t>133/2632</t>
-  </si>
-  <si>
-    <t>175/8092</t>
-  </si>
-  <si>
-    <t>114/8092</t>
-  </si>
-  <si>
-    <t>150/8092</t>
-  </si>
-  <si>
-    <t>134/8092</t>
-  </si>
-  <si>
-    <t>144/8092</t>
-  </si>
-  <si>
-    <t>194/8092</t>
-  </si>
-  <si>
-    <t>153/8092</t>
-  </si>
-  <si>
-    <t>98/8092</t>
-  </si>
-  <si>
-    <t>96/8092</t>
-  </si>
-  <si>
-    <t>140/8092</t>
-  </si>
-  <si>
-    <t>147/8092</t>
-  </si>
-  <si>
-    <t>23/8092</t>
-  </si>
-  <si>
-    <t>86/8092</t>
-  </si>
-  <si>
-    <t>93/8092</t>
-  </si>
-  <si>
-    <t>90/8092</t>
-  </si>
-  <si>
-    <t>113/8092</t>
-  </si>
-  <si>
-    <t>62/8092</t>
-  </si>
-  <si>
-    <t>25/8092</t>
-  </si>
-  <si>
-    <t>131/8092</t>
-  </si>
-  <si>
-    <t>130/8092</t>
-  </si>
-  <si>
-    <t>228/8092</t>
-  </si>
-  <si>
-    <t>213/8092</t>
-  </si>
-  <si>
-    <t>197/8092</t>
-  </si>
-  <si>
-    <t>151/8092</t>
-  </si>
-  <si>
-    <t>116/8092</t>
-  </si>
-  <si>
-    <t>40/8092</t>
-  </si>
-  <si>
-    <t>68/8092</t>
-  </si>
-  <si>
-    <t>129/8092</t>
-  </si>
-  <si>
-    <t>82/8092</t>
-  </si>
-  <si>
-    <t>97/8092</t>
-  </si>
-  <si>
-    <t>80/8092</t>
-  </si>
-  <si>
-    <t>141/8092</t>
-  </si>
-  <si>
-    <t>139/8092</t>
-  </si>
-  <si>
-    <t>285/8092</t>
-  </si>
-  <si>
-    <t>89/8092</t>
-  </si>
-  <si>
-    <t>19/8092</t>
-  </si>
-  <si>
-    <t>38/8092</t>
-  </si>
-  <si>
-    <t>126/8092</t>
-  </si>
-  <si>
-    <t>43/8092</t>
-  </si>
-  <si>
-    <t>64/8092</t>
-  </si>
-  <si>
-    <t>55/8092</t>
-  </si>
-  <si>
-    <t>24/8092</t>
-  </si>
-  <si>
-    <t>109/8092</t>
+    <t>Carbon metabolism</t>
+  </si>
+  <si>
+    <t>106/2647</t>
+  </si>
+  <si>
+    <t>72/2647</t>
+  </si>
+  <si>
+    <t>88/2647</t>
+  </si>
+  <si>
+    <t>99/2647</t>
+  </si>
+  <si>
+    <t>77/2647</t>
+  </si>
+  <si>
+    <t>81/2647</t>
+  </si>
+  <si>
+    <t>102/2647</t>
+  </si>
+  <si>
+    <t>84/2647</t>
+  </si>
+  <si>
+    <t>59/2647</t>
+  </si>
+  <si>
+    <t>75/2647</t>
+  </si>
+  <si>
+    <t>58/2647</t>
+  </si>
+  <si>
+    <t>95/2647</t>
+  </si>
+  <si>
+    <t>79/2647</t>
+  </si>
+  <si>
+    <t>20/2647</t>
+  </si>
+  <si>
+    <t>51/2647</t>
+  </si>
+  <si>
+    <t>54/2647</t>
+  </si>
+  <si>
+    <t>52/2647</t>
+  </si>
+  <si>
+    <t>62/2647</t>
+  </si>
+  <si>
+    <t>39/2647</t>
+  </si>
+  <si>
+    <t>171/2647</t>
+  </si>
+  <si>
+    <t>68/2647</t>
+  </si>
+  <si>
+    <t>48/2647</t>
+  </si>
+  <si>
+    <t>53/2647</t>
+  </si>
+  <si>
+    <t>18/2647</t>
+  </si>
+  <si>
+    <t>66/2647</t>
+  </si>
+  <si>
+    <t>105/2647</t>
+  </si>
+  <si>
+    <t>41/2647</t>
+  </si>
+  <si>
+    <t>92/2647</t>
+  </si>
+  <si>
+    <t>49/2647</t>
+  </si>
+  <si>
+    <t>43/2647</t>
+  </si>
+  <si>
+    <t>74/2647</t>
+  </si>
+  <si>
+    <t>78/2647</t>
+  </si>
+  <si>
+    <t>110/2647</t>
+  </si>
+  <si>
+    <t>57/2647</t>
+  </si>
+  <si>
+    <t>33/2647</t>
+  </si>
+  <si>
+    <t>44/2647</t>
+  </si>
+  <si>
+    <t>32/2647</t>
+  </si>
+  <si>
+    <t>24/2647</t>
+  </si>
+  <si>
+    <t>36/2647</t>
+  </si>
+  <si>
+    <t>42/2647</t>
+  </si>
+  <si>
+    <t>60/2647</t>
+  </si>
+  <si>
+    <t>47/2647</t>
+  </si>
+  <si>
+    <t>40/2647</t>
+  </si>
+  <si>
+    <t>64/2647</t>
+  </si>
+  <si>
+    <t>63/2647</t>
+  </si>
+  <si>
+    <t>35/2647</t>
+  </si>
+  <si>
+    <t>117/2647</t>
+  </si>
+  <si>
+    <t>13/2647</t>
+  </si>
+  <si>
+    <t>23/2647</t>
+  </si>
+  <si>
+    <t>26/2647</t>
+  </si>
+  <si>
+    <t>111/2647</t>
+  </si>
+  <si>
+    <t>55/2647</t>
+  </si>
+  <si>
+    <t>21/2647</t>
+  </si>
+  <si>
+    <t>56/2647</t>
+  </si>
+  <si>
+    <t>46/2647</t>
+  </si>
+  <si>
+    <t>29/2647</t>
+  </si>
+  <si>
+    <t>31/2647</t>
+  </si>
+  <si>
+    <t>34/2647</t>
+  </si>
+  <si>
+    <t>27/2647</t>
+  </si>
+  <si>
+    <t>14/2647</t>
+  </si>
+  <si>
+    <t>61/2647</t>
+  </si>
+  <si>
+    <t>175/8114</t>
+  </si>
+  <si>
+    <t>114/8114</t>
+  </si>
+  <si>
+    <t>150/8114</t>
+  </si>
+  <si>
+    <t>134/8114</t>
+  </si>
+  <si>
+    <t>144/8114</t>
+  </si>
+  <si>
+    <t>194/8114</t>
+  </si>
+  <si>
+    <t>153/8114</t>
+  </si>
+  <si>
+    <t>98/8114</t>
+  </si>
+  <si>
+    <t>96/8114</t>
+  </si>
+  <si>
+    <t>140/8114</t>
+  </si>
+  <si>
+    <t>147/8114</t>
+  </si>
+  <si>
+    <t>23/8114</t>
+  </si>
+  <si>
+    <t>86/8114</t>
+  </si>
+  <si>
+    <t>93/8114</t>
+  </si>
+  <si>
+    <t>90/8114</t>
+  </si>
+  <si>
+    <t>113/8114</t>
+  </si>
+  <si>
+    <t>62/8114</t>
+  </si>
+  <si>
+    <t>25/8114</t>
+  </si>
+  <si>
+    <t>131/8114</t>
+  </si>
+  <si>
+    <t>130/8114</t>
+  </si>
+  <si>
+    <t>228/8114</t>
+  </si>
+  <si>
+    <t>213/8114</t>
+  </si>
+  <si>
+    <t>197/8114</t>
+  </si>
+  <si>
+    <t>151/8114</t>
+  </si>
+  <si>
+    <t>116/8114</t>
+  </si>
+  <si>
+    <t>40/8114</t>
+  </si>
+  <si>
+    <t>68/8114</t>
+  </si>
+  <si>
+    <t>129/8114</t>
+  </si>
+  <si>
+    <t>84/8114</t>
+  </si>
+  <si>
+    <t>80/8114</t>
+  </si>
+  <si>
+    <t>141/8114</t>
+  </si>
+  <si>
+    <t>139/8114</t>
+  </si>
+  <si>
+    <t>89/8114</t>
+  </si>
+  <si>
+    <t>285/8114</t>
+  </si>
+  <si>
+    <t>19/8114</t>
+  </si>
+  <si>
+    <t>38/8114</t>
+  </si>
+  <si>
+    <t>126/8114</t>
+  </si>
+  <si>
+    <t>43/8114</t>
+  </si>
+  <si>
+    <t>64/8114</t>
+  </si>
+  <si>
+    <t>55/8114</t>
+  </si>
+  <si>
+    <t>24/8114</t>
+  </si>
+  <si>
+    <t>109/8114</t>
+  </si>
+  <si>
+    <t>120/8114</t>
   </si>
   <si>
     <t>110157/20355/20359/13642/20423/13637/13643/56513/13845/12162/18803/170758/20358/57764/107449/16886/19878/20354/19206/218397/19056/12325/12934/20356/14083/56637/19876/13800/20562/226251/26456/15461/18186/93742/107448/13838/53972/14270/18845/214968/18019/18706/22065/18176/13638/20351/19055/13841/13844/18710/20346/12568/18762/231148/65254/13839/16885/243743/13835/13848/18844/259302/18479/18481/140571/16728/18846/20563/18709/19649/74769/17973/270190/319713/22063/19058/20350/171171/20361/20360/241656/18707/22067/231637/58220/13640/192198/241568/20357/13837/223881/13840/20564/14677/12323/69632/80883/22253/13176/20315/12632/26417/26413/20349/210801/214230</t>
@@ -2202,12 +2223,12 @@
     <t>110157/12313/11651/21844/13637/64143/18654/18749/18747/16590/21687/56044/18803/170758/58231/16706/12315/23797/17311/16000/56480/216148/26420/18015/14706/20418/218397/19418/14165/26419/14180/14167/22339/20662/15566/12015/22340/56392/12675/15461/14169/64337/54354/19731/14810/19419/11602/18706/18176/13638/18710/14176/14254/14812/233046/18479/14183/14174/18481/14205/19414/22341/16150/14388/18709/71785/23871/14697/19417/74769/66066/19395/20663/26396/271849/12314/14164/241656/18707/19732/217944/53357/14166/14702/26414/14708/13640/329502/18751/18783/14172/14811/333050/16542/26417/26413/14709/240057/17356/109905/226525/240168/14704/214230/211429</t>
   </si>
   <si>
+    <t>110157/11836/12313/109880/14814/19047/18749/18747/12315/14816/432530/19056/12325/11514/58200/20112/14682/15461/67071/14810/18176/19055/14812/19058/14800/26396/12314/12326/18798/16440/108071/18795/12288/18751/12323/14811/26417/26413/109905</t>
+  </si>
+  <si>
     <t>12550/110157/79264/12313/11651/244668/109880/21844/13637/64143/18654/11515/16590/56513/12929/21687/56044/18803/170758/12315/23797/17311/16000/432530/26399/104111/16416/210044/14165/14180/104110/11514/14167/29857/224129/11512/22339/106952/14682/22340/15461/14169/93742/54354/14810/11602/14683/18706/18645/18176/13638/18710/18762/14176/14254/14812/74206/14183/14174/14205/22341/18709/71785/13489/74769/19395/227377/26396/12314/14164/192786/18759/14745/18707/18798/110351/217944/217692/14166/12801/58220/14924/13640/56508/18795/99470/70549/18751/19094/78473/14677/14172/14811/16542/26417/26413/17356/109905/240168</t>
   </si>
   <si>
-    <t>110157/11836/12313/109880/14814/19047/18749/18747/12315/14816/432530/19056/12325/11514/58200/20112/14682/15461/67071/14810/18176/19055/14812/19058/14800/26396/12314/12326/18798/16440/108071/18795/12288/18751/12323/14811/26417/26413/109905</t>
-  </si>
-  <si>
     <t>18803/170749/108083/71780/75678/219135/104015/21991/20975/114663/18719/17330/84095/83493/18711/16329/269180/240752/18718/64436/228550/18706/269615/18705/18704/77116/74769/225326/170835/18717/269437/234515/107650/54384/18707/18798/224020/101490/227733/18795/69718</t>
   </si>
   <si>
@@ -2223,15 +2244,15 @@
     <t>18390/14773/12287/18575/18749/18747/11515/14401/14394/432530/14406/104111/14706/13488/210044/218461/238871/104110/11514/18574/224129/11512/23984/110355/18584/64337/16519/14683/14403/14396/18577/14697/66066/14402/12286/22348/16524/242425/11539/14702/16522/14708/18751/110886/14677/14709/18583/14704/241489</t>
   </si>
   <si>
+    <t>12858/56808/12864/12289/12298/12867/12300/66594/54377/12295/20191/67530/12294/66445/12869/11931/22004/20544/11938/67003/66142/12866/22003/11928/12868/110323/66694/140723/17888/232975/319734/12861/22272/12288/81905/20541/12296/66152/236794/66576/17708/17711/81904</t>
+  </si>
+  <si>
+    <t>12313/18749/18747/11515/76113/12315/67972/432530/104111/210044/104110/11514/224129/11512/14682/11931/11550/14683/54195/20544/20535/19092/18125/64177/11941/320707/11556/11928/60596/12314/12796/18798/232975/234889/16440/11549/12671/11548/18795/18751/19091/20192/16531</t>
+  </si>
+  <si>
     <t>110157/23939/12313/19047/18749/18747/11515/28240/56808/12289/215303/12298/12300/232807/12315/17931/432530/19878/104111/54377/12295/20191/210044/19056/12325/12294/104110/11514/224129/11512/14682/15461/19735/16519/14683/18019/18176/54195/19055/108099/207565/60596/19058/26396/12314/16524/12326/108097/227541/216459/18798/140723/319734/234889/16515/16440/16522/329502/105787/18795/12288/18751/81905/18783/20192/14677/12323/12296/211480/26417/26413/81904/329251/211429</t>
   </si>
   <si>
-    <t>12858/56808/12864/12289/12298/12867/12300/66594/54377/12295/20191/67530/12294/66445/12869/11931/22004/20544/11938/67003/66142/12866/22003/11928/12868/110323/66694/140723/17888/232975/319734/12861/22272/12288/81905/20541/12296/66152/236794/66576/17708/17711/81904</t>
-  </si>
-  <si>
-    <t>12313/18749/18747/11515/76113/12315/67972/432530/104111/210044/104110/11514/224129/11512/14682/11931/11550/14683/54195/20544/20535/19092/18125/64177/11941/320707/11556/11928/60596/12314/12796/18798/232975/234889/16440/11549/12671/11548/18795/18751/19091/20192/16531</t>
-  </si>
-  <si>
     <t>12858/66925/66108/11651/69875/68198/12864/54405/12867/21428/23797/75406/66594/26420/22433/13665/67530/17993/26419/67130/66445/56637/68194/68202/72900/67264/12869/227197/66495/67273/68375/22030/16396/18706/66046/595136/18710/108099/17992/68197/70316/67003/66142/16150/18709/12866/74769/66091/12868/67184/110323/66377/108097/208104/66694/18707/407790/12861/66416/22272/26414/105787/16367/606496/16847/66152/225887/13063/66576/17708/17711/230075</t>
   </si>
   <si>
@@ -2268,48 +2289,51 @@
     <t>14673/110157/11836/53623/109880/12921/14816/16000/19052/14682/15461/14683/18176/54195/19092/18125/60596/14800/12286/26396/18798/14687/234889/16440/329502/18795/18751/19091/18783/14677/26417/26413/211429</t>
   </si>
   <si>
+    <t>235040/19052/67841/56716/329015/74370/66615/77040/51897/242557/56717/75669/67526/245860/225326/68118/11793/213948/76559/52639</t>
+  </si>
+  <si>
+    <t>13807/103135/27756/230721/72198/72068/18641/71701/56421/75901/70640/66446/15510/58184/72162/18983/78651/50783/69305/213550/75686/218343/67678/66583/210106/93728/66094/232791/319885/234699/234594/214627/67207/53621/319618/226265/433182/13808/27998/66317/13806/240023</t>
+  </si>
+  <si>
+    <t>14673/110157/11836/12313/109880/19047/18749/18747/11515/17540/12289/17880/232807/12315/17931/54140/16533/432530/19878/104111/210044/104110/11514/224129/11512/14682/18761/11550/14683/54195/16532/13617/60596/26396/11475/12314/68458/216459/18798/16801/234889/213498/53357/16440/18754/11549/329502/11548/18795/12288/18751/19091/58802/18783/69632/26417/16531/26413/329251/211429</t>
+  </si>
+  <si>
+    <t>59038/224824/19298/19305/71382/20656/208982/235674/170789/19193/14081/18634/72129/216739/18126/19300/56794/13850/17117/67993/54683/433256/15926/12359/26458/58869/68603/56273/668173/330450/67420/50790/67528/14712/110959/26378/17855/228061/26874/70503/74043/17527</t>
+  </si>
+  <si>
+    <t>56077/50767/110524/13026/66826/74451/14245/66358/19012/12647/110197/11423/68262/12660/68671/27388/226856/99010/74182/66586/26394/231510/74596/75320/102247/71910/14712/270084/55979/380921/236899/217480/218121/99712/53357/215456/329502/237928/50784/225010/18783/331374/381925/214253/227333/28042/211429</t>
+  </si>
+  <si>
+    <t>216795/12006/110157/21414/11836/11651/107986/109880/16450/13544/16590/11789/13388/13557/12189/23797/13982/16000/23805/216148/72508/13543/20418/14165/14180/14368/14167/56637/20662/58988/15461/14169/22409/16449/54485/13555/18706/17979/22414/18176/18710/56717/13542/14176/93735/22421/16974/14174/18709/18667/74769/56198/20663/26396/271849/14164/14370/22423/18707/15213/14166/15208/14371/14172/26417/26413/14296/27412</t>
+  </si>
+  <si>
+    <t>110157/11836/11651/109880/18803/13867/23797/16000/216148/72508/18015/20418/56637/22339/20662/58988/12015/15461/26987/18706/18176/13684/16451/18710/56717/21802/14183/14388/18709/71785/74769/20663/26396/271849/18707/18751/16542/211323/26417/26413</t>
+  </si>
+  <si>
+    <t>110157/11836/12313/11651/109880/22084/19088/14936/19047/18749/18747/12929/12315/23797/216233/216148/26420/72508/53413/20418/26419/56637/18607/104215/20662/58988/12015/14104/15461/74370/19085/26987/64930/18706/18176/13684/18710/108099/19744/56717/18762/19017/68961/16150/18709/74769/19087/110078/68401/20663/26396/271849/12314/18759/12703/108097/54646/18707/26414/105787/16367/26417/26413/105651</t>
+  </si>
+  <si>
+    <t>216795/12006/110157/21414/232223/11836/103140/11651/107986/109880/13544/14866/68312/11789/93760/13557/18803/23797/23805/50493/216148/72508/13543/70127/20418/21752/14368/56637/83797/72057/20662/17126/58988/67155/12015/68214/68094/15461/22409/66447/13555/18706/22414/18176/18710/66993/56717/13542/93735/83766/21802/22421/16974/26992/14388/18709/20586/74769/20588/77044/20663/26396/271849/14370/22423/57376/18707/66923/16002/14371/18751/26417/26413/14296/27412</t>
+  </si>
+  <si>
+    <t>67065/105446/23917/18575/11515/18968/27369/229589/11566/68106/209558/432530/14923/71701/104111/14919/237823/66358/210044/218461/238871/104110/11514/11564/18574/224129/11512/23984/56520/218832/19075/18584/15452/53893/19076/108147/18582/11636/20017/70408/109674/54195/23971/64424/66401/11639/231327/13178/20018/68695/67967/26939/20021/18577/18746/54369/75686/103850/12497/60596/70428/67486/66136/18605/18102/67005/18971/229949/20022/215446/234889/242202/230718/18583/67710/16434/241489/328099</t>
+  </si>
+  <si>
+    <t>12287/18749/18747/11515/15114/14401/76257/14394/12289/57138/432530/14406/104111/14706/210044/104110/11514/224129/11512/64337/70827/14660/14403/209837/14396/14697/66066/14402/18195/12286/22348/242425/14702/16522/216456/268566/14708/12288/18751/110886/14677/14709/14704</t>
+  </si>
+  <si>
+    <t>12550/110157/12313/17261/11651/21780/18749/18747/11515/15184/12315/23797/432530/72508/104111/18126/14706/20191/210044/104110/11514/224129/11512/17126/14682/58988/15461/64337/208727/16449/18176/20544/108099/56717/19017/18125/14697/75669/66066/225326/26396/11475/12314/30878/12326/108097/18798/16440/14702/23796/18754/14708/105787/18795/20541/56632/20192/14677/26417/26413/14709/14704/110893</t>
+  </si>
+  <si>
     <t>110157/11836/11651/109880/12929/11863/23797/56438/22339/71745/20662/12015/15461/14194/18706/18176/18710/21802/18479/18481/14388/18709/23871/74769/20663/26396/112407/241656/18707/67673/26417/26413/109905/214230/67923</t>
   </si>
   <si>
-    <t>59038/224824/19298/19305/71382/20656/208982/235674/170789/19193/14081/18634/72129/216739/18126/19300/56794/13850/17117/67993/54683/433256/15926/12359/26458/58869/68603/56273/668173/330450/67420/50790/67528/14712/110959/26378/17855/228061/26874/70503/74043/17527</t>
-  </si>
-  <si>
-    <t>235040/19052/67841/56716/329015/74370/66615/77040/51897/242557/56717/75669/67526/245860/225326/68118/11793/213948/76559/52639</t>
-  </si>
-  <si>
-    <t>14673/110157/11836/12313/109880/19047/18749/18747/11515/17540/12289/17880/232807/12315/17931/54140/16533/432530/19878/104111/210044/104110/11514/224129/11512/14682/18761/11550/14683/54195/16532/13617/60596/26396/11475/12314/68458/216459/18798/16801/234889/213498/53357/16440/18754/11549/329502/11548/18795/12288/18751/19091/58802/18783/69632/26417/16531/26413/329251/211429</t>
-  </si>
-  <si>
-    <t>13807/103135/27756/230721/72198/72068/18641/71701/56421/75901/70640/66446/15510/58184/72162/18983/78651/50783/69305/213550/75686/218343/67678/66583/210106/93728/66094/232791/319885/234699/234594/214627/67207/53621/319618/433182/13808/27998/66317/13806/240023</t>
-  </si>
-  <si>
-    <t>56077/50767/110524/13026/66826/74451/14245/66358/19012/12647/110197/11423/68262/12660/68671/27388/226856/99010/74182/66586/26394/231510/74596/75320/102247/71910/14712/270084/55979/380921/236899/217480/218121/99712/53357/215456/329502/237928/50784/225010/18783/331374/381925/214253/227333/28042/211429</t>
-  </si>
-  <si>
-    <t>216795/12006/110157/21414/11836/11651/107986/109880/16450/13544/16590/11789/13388/13557/12189/23797/13982/16000/23805/216148/72508/13543/20418/14165/14180/14368/14167/56637/20662/58988/15461/14169/22409/16449/54485/13555/18706/17979/22414/18176/18710/56717/13542/14176/93735/22421/16974/14174/18709/18667/74769/56198/20663/26396/271849/14164/14370/22423/18707/15213/14166/15208/14371/14172/26417/26413/14296/27412</t>
-  </si>
-  <si>
-    <t>110157/11836/11651/109880/18803/13867/23797/16000/216148/72508/18015/20418/56637/22339/20662/58988/12015/15461/26987/18706/18176/13684/16451/18710/56717/21802/14183/14388/18709/71785/74769/20663/26396/271849/18707/18751/16542/211323/26417/26413</t>
-  </si>
-  <si>
-    <t>110157/11836/12313/11651/109880/22084/19088/14936/19047/18749/18747/12929/12315/23797/216233/216148/26420/72508/53413/20418/26419/56637/18607/104215/20662/58988/12015/14104/15461/74370/19085/26987/64930/18706/18176/13684/18710/108099/19744/56717/18762/19017/68961/16150/18709/74769/19087/110078/68401/20663/26396/271849/12314/18759/12703/108097/54646/18707/26414/105787/16367/26417/26413/105651</t>
-  </si>
-  <si>
-    <t>67065/105446/23917/18575/11515/18968/27369/229589/11566/68106/209558/432530/14923/71701/104111/14919/237823/66358/210044/218461/238871/104110/11514/11564/18574/224129/11512/23984/56520/218832/19075/18584/15452/53893/19076/108147/18582/11636/20017/70408/109674/54195/23971/64424/66401/11639/231327/13178/20018/68695/67967/26939/20021/18577/18746/54369/75686/103850/12497/60596/70428/67486/66136/18605/18102/67005/18971/229949/20022/215446/234889/242202/230718/18583/67710/16434/241489/328099</t>
-  </si>
-  <si>
-    <t>12287/18749/18747/11515/15114/14401/76257/14394/12289/57138/432530/14406/104111/14706/210044/104110/11514/224129/11512/64337/70827/14660/14403/209837/14396/14697/66066/14402/18195/12286/22348/242425/14702/16522/216456/268566/14708/12288/18751/110886/14677/14709/14704</t>
-  </si>
-  <si>
-    <t>12550/110157/12313/17261/11651/21780/18749/18747/11515/15184/12315/23797/432530/72508/104111/18126/14706/20191/210044/104110/11514/224129/11512/17126/14682/58988/15461/64337/208727/16449/18176/20544/108099/56717/19017/18125/14697/75669/66066/225326/26396/11475/12314/30878/12326/108097/18798/16440/14702/23796/18754/14708/105787/18795/20541/56632/20192/14677/26417/26413/14709/14704/110893</t>
+    <t>110157/23939/12313/18749/18747/11515/26407/12289/12315/26420/432530/26399/104111/210044/12325/26419/104110/11514/29857/224129/11512/20662/14682/15461/14683/18176/26398/20663/26396/12314/18798/16440/26414/329502/18795/12288/18751/19094/18783/12323/26417/26413/211429</t>
   </si>
   <si>
     <t>14654/18390/14807/53623/14814/14809/12922/108069/19116/94045/17203/14401/14394/22355/11448/12921/19216/14816/18101/54140/14406/14428/13488/14064/15550/21834/110902/18440/108068/12311/14652/14823/14815/14427/15566/93742/14802/213527/15562/14810/228139/11550/18216/11438/18389/11444/18167/14658/19220/15565/230777/14403/21336/14812/11441/12426/14396/14829/11556/13617/14608/110637/13489/110834/387285/70086/14402/226304/14800/381489/15466/15558/20605/110835/170483/114229/20608/14745/22045/99296/170732/15563/242443/242425/19219/19218/14803/15560/11539/18168/12801/23796/20607/94226/11553/243764/11549/12671/17202/15551/108071/18386/15564/11548/15557/15465/140498/110886/14806/108073/16847/11552/14811/239336/268934/11609/15552</t>
   </si>
   <si>
-    <t>110157/23939/12313/18749/18747/11515/26407/12289/12315/26420/432530/26399/104111/210044/12325/26419/104110/11514/29857/224129/11512/20662/14682/15461/14683/18176/26398/20663/26396/12314/18798/16440/26414/329502/18795/12288/18751/19094/18783/12323/26417/26413/211429</t>
-  </si>
-  <si>
     <t>13121/14137/20775/16889/73166/15490/13595/18194/66234/235293/16987/74754/13360</t>
   </si>
   <si>
@@ -2355,12 +2379,12 @@
     <t>235339/66925/78920/12974/17449/18293/13382/104112/68263/20916/11429/18563/15926/14194/170718/11428/18597/67834</t>
   </si>
   <si>
+    <t>16400/17868/18749/18747/11515/56808/16398/12289/12298/12300/16000/24052/432530/104111/16416/54377/192897/12295/20191/210044/12294/104110/11514/224129/11512/16401/14683/22004/11938/22003/104099/140723/17888/319734/109700/12288/81905/20541/12296/81904/213119</t>
+  </si>
+  <si>
     <t>110157/11651/22084/18749/18747/216154/18803/20185/23797/13982/15182/16416/14534/56421/21834/12159/67381/56637/18607/15183/12015/15461/18640/11931/68975/18706/17979/18176/18710/20544/12371/19744/56717/11938/58807/18709/74769/210789/11928/26396/18707/18798/17888/232975/18795/18751/329650/26417/26413/26896/59024</t>
   </si>
   <si>
-    <t>16400/17868/18749/18747/11515/56808/16398/12289/12298/12300/16000/24052/432530/104111/16416/54377/192897/12295/20191/210044/12294/104110/11514/224129/11512/16401/14683/22004/11938/22003/104099/140723/17888/319734/109700/12288/81905/20541/12296/81904/213119</t>
-  </si>
-  <si>
     <t>110157/11651/16590/18648/23797/18641/56012/56421/68263/64384/15461/14660/18706/18176/18710/56717/19713/14183/18597/18709/18746/74769/50721/26396/319801/18707/14255/216456/18213/26417/26413</t>
   </si>
   <si>
@@ -2406,10 +2430,7 @@
     <t>11651/14936/19047/21428/23797/26420/72508/26419/56637/20112/18607/225579/58988/76055/67071/12912/18761/26458/18706/26568/18710/108099/56717/18762/19017/14583/16150/18709/74769/110078/210789/170826/108155/68401/108097/208104/208647/110854/18707/18754/26414/105787/18751/16367/26569/22260/105651</t>
   </si>
   <si>
-    <t>216795/12006/110157/21414/53310/12833/12842/16400/11651/27061/12447/22084/16777/54131/13544/79221/18749/18747/56513/11789/15184/16398/21960/19668/26931/11975/23797/15182/16775/19164/56480/23805/12834/19052/72508/16897/16416/192897/13543/59032/26932/56217/22031/21752/71978/14368/12824/105782/14083/13383/56637/22339/20662/15183/240095/72930/225849/58988/12015/19719/12675/22215/15461/93742/12912/12839/22409/208727/64930/16401/16449/13555/14683/18706/22414/18176/74164/16451/12840/18710/19744/56717/18762/13542/269643/12843/93735/22421/15185/12826/16150/18709/71609/54721/18746/245000/74769/56198/16772/81877/11920/232232/20663/26396/103733/14370/22423/18759/208647/12643/104099/18707/19219/15213/109700/245026/58220/103768/14924/15208/101206/14371/23859/21770/12695/26417/26413/69116/237336/14963/12828/213119/19054</t>
-  </si>
-  <si>
-    <t>110157/11836/11651/109880/20656/26556/18099/27219/58231/23797/14816/16000/26420/26419/67731/12053/29857/252870/18607/20662/17126/12675/216439/15461/20873/26557/12359/18706/18176/18710/108099/12452/16150/18709/74769/67526/11920/68401/20663/26396/73251/108097/66822/22035/18707/26414/105787/329934/19094/27401/16367/19373/26417/26413/12581</t>
+    <t>235339/66925/13807/78920/12974/18648/18641/17449/18293/56012/13382/56421/68263/21881/20916/11429/21991/110460/107029/18563/14718/72141/21351/15926/66646/14194/12359/170718/68738/60525/11428/109264/11674/18597/14719/110446/67834/18746/434437/73724/227095/110821/67078/226265/75731/19895/433182/353204/13808/13806/328099</t>
   </si>
 </sst>
 </file>
@@ -2498,25 +2519,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9837490100175552E-10</v>
+        <v>1.8290363591569684E-10</v>
       </c>
       <c r="G2" t="n">
-        <v>5.990922010253016E-8</v>
+        <v>5.541980168245614E-8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7378007662436044E-8</v>
+        <v>3.4270365466309514E-8</v>
       </c>
       <c r="I2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="J2" t="n">
         <v>152.0</v>
@@ -2530,25 +2551,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F3" t="n">
-        <v>5.636493120716058E-10</v>
+        <v>5.347530815756463E-10</v>
       </c>
       <c r="G3" t="n">
-        <v>8.511104612281248E-8</v>
+        <v>8.101509185871042E-8</v>
       </c>
       <c r="H3" t="n">
-        <v>5.310169834779866E-8</v>
+        <v>5.009792027392897E-8</v>
       </c>
       <c r="I3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="J3" t="n">
         <v>78.0</v>
@@ -2562,25 +2583,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F4" t="n">
-        <v>5.630510891273272E-9</v>
+        <v>5.4217400199260385E-9</v>
       </c>
       <c r="G4" t="n">
-        <v>5.668047630548428E-7</v>
+        <v>5.475957420125299E-7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5363559632909326E-7</v>
+        <v>3.386209556304684E-7</v>
       </c>
       <c r="I4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="J4" t="n">
         <v>50.0</v>
@@ -2594,25 +2615,25 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F5" t="n">
-        <v>8.662635476803181E-9</v>
+        <v>8.16341440378698E-9</v>
       </c>
       <c r="G5" t="n">
-        <v>5.855484617019245E-7</v>
+        <v>5.667745757996983E-7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6532999179032586E-7</v>
+        <v>3.50480717360939E-7</v>
       </c>
       <c r="I5" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="J5" t="n">
         <v>103.0</v>
@@ -2626,25 +2647,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F6" t="n">
-        <v>9.694510955329876E-9</v>
+        <v>9.352715772272249E-9</v>
       </c>
       <c r="G6" t="n">
-        <v>5.855484617019245E-7</v>
+        <v>5.667745757996983E-7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6532999179032586E-7</v>
+        <v>3.50480717360939E-7</v>
       </c>
       <c r="I6" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="J6" t="n">
         <v>47.0</v>
@@ -2658,25 +2679,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F7" t="n">
-        <v>2.412013174933372E-8</v>
+        <v>2.2925976271215372E-8</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0974928796277873E-6</v>
+        <v>1.0570271432341577E-6</v>
       </c>
       <c r="H7" t="n">
-        <v>6.847376279308957E-7</v>
+        <v>6.536419367576171E-7</v>
       </c>
       <c r="I7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J7" t="n">
         <v>83.0</v>
@@ -2690,25 +2711,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F8" t="n">
-        <v>2.5438576680114276E-8</v>
+        <v>2.4419768985607605E-8</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0974928796277873E-6</v>
+        <v>1.0570271432341577E-6</v>
       </c>
       <c r="H8" t="n">
-        <v>6.847376279308957E-7</v>
+        <v>6.536419367576171E-7</v>
       </c>
       <c r="I8" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="J8" t="n">
         <v>59.0</v>
@@ -2722,25 +2743,25 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F9" t="n">
-        <v>4.026237371632873E-8</v>
+        <v>3.89005796249011E-8</v>
       </c>
       <c r="G9" t="n">
-        <v>1.5199046077914097E-6</v>
+        <v>1.473359453293129E-6</v>
       </c>
       <c r="H9" t="n">
-        <v>9.482848546345847E-7</v>
+        <v>9.110925227937363E-7</v>
       </c>
       <c r="I9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="J9" t="n">
         <v>46.0</v>
@@ -2754,25 +2775,25 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F10" t="n">
-        <v>6.080036671863877E-8</v>
+        <v>5.7545647849397196E-8</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0401900832254345E-6</v>
+        <v>1.937370144263039E-6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.2728965663902153E-6</v>
+        <v>1.1980263528880354E-6</v>
       </c>
       <c r="I10" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="J10" t="n">
         <v>98.0</v>
@@ -2786,25 +2807,25 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1215599956488163E-7</v>
+        <v>1.0719961028574885E-7</v>
       </c>
       <c r="G11" t="n">
-        <v>3.250603382613378E-6</v>
+        <v>3.0805328999974325E-6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.0280864603966356E-6</v>
+        <v>1.9049326253241028E-6</v>
       </c>
       <c r="I11" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="J11" t="n">
         <v>73.0</v>
@@ -2818,25 +2839,25 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F12" t="n">
-        <v>1.1839946095611642E-7</v>
+        <v>1.1183452772267906E-7</v>
       </c>
       <c r="G12" t="n">
-        <v>3.250603382613378E-6</v>
+        <v>3.0805328999974325E-6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.0280864603966356E-6</v>
+        <v>1.9049326253241028E-6</v>
       </c>
       <c r="I12" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J12" t="n">
         <v>107.0</v>
@@ -2850,25 +2871,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F13" t="n">
-        <v>1.928366935852988E-7</v>
+        <v>1.8408544767975027E-7</v>
       </c>
       <c r="G13" t="n">
-        <v>4.545239865278329E-6</v>
+        <v>4.3786530365285236E-6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8358241055588047E-6</v>
+        <v>2.7076610752200006E-6</v>
       </c>
       <c r="I13" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="J13" t="n">
         <v>78.0</v>
@@ -2882,25 +2903,25 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F14" t="n">
-        <v>1.9565602069078902E-7</v>
+        <v>1.8786300156723038E-7</v>
       </c>
       <c r="G14" t="n">
-        <v>4.545239865278329E-6</v>
+        <v>4.3786530365285236E-6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.8358241055588047E-6</v>
+        <v>2.7076610752200006E-6</v>
       </c>
       <c r="I14" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="J14" t="n">
         <v>63.0</v>
@@ -2914,25 +2935,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F15" t="n">
-        <v>2.1475314363258068E-7</v>
+        <v>2.0638756660455872E-7</v>
       </c>
       <c r="G15" t="n">
-        <v>4.6325320983599546E-6</v>
+        <v>4.455230707893354E-6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8902866699422512E-6</v>
+        <v>2.7550149939378734E-6</v>
       </c>
       <c r="I15" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="J15" t="n">
         <v>61.0</v>
@@ -2946,25 +2967,25 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F16" t="n">
-        <v>2.385487648128123E-7</v>
+        <v>2.2055597563828482E-7</v>
       </c>
       <c r="G16" t="n">
-        <v>4.802781798231287E-6</v>
+        <v>4.455230707893354E-6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.9965072913328703E-6</v>
+        <v>2.7550149939378734E-6</v>
       </c>
       <c r="I16" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="J16" t="n">
         <v>189.0</v>
@@ -2978,25 +2999,25 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F17" t="n">
-        <v>3.0408011394669457E-7</v>
+        <v>2.8903446874945353E-7</v>
       </c>
       <c r="G17" t="n">
-        <v>5.73951215074386E-6</v>
+        <v>5.473590251942776E-6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5809434471354165E-6</v>
+        <v>3.3847457524607062E-6</v>
       </c>
       <c r="I17" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J17" t="n">
         <v>92.0</v>
@@ -3010,25 +3031,25 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F18" t="n">
-        <v>3.388134949947289E-7</v>
+        <v>3.2389811461578916E-7</v>
       </c>
       <c r="G18" t="n">
-        <v>6.018922087553419E-6</v>
+        <v>5.773007572269654E-6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.755270316040649E-6</v>
+        <v>3.5698987245579244E-6</v>
       </c>
       <c r="I18" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J18" t="n">
         <v>76.0</v>
@@ -3042,25 +3063,25 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F19" t="n">
-        <v>5.263915168381058E-7</v>
+        <v>4.976146687514518E-7</v>
       </c>
       <c r="G19" t="n">
-        <v>8.83167989361711E-6</v>
+        <v>8.376513590649438E-6</v>
       </c>
       <c r="H19" t="n">
-        <v>5.510180205498301E-6</v>
+        <v>5.1798485986993225E-6</v>
       </c>
       <c r="I19" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="J19" t="n">
         <v>112.0</v>
@@ -3074,25 +3095,25 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F20" t="n">
-        <v>1.131743882298775E-6</v>
+        <v>1.072857899694916E-6</v>
       </c>
       <c r="G20" t="n">
-        <v>1.7988771181801582E-5</v>
+        <v>1.7109260189871556E-5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.122338808484658E-5</v>
+        <v>1.0579983719983107E-5</v>
       </c>
       <c r="I20" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="J20" t="n">
         <v>107.0</v>
@@ -3106,25 +3127,25 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F21" t="n">
-        <v>1.233056018338635E-6</v>
+        <v>1.1775188132438454E-6</v>
       </c>
       <c r="G21" t="n">
-        <v>1.849856876883071E-5</v>
+        <v>1.7839410020644258E-5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.1541456290068655E-5</v>
+        <v>1.1031492039863396E-5</v>
       </c>
       <c r="I21" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="J21" t="n">
         <v>84.0</v>
@@ -3138,25 +3159,25 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F22" t="n">
-        <v>1.2863243183624003E-6</v>
+        <v>1.237622533490175E-6</v>
       </c>
       <c r="G22" t="n">
-        <v>1.849856876883071E-5</v>
+        <v>1.7857125126072523E-5</v>
       </c>
       <c r="H22" t="n">
-        <v>1.1541456290068655E-5</v>
+        <v>1.104244666472437E-5</v>
       </c>
       <c r="I22" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J22" t="n">
         <v>63.0</v>
@@ -3170,25 +3191,25 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E23" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F23" t="n">
-        <v>1.5508150024207529E-6</v>
+        <v>1.4875280019282899E-6</v>
       </c>
       <c r="G23" t="n">
-        <v>2.128846048777579E-5</v>
+        <v>2.0487317481103265E-5</v>
       </c>
       <c r="H23" t="n">
-        <v>1.3282099781498315E-5</v>
+        <v>1.2668898772403616E-5</v>
       </c>
       <c r="I23" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="J23" t="n">
         <v>72.0</v>
@@ -3202,25 +3223,25 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E24" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F24" t="n">
-        <v>2.836477918704782E-6</v>
+        <v>2.7011128915311643E-6</v>
       </c>
       <c r="G24" t="n">
-        <v>3.700853680319981E-5</v>
+        <v>3.557355102103273E-5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.3090024704680258E-5</v>
+        <v>2.1997888072759512E-5</v>
       </c>
       <c r="I24" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="J24" t="n">
         <v>97.0</v>
@@ -3234,25 +3255,25 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E25" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F25" t="n">
-        <v>2.9410757724397197E-6</v>
+        <v>2.8177070115669486E-6</v>
       </c>
       <c r="G25" t="n">
-        <v>3.700853680319981E-5</v>
+        <v>3.557355102103273E-5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.3090024704680258E-5</v>
+        <v>2.1997888072759512E-5</v>
       </c>
       <c r="I25" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="J25" t="n">
         <v>78.0</v>
@@ -3266,25 +3287,25 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F26" t="n">
-        <v>8.241434318767692E-6</v>
+        <v>7.873991983737819E-6</v>
       </c>
       <c r="G26" t="n">
-        <v>9.955652657071372E-5</v>
+        <v>9.543278284290236E-5</v>
       </c>
       <c r="H26" t="n">
-        <v>6.211438918144913E-5</v>
+        <v>5.901349781496134E-5</v>
       </c>
       <c r="I26" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="J26" t="n">
         <v>92.0</v>
@@ -3298,25 +3319,25 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F27" t="n">
-        <v>1.2256251422089178E-5</v>
+        <v>1.1978682633542731E-5</v>
       </c>
       <c r="G27" t="n">
-        <v>1.4236107421042044E-4</v>
+        <v>1.3959772453705566E-4</v>
       </c>
       <c r="H27" t="n">
-        <v>8.882060747182036E-5</v>
+        <v>8.632410966682617E-5</v>
       </c>
       <c r="I27" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="J27" t="n">
         <v>31.0</v>
@@ -3330,25 +3351,25 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F28" t="n">
-        <v>1.9087647589249175E-5</v>
+        <v>1.8446340883650435E-5</v>
       </c>
       <c r="G28" t="n">
-        <v>2.134988730353056E-4</v>
+        <v>2.070089365831882E-4</v>
       </c>
       <c r="H28" t="n">
-        <v>1.3320424633433148E-4</v>
+        <v>1.2800969502104397E-4</v>
       </c>
       <c r="I28" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J28" t="n">
         <v>60.0</v>
@@ -3362,25 +3383,25 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E29" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F29" t="n">
-        <v>2.0350232956165697E-5</v>
+        <v>1.982587975325199E-5</v>
       </c>
       <c r="G29" t="n">
-        <v>2.1949179831293002E-4</v>
+        <v>2.145443416155483E-4</v>
       </c>
       <c r="H29" t="n">
-        <v>1.3694329696066392E-4</v>
+        <v>1.3266942090522007E-4</v>
       </c>
       <c r="I29" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J29" t="n">
         <v>39.0</v>
@@ -3394,25 +3415,25 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F30" t="n">
-        <v>2.1607760647659552E-5</v>
+        <v>2.0863954313818883E-5</v>
       </c>
       <c r="G30" t="n">
-        <v>2.250187488135581E-4</v>
+        <v>2.179923502443835E-4</v>
       </c>
       <c r="H30" t="n">
-        <v>1.4039162090493867E-4</v>
+        <v>1.3480159229980985E-4</v>
       </c>
       <c r="I30" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="J30" t="n">
         <v>63.0</v>
@@ -3426,25 +3447,25 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F31" t="n">
-        <v>2.323206133181598E-5</v>
+        <v>2.2572286879153303E-5</v>
       </c>
       <c r="G31" t="n">
-        <v>2.3386941740694751E-4</v>
+        <v>2.2798009747944836E-4</v>
       </c>
       <c r="H31" t="n">
-        <v>1.4591364836473894E-4</v>
+        <v>1.4097779173646627E-4</v>
       </c>
       <c r="I31" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="J31" t="n">
         <v>46.0</v>
@@ -3458,25 +3479,25 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F32" t="n">
-        <v>2.7721552747533184E-5</v>
+        <v>2.642972405642927E-5</v>
       </c>
       <c r="G32" t="n">
-        <v>2.7006157837919424E-4</v>
+        <v>2.5832923835800224E-4</v>
       </c>
       <c r="H32" t="n">
-        <v>1.6849432739587234E-4</v>
+        <v>1.5974502146160987E-4</v>
       </c>
       <c r="I32" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="J32" t="n">
         <v>108.0</v>
@@ -3490,28 +3511,28 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E33" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F33" t="n">
-        <v>3.668442444563866E-5</v>
+        <v>3.4834106928202247E-5</v>
       </c>
       <c r="G33" t="n">
-        <v>3.382836169359826E-4</v>
+        <v>3.2156868660171363E-4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.110587920234956E-4</v>
+        <v>1.9885088141429573E-4</v>
       </c>
       <c r="I33" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J33" t="n">
-        <v>105.0</v>
+        <v>161.0</v>
       </c>
     </row>
     <row r="34">
@@ -3522,28 +3543,28 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E34" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F34" t="n">
-        <v>3.696476608903121E-5</v>
+        <v>3.502233220414703E-5</v>
       </c>
       <c r="G34" t="n">
-        <v>3.382836169359826E-4</v>
+        <v>3.2156868660171363E-4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.110587920234956E-4</v>
+        <v>1.9885088141429573E-4</v>
       </c>
       <c r="I34" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="J34" t="n">
-        <v>161.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="35">
@@ -3554,25 +3575,25 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E35" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F35" t="n">
-        <v>4.407491265084706E-5</v>
+        <v>4.1572180203984406E-5</v>
       </c>
       <c r="G35" t="n">
-        <v>3.914889300163474E-4</v>
+        <v>3.7048148828844926E-4</v>
       </c>
       <c r="H35" t="n">
-        <v>2.4425415989169115E-4</v>
+        <v>2.2909746366282427E-4</v>
       </c>
       <c r="I35" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="J35" t="n">
         <v>159.0</v>
@@ -3586,25 +3607,25 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E36" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F36" t="n">
-        <v>6.490750267261007E-5</v>
+        <v>6.318547589948719E-5</v>
       </c>
       <c r="G36" t="n">
-        <v>5.600590230608069E-4</v>
+        <v>5.470056913584176E-4</v>
       </c>
       <c r="H36" t="n">
-        <v>3.49426856493149E-4</v>
+        <v>3.3825608150702915E-4</v>
       </c>
       <c r="I36" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="J36" t="n">
         <v>44.0</v>
@@ -3618,25 +3639,25 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E37" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F37" t="n">
-        <v>7.224036346549284E-5</v>
+        <v>6.870681109832783E-5</v>
       </c>
       <c r="G37" t="n">
-        <v>6.060163824049677E-4</v>
+        <v>5.782823267442592E-4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.781001479626672E-4</v>
+        <v>3.5759685308486415E-4</v>
       </c>
       <c r="I37" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J37" t="n">
         <v>127.0</v>
@@ -3650,28 +3671,28 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E38" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1391728312589679E-4</v>
+        <v>1.1038774549636391E-4</v>
       </c>
       <c r="G38" t="n">
-        <v>9.082245841165033E-4</v>
+        <v>8.879012730030427E-4</v>
       </c>
       <c r="H38" t="n">
-        <v>5.666510998844688E-4</v>
+        <v>5.490582824198075E-4</v>
       </c>
       <c r="I38" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="J38" t="n">
-        <v>35.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="39">
@@ -3682,28 +3703,28 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="F39" t="n">
-        <v>1.1427991455770571E-4</v>
+        <v>1.1135395503008456E-4</v>
       </c>
       <c r="G39" t="n">
-        <v>9.082245841165033E-4</v>
+        <v>8.879012730030427E-4</v>
       </c>
       <c r="H39" t="n">
-        <v>5.666510998844688E-4</v>
+        <v>5.490582824198075E-4</v>
       </c>
       <c r="I39" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="J39" t="n">
-        <v>70.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="40">
@@ -3714,25 +3735,25 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E40" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F40" t="n">
-        <v>1.1741650833952018E-4</v>
+        <v>1.1563694914555747E-4</v>
       </c>
       <c r="G40" t="n">
-        <v>9.092252697060281E-4</v>
+        <v>8.984101433616387E-4</v>
       </c>
       <c r="H40" t="n">
-        <v>5.672754384014605E-4</v>
+        <v>5.555567327370912E-4</v>
       </c>
       <c r="I40" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="J40" t="n">
         <v>19.0</v>
@@ -3746,25 +3767,25 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E41" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F41" t="n">
-        <v>1.4726818127661542E-4</v>
+        <v>1.4482931118899592E-4</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0011118747686384464</v>
+        <v>0.001097082032256644</v>
       </c>
       <c r="H41" t="n">
-        <v>6.937106433819516E-4</v>
+        <v>6.784109839905599E-4</v>
       </c>
       <c r="I41" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J41" t="n">
         <v>22.0</v>
@@ -3778,25 +3799,25 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F42" t="n">
-        <v>1.6278311236730614E-4</v>
+        <v>1.5544995716267708E-4</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0011990365837786941</v>
+        <v>0.0011488130980558818</v>
       </c>
       <c r="H42" t="n">
-        <v>7.480918386071323E-4</v>
+        <v>7.10400317713903E-4</v>
       </c>
       <c r="I42" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="J42" t="n">
         <v>118.0</v>
@@ -3810,25 +3831,25 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F43" t="n">
-        <v>1.884741447298513E-4</v>
+        <v>1.8358218872751E-4</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0013552188502003594</v>
+        <v>0.0013244143615341792</v>
       </c>
       <c r="H43" t="n">
-        <v>8.455356367579796E-4</v>
+        <v>8.189882103633278E-4</v>
       </c>
       <c r="I43" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="J43" t="n">
         <v>46.0</v>
@@ -3842,25 +3863,25 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E44" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F44" t="n">
-        <v>2.1064162120203175E-4</v>
+        <v>2.047277269096625E-4</v>
       </c>
       <c r="G44" t="n">
-        <v>0.001479389990767758</v>
+        <v>0.001442616308223901</v>
       </c>
       <c r="H44" t="n">
-        <v>9.230073487188173E-4</v>
+        <v>8.920816496920422E-4</v>
       </c>
       <c r="I44" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="J44" t="n">
         <v>53.0</v>
@@ -3874,25 +3895,25 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E45" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F45" t="n">
-        <v>2.224672188328755E-4</v>
+        <v>2.1333880853339349E-4</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0015269340928983726</v>
+        <v>0.0014691286133095053</v>
       </c>
       <c r="H45" t="n">
-        <v>9.526706261025052E-4</v>
+        <v>9.08476266003446E-4</v>
       </c>
       <c r="I45" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="J45" t="n">
         <v>103.0</v>
@@ -3906,28 +3927,28 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E46" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F46" t="n">
-        <v>2.4235536329407818E-4</v>
+        <v>2.3687273075710552E-4</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0016129619948708712</v>
+        <v>0.0015648505829462434</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0010063443606897384</v>
+        <v>9.676685904618077E-4</v>
       </c>
       <c r="I46" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="J46" t="n">
-        <v>30.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="47">
@@ -3938,28 +3959,28 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E47" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F47" t="n">
-        <v>2.456829528611261E-4</v>
+        <v>2.3756807529876962E-4</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0016129619948708712</v>
+        <v>0.0015648505829462434</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0010063443606897384</v>
+        <v>9.676685904618077E-4</v>
       </c>
       <c r="I47" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="J47" t="n">
-        <v>82.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="48">
@@ -3970,25 +3991,25 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E48" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F48" t="n">
-        <v>2.614219014054688E-4</v>
+        <v>2.5510131805103276E-4</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0016797747707330123</v>
+        <v>0.0016445893482864452</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0010480295711439846</v>
+        <v>0.0010169772589716424</v>
       </c>
       <c r="I48" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="J48" t="n">
         <v>42.0</v>
@@ -4002,25 +4023,25 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E49" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F49" t="n">
-        <v>2.8163690712183293E-4</v>
+        <v>2.765882492451428E-4</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0017719655406415323</v>
+        <v>0.001745963323359964</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0011055483854124583</v>
+        <v>0.0010796646571411275</v>
       </c>
       <c r="I49" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="J49" t="n">
         <v>26.0</v>
@@ -4034,25 +4055,25 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E50" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F50" t="n">
-        <v>3.77211259029006E-4</v>
+        <v>3.697714125411274E-4</v>
       </c>
       <c r="G50" t="n">
-        <v>0.002324853065852241</v>
+        <v>0.0022865456734686043</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0014505008671577245</v>
+        <v>0.0014139486881271897</v>
       </c>
       <c r="I50" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="J50" t="n">
         <v>31.0</v>
@@ -4066,25 +4087,25 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E51" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F51" t="n">
-        <v>4.0594132951757023E-4</v>
+        <v>3.9493884051593767E-4</v>
       </c>
       <c r="G51" t="n">
-        <v>0.002451885630286124</v>
+        <v>0.002393329373526582</v>
       </c>
       <c r="H51" t="n">
-        <v>0.001529757852287265</v>
+        <v>0.0014799813391965667</v>
       </c>
       <c r="I51" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="J51" t="n">
         <v>53.0</v>
@@ -4098,25 +4119,25 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E52" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F52" t="n">
-        <v>5.001756288902762E-4</v>
+        <v>4.823732105180453E-4</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0029618243122522237</v>
+        <v>0.002837399779327007</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0018479140881601536</v>
+        <v>0.001754584543061342</v>
       </c>
       <c r="I52" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="J52" t="n">
         <v>87.0</v>
@@ -4130,28 +4151,28 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F53" t="n">
-        <v>5.545970861048521E-4</v>
+        <v>4.869464967821926E-4</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0032209292308397175</v>
+        <v>0.002837399779327007</v>
       </c>
       <c r="H53" t="n">
-        <v>0.002009572437505436</v>
+        <v>0.001754584543061342</v>
       </c>
       <c r="I53" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="J53" t="n">
-        <v>53.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="54">
@@ -4162,28 +4183,28 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E54" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F54" t="n">
-        <v>6.064318067562832E-4</v>
+        <v>5.398343210328947E-4</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0034555170875546705</v>
+        <v>0.003086222627791832</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0021559343278922485</v>
+        <v>0.0019084510256972248</v>
       </c>
       <c r="I54" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="J54" t="n">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="55">
@@ -4194,28 +4215,28 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E55" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F55" t="n">
-        <v>6.847437786171632E-4</v>
+        <v>5.926273917897324E-4</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0038294929841182087</v>
+        <v>0.0033252981428201645</v>
       </c>
       <c r="H55" t="n">
-        <v>0.002389261917592051</v>
+        <v>0.002056289975410767</v>
       </c>
       <c r="I55" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="J55" t="n">
-        <v>29.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="56">
@@ -4226,28 +4247,28 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E56" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="F56" t="n">
-        <v>8.295417136003403E-4</v>
+        <v>6.721902338436154E-4</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0045549381364964146</v>
+        <v>0.003703157106447554</v>
       </c>
       <c r="H56" t="n">
-        <v>0.002841874961425089</v>
+        <v>0.0022899495047686803</v>
       </c>
       <c r="I56" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="J56" t="n">
-        <v>58.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="57">
@@ -4258,28 +4279,28 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E57" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="F57" t="n">
-        <v>8.623313244964453E-4</v>
+        <v>8.068452756500828E-4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.004650429642820116</v>
+        <v>0.004365609259320983</v>
       </c>
       <c r="H57" t="n">
-        <v>0.002901453140692927</v>
+        <v>0.002699595095220202</v>
       </c>
       <c r="I57" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="J57" t="n">
-        <v>32.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="58">
@@ -4290,28 +4311,28 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E58" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F58" t="n">
-        <v>9.430209630522319E-4</v>
+        <v>8.457643038317112E-4</v>
       </c>
       <c r="G58" t="n">
-        <v>0.004935017585584286</v>
+        <v>0.004495904983526465</v>
       </c>
       <c r="H58" t="n">
-        <v>0.003079010623281935</v>
+        <v>0.002780167055993437</v>
       </c>
       <c r="I58" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="J58" t="n">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="59">
@@ -4322,28 +4343,28 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E59" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F59" t="n">
-        <v>9.477848343175118E-4</v>
+        <v>9.318732045596259E-4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.004935017585584286</v>
+        <v>0.004791585093040305</v>
       </c>
       <c r="H59" t="n">
-        <v>0.003079010623281935</v>
+        <v>0.0029630090205356066</v>
       </c>
       <c r="I59" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="J59" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="60">
@@ -4354,28 +4375,28 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E60" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F60" t="n">
-        <v>9.846260661892424E-4</v>
+        <v>9.33014919106858E-4</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0050399503726974776</v>
+        <v>0.004791585093040305</v>
       </c>
       <c r="H60" t="n">
-        <v>0.003144479319319793</v>
+        <v>0.0029630090205356066</v>
       </c>
       <c r="I60" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="J60" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="61">
@@ -4386,28 +4407,28 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D61" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="E61" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0010356143747733578</v>
+        <v>9.693305533491898E-4</v>
       </c>
       <c r="G61" t="n">
-        <v>0.005146264848087401</v>
+        <v>0.0048168953345062195</v>
       </c>
       <c r="H61" t="n">
-        <v>0.003210810065554705</v>
+        <v>0.0029786603075980787</v>
       </c>
       <c r="I61" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="J61" t="n">
-        <v>39.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="62">
@@ -4418,28 +4439,28 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D62" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E62" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F62" t="n">
-        <v>0.001039477336865336</v>
+        <v>9.697380046365655E-4</v>
       </c>
       <c r="G62" t="n">
-        <v>0.005146264848087401</v>
+        <v>0.0048168953345062195</v>
       </c>
       <c r="H62" t="n">
-        <v>0.003210810065554705</v>
+        <v>0.0029786603075980787</v>
       </c>
       <c r="I62" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="J62" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="63">
@@ -4450,28 +4471,28 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00110071568371849</v>
+        <v>0.001013462478488871</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0053615505884352255</v>
+        <v>0.004928454046486579</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0033451291576504197</v>
+        <v>0.003047645719210044</v>
       </c>
       <c r="I63" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="J63" t="n">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="64">
@@ -4482,28 +4503,28 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D64" t="s">
         <v>241</v>
       </c>
       <c r="E64" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0011959615289253468</v>
+        <v>0.001024728069071467</v>
       </c>
       <c r="G64" t="n">
-        <v>0.005733021932308805</v>
+        <v>0.004928454046486579</v>
       </c>
       <c r="H64" t="n">
-        <v>0.003576894129952165</v>
+        <v>0.003047645719210044</v>
       </c>
       <c r="I64" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="J64" t="n">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="65">
@@ -4514,28 +4535,28 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D65" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E65" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0013380301216153363</v>
+        <v>0.0010791057348572518</v>
       </c>
       <c r="G65" t="n">
-        <v>0.006313829636372368</v>
+        <v>0.005108891213464801</v>
       </c>
       <c r="H65" t="n">
-        <v>0.00393926631199252</v>
+        <v>0.0031592240263912967</v>
       </c>
       <c r="I65" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="J65" t="n">
-        <v>105.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="66">
@@ -4546,28 +4567,28 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E66" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0016058723516952638</v>
+        <v>0.0011730196195323126</v>
       </c>
       <c r="G66" t="n">
-        <v>0.007461130003261073</v>
+        <v>0.005468076072589088</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0046550793676672425</v>
+        <v>0.0033813359073158163</v>
       </c>
       <c r="I66" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="J66" t="n">
-        <v>79.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="67">
@@ -4578,28 +4599,28 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001693320662845567</v>
+        <v>0.0012884705888812243</v>
       </c>
       <c r="G67" t="n">
-        <v>0.007638866093337201</v>
+        <v>0.005915251339863802</v>
       </c>
       <c r="H67" t="n">
-        <v>0.004765970828537327</v>
+        <v>0.003657859088051961</v>
       </c>
       <c r="I67" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="J67" t="n">
-        <v>64.0</v>
+        <v>105.0</v>
       </c>
     </row>
     <row r="68">
@@ -4610,28 +4631,28 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="E68" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0016947153253430215</v>
+        <v>0.0015558159536352562</v>
       </c>
       <c r="G68" t="n">
-        <v>0.007638866093337201</v>
+        <v>0.007036003491813174</v>
       </c>
       <c r="H68" t="n">
-        <v>0.004765970828537327</v>
+        <v>0.004350907144494511</v>
       </c>
       <c r="I68" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="J68" t="n">
-        <v>41.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="69">
@@ -4642,28 +4663,28 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D69" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E69" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001787889591524308</v>
+        <v>0.0016466433747981475</v>
       </c>
       <c r="G69" t="n">
-        <v>0.007853604127764518</v>
+        <v>0.007283349217997991</v>
       </c>
       <c r="H69" t="n">
-        <v>0.004899948201010278</v>
+        <v>0.0045038602077597445</v>
       </c>
       <c r="I69" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="J69" t="n">
-        <v>28.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="70">
@@ -4674,28 +4695,28 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E70" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0017943665060124229</v>
+        <v>0.0016585844753856812</v>
       </c>
       <c r="G70" t="n">
-        <v>0.007853604127764518</v>
+        <v>0.007283349217997991</v>
       </c>
       <c r="H70" t="n">
-        <v>0.004899948201010278</v>
+        <v>0.0045038602077597445</v>
       </c>
       <c r="I70" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="J70" t="n">
-        <v>13.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="71">
@@ -4706,28 +4727,28 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
         <v>246</v>
       </c>
       <c r="E71" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002143296817091904</v>
+        <v>0.0017576358707479711</v>
       </c>
       <c r="G71" t="n">
-        <v>0.009246794839453643</v>
+        <v>0.007578121073666925</v>
       </c>
       <c r="H71" t="n">
-        <v>0.005769174891119561</v>
+        <v>0.0046861405284443726</v>
       </c>
       <c r="I71" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="J71" t="n">
-        <v>45.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="72">
@@ -4738,28 +4759,28 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D72" t="s">
         <v>247</v>
       </c>
       <c r="E72" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002506183711616713</v>
+        <v>0.00177573134069423</v>
       </c>
       <c r="G72" t="n">
-        <v>0.01066010536490489</v>
+        <v>0.007578121073666925</v>
       </c>
       <c r="H72" t="n">
-        <v>0.006650954549731529</v>
+        <v>0.0046861405284443726</v>
       </c>
       <c r="I72" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="J72" t="n">
-        <v>52.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="73">
@@ -4770,28 +4791,28 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="E73" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0031219733898629853</v>
+        <v>0.00209586130103811</v>
       </c>
       <c r="G73" t="n">
-        <v>0.01281960052914284</v>
+        <v>0.008820082975202046</v>
       </c>
       <c r="H73" t="n">
-        <v>0.007998286841117353</v>
+        <v>0.005454141982233678</v>
       </c>
       <c r="I73" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="J73" t="n">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="74">
@@ -4802,25 +4823,25 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0031412266197237424</v>
+        <v>0.0030745902597031916</v>
       </c>
       <c r="G74" t="n">
-        <v>0.01281960052914284</v>
+        <v>0.012613906553294339</v>
       </c>
       <c r="H74" t="n">
-        <v>0.007998286841117353</v>
+        <v>0.00780015760460793</v>
       </c>
       <c r="I74" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="J74" t="n">
         <v>44.0</v>
@@ -4834,28 +4855,28 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="E75" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0031412266197237424</v>
+        <v>0.0030806240427187492</v>
       </c>
       <c r="G75" t="n">
-        <v>0.01281960052914284</v>
+        <v>0.012613906553294339</v>
       </c>
       <c r="H75" t="n">
-        <v>0.007998286841117353</v>
+        <v>0.00780015760460793</v>
       </c>
       <c r="I75" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="J75" t="n">
-        <v>44.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="76">
@@ -4866,28 +4887,28 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F76" t="n">
-        <v>0.003446483590584837</v>
+        <v>0.0031591917964075554</v>
       </c>
       <c r="G76" t="n">
-        <v>0.013739341652050709</v>
+        <v>0.012763134857486523</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00857212323359037</v>
+        <v>0.007892437049270805</v>
       </c>
       <c r="I76" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="J76" t="n">
-        <v>25.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="77">
@@ -4898,25 +4919,25 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E77" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0034575826674034895</v>
+        <v>0.0033857602498191084</v>
       </c>
       <c r="G77" t="n">
-        <v>0.013739341652050709</v>
+        <v>0.013271815505300539</v>
       </c>
       <c r="H77" t="n">
-        <v>0.00857212323359037</v>
+        <v>0.008206993781287114</v>
       </c>
       <c r="I77" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="J77" t="n">
         <v>43.0</v>
@@ -4930,28 +4951,28 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E78" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0035180660563630937</v>
+        <v>0.0033945098788199838</v>
       </c>
       <c r="G78" t="n">
-        <v>0.013798129208073433</v>
+        <v>0.013271815505300539</v>
       </c>
       <c r="H78" t="n">
-        <v>0.008608801422952752</v>
+        <v>0.008206993781287114</v>
       </c>
       <c r="I78" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="J78" t="n">
-        <v>77.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="79">
@@ -4962,28 +4983,28 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E79" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="F79" t="n">
-        <v>0.003757670820159292</v>
+        <v>0.0034165069617605346</v>
       </c>
       <c r="G79" t="n">
-        <v>0.014369016265164009</v>
+        <v>0.013271815505300539</v>
       </c>
       <c r="H79" t="n">
-        <v>0.008964984006498285</v>
+        <v>0.008206993781287114</v>
       </c>
       <c r="I79" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="J79" t="n">
-        <v>58.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="80">
@@ -4994,28 +5015,28 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D80" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="E80" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003801054647787375</v>
+        <v>0.003665688988429347</v>
       </c>
       <c r="G80" t="n">
-        <v>0.014369016265164009</v>
+        <v>0.013949126862823421</v>
       </c>
       <c r="H80" t="n">
-        <v>0.008964984006498285</v>
+        <v>0.008625827971452385</v>
       </c>
       <c r="I80" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="J80" t="n">
-        <v>39.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="81">
@@ -5026,28 +5047,28 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E81" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0038063619245467576</v>
+        <v>0.0037270155964549117</v>
       </c>
       <c r="G81" t="n">
-        <v>0.014369016265164009</v>
+        <v>0.013949126862823421</v>
       </c>
       <c r="H81" t="n">
-        <v>0.008964984006498285</v>
+        <v>0.008625827971452385</v>
       </c>
       <c r="I81" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="J81" t="n">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="82">
@@ -5058,28 +5079,28 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D82" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E82" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004183843013178181</v>
+        <v>0.0037289745078834887</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01559901962938038</v>
+        <v>0.013949126862823421</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0097323963529421</v>
+        <v>0.008625827971452385</v>
       </c>
       <c r="I82" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="J82" t="n">
-        <v>38.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="83">
@@ -5090,28 +5111,28 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E83" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="F83" t="n">
-        <v>0.004321754121336136</v>
+        <v>0.00410420374401016</v>
       </c>
       <c r="G83" t="n">
-        <v>0.015916704202969673</v>
+        <v>0.015165533346769249</v>
       </c>
       <c r="H83" t="n">
-        <v>0.009930603179963651</v>
+        <v>0.009378026526749787</v>
       </c>
       <c r="I83" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="J83" t="n">
-        <v>27.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="84">
@@ -5122,25 +5143,25 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D84" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E84" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0054227305453288</v>
+        <v>0.00535596894849273</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01973089909264214</v>
+        <v>0.019552513149316834</v>
       </c>
       <c r="H84" t="n">
-        <v>0.012310320451665888</v>
+        <v>0.012090836687783208</v>
       </c>
       <c r="I84" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="J84" t="n">
         <v>19.0</v>
@@ -5154,25 +5175,25 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E85" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F85" t="n">
-        <v>0.005942218229144414</v>
+        <v>0.005824417824003042</v>
       </c>
       <c r="G85" t="n">
-        <v>0.021363689347638253</v>
+        <v>0.021009507150868117</v>
       </c>
       <c r="H85" t="n">
-        <v>0.013329035877404138</v>
+        <v>0.01299180918136017</v>
       </c>
       <c r="I85" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="J85" t="n">
         <v>43.0</v>
@@ -5186,25 +5207,25 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D86" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E86" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00615112268916827</v>
+        <v>0.00604497895300301</v>
       </c>
       <c r="G86" t="n">
-        <v>0.021854577083868443</v>
+        <v>0.021548572032469557</v>
       </c>
       <c r="H86" t="n">
-        <v>0.013635306023047931</v>
+        <v>0.013325154843771342</v>
       </c>
       <c r="I86" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="J86" t="n">
         <v>34.0</v>
@@ -5218,28 +5239,28 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D87" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E87" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F87" t="n">
-        <v>0.006799888408136936</v>
+        <v>0.006141768384177374</v>
       </c>
       <c r="G87" t="n">
-        <v>0.023878677898341333</v>
+        <v>0.021639021167508654</v>
       </c>
       <c r="H87" t="n">
-        <v>0.014898164321377132</v>
+        <v>0.013381086565282406</v>
       </c>
       <c r="I87" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="J87" t="n">
-        <v>36.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="88">
@@ -5250,28 +5271,28 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E88" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F88" t="n">
-        <v>0.007082809693825414</v>
+        <v>0.006679697689143939</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02458630491419856</v>
+        <v>0.023263774710466822</v>
       </c>
       <c r="H88" t="n">
-        <v>0.015339660437927997</v>
+        <v>0.014385797806020825</v>
       </c>
       <c r="I88" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="J88" t="n">
-        <v>67.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="89">
@@ -5282,28 +5303,28 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D89" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E89" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F89" t="n">
-        <v>0.007928903242304674</v>
+        <v>0.006905441946559306</v>
       </c>
       <c r="G89" t="n">
-        <v>0.027210554308818313</v>
+        <v>0.023776692156903066</v>
       </c>
       <c r="H89" t="n">
-        <v>0.016976957899193023</v>
+        <v>0.014702974479516228</v>
       </c>
       <c r="I89" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="J89" t="n">
-        <v>57.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="90">
@@ -5314,28 +5335,28 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D90" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E90" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00899389929765676</v>
+        <v>0.007749544211025186</v>
       </c>
       <c r="G90" t="n">
-        <v>0.030518624583060015</v>
+        <v>0.026383279729670014</v>
       </c>
       <c r="H90" t="n">
-        <v>0.01904089857221242</v>
+        <v>0.01631482991794776</v>
       </c>
       <c r="I90" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="J90" t="n">
-        <v>36.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="91">
@@ -5346,28 +5367,28 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D91" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E91" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="F91" t="n">
-        <v>0.01216751771892604</v>
+        <v>0.008839145376042966</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04082878167906293</v>
+        <v>0.02975845609934465</v>
       </c>
       <c r="H91" t="n">
-        <v>0.02547351662792703</v>
+        <v>0.018401963472931555</v>
       </c>
       <c r="I91" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="J91" t="n">
-        <v>27.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="92">
@@ -5378,28 +5399,28 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D92" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E92" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="F92" t="n">
-        <v>0.014293836957275551</v>
+        <v>0.011995701890636675</v>
       </c>
       <c r="G92" t="n">
-        <v>0.047436689682387</v>
+        <v>0.03994173266882321</v>
       </c>
       <c r="H92" t="n">
-        <v>0.029596261600373902</v>
+        <v>0.024699073875457816</v>
       </c>
       <c r="I92" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="J92" t="n">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="93">
@@ -5410,27 +5431,59 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D93" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E93" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F93" t="n">
-        <v>0.014819522348047861</v>
+        <v>0.01406719327619726</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04864669292511363</v>
+        <v>0.04632999524660619</v>
       </c>
       <c r="H93" t="n">
-        <v>0.030351195655612898</v>
+        <v>0.028649432530470392</v>
       </c>
       <c r="I93" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J93" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>251</v>
+      </c>
+      <c r="E94" t="s">
+        <v>332</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.014623631417286485</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04764473461761081</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.02946243794314651</v>
+      </c>
+      <c r="I94" t="s">
+        <v>425</v>
+      </c>
+      <c r="J94" t="n">
         <v>25.0</v>
       </c>
     </row>
@@ -5479,31 +5532,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D2" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="E2" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="F2" t="n">
-        <v>1.3315712473117926E-14</v>
+        <v>1.6680600029889404E-14</v>
       </c>
       <c r="G2" t="n">
-        <v>4.021345166881614E-12</v>
+        <v>5.054221809056489E-12</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5790432579512617E-12</v>
+        <v>3.2483273742416206E-12</v>
       </c>
       <c r="I2" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="J2" t="n">
         <v>106.0</v>
@@ -5511,31 +5564,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D3" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="E3" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="F3" t="n">
-        <v>1.4577540515358723E-11</v>
+        <v>1.7085334258154022E-11</v>
       </c>
       <c r="G3" t="n">
-        <v>2.201208617819167E-9</v>
+        <v>2.5884281401103342E-9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.4117197130663185E-9</v>
+        <v>1.6635720198728917E-9</v>
       </c>
       <c r="I3" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="J3" t="n">
         <v>72.0</v>
@@ -5543,31 +5596,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C4" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="D4" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="E4" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="F4" t="n">
-        <v>2.8657006374111045E-11</v>
+        <v>3.429234341394272E-11</v>
       </c>
       <c r="G4" t="n">
-        <v>2.412340841603728E-9</v>
+        <v>2.9371452578777853E-9</v>
       </c>
       <c r="H4" t="n">
-        <v>1.547126925253001E-9</v>
+        <v>1.887691063774154E-9</v>
       </c>
       <c r="I4" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="J4" t="n">
         <v>88.0</v>
@@ -5575,31 +5628,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C5" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D5" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="E5" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="F5" t="n">
-        <v>3.195153432587719E-11</v>
+        <v>3.8774194823469114E-11</v>
       </c>
       <c r="G5" t="n">
-        <v>2.412340841603728E-9</v>
+        <v>2.9371452578777853E-9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.547126925253001E-9</v>
+        <v>1.887691063774154E-9</v>
       </c>
       <c r="I5" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="J5" t="n">
         <v>99.0</v>
@@ -5607,31 +5660,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="C6" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="D6" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="E6" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="F6" t="n">
-        <v>1.9007375045120943E-9</v>
+        <v>2.214728533377024E-9</v>
       </c>
       <c r="G6" t="n">
-        <v>1.1480454527253049E-7</v>
+        <v>1.3421254912264766E-7</v>
       </c>
       <c r="H6" t="n">
-        <v>7.362856859583692E-8</v>
+        <v>8.625784814205252E-8</v>
       </c>
       <c r="I6" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="J6" t="n">
         <v>77.0</v>
@@ -5639,31 +5692,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="E7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="F7" t="n">
-        <v>2.8977924505431393E-9</v>
+        <v>3.3892236260245264E-9</v>
       </c>
       <c r="G7" t="n">
-        <v>1.458555533440047E-7</v>
+        <v>1.7115579311423858E-7</v>
       </c>
       <c r="H7" t="n">
-        <v>9.354277384209434E-8</v>
+        <v>1.1000111768676094E-7</v>
       </c>
       <c r="I7" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="J7" t="n">
         <v>81.0</v>
@@ -5671,31 +5724,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C8" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D8" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="E8" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="F8" t="n">
-        <v>4.203579875624732E-9</v>
+        <v>5.0326852427808714E-9</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8135444606266702E-7</v>
+        <v>2.1784337550894344E-7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.1630957851352642E-7</v>
+        <v>1.4000703306984377E-7</v>
       </c>
       <c r="I8" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="J8" t="n">
         <v>102.0</v>
@@ -5703,31 +5756,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C9" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D9" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="E9" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="F9" t="n">
-        <v>7.107034143117654E-9</v>
+        <v>8.318219959729739E-9</v>
       </c>
       <c r="G9" t="n">
-        <v>2.6829053890269145E-7</v>
+        <v>3.1505258097476387E-7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.7206503714916428E-7</v>
+        <v>2.024829858618423E-7</v>
       </c>
       <c r="I9" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="J9" t="n">
         <v>84.0</v>
@@ -5735,31 +5788,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="C10" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D10" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="E10" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="F10" t="n">
-        <v>1.4126701307608252E-8</v>
+        <v>1.5982354741476963E-8</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2833781999615327E-7</v>
+        <v>4.854154938939945E-7</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7470951160436465E-7</v>
+        <v>3.1197452273888823E-7</v>
       </c>
       <c r="I10" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="J10" t="n">
         <v>59.0</v>
@@ -5767,31 +5820,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C11" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="D11" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="E11" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="F11" t="n">
-        <v>1.4996809980812352E-8</v>
+        <v>1.7319453286034404E-8</v>
       </c>
       <c r="G11" t="n">
-        <v>4.2833781999615327E-7</v>
+        <v>4.854154938939945E-7</v>
       </c>
       <c r="H11" t="n">
-        <v>2.7470951160436465E-7</v>
+        <v>3.1197452273888823E-7</v>
       </c>
       <c r="I11" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="J11" t="n">
         <v>75.0</v>
@@ -5799,31 +5852,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B12" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="D12" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="E12" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="F12" t="n">
-        <v>1.5601708675356577E-8</v>
+        <v>1.762234466281828E-8</v>
       </c>
       <c r="G12" t="n">
-        <v>4.2833781999615327E-7</v>
+        <v>4.854154938939945E-7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.7470951160436465E-7</v>
+        <v>3.1197452273888823E-7</v>
       </c>
       <c r="I12" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="J12" t="n">
         <v>58.0</v>
@@ -5831,31 +5884,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C13" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="D13" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="E13" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="F13" t="n">
-        <v>2.7150210500471196E-8</v>
+        <v>3.137003947914053E-8</v>
       </c>
       <c r="G13" t="n">
-        <v>6.832802975951918E-7</v>
+        <v>7.920934968482983E-7</v>
       </c>
       <c r="H13" t="n">
-        <v>4.382139238672544E-7</v>
+        <v>5.090752020737718E-7</v>
       </c>
       <c r="I13" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="J13" t="n">
         <v>77.0</v>
@@ -5863,31 +5916,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B14" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C14" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D14" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="E14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F14" t="n">
-        <v>3.284355454676986E-8</v>
+        <v>3.870437597252859E-8</v>
       </c>
       <c r="G14" t="n">
-        <v>7.629810363941922E-7</v>
+        <v>9.021096861289356E-7</v>
       </c>
       <c r="H14" t="n">
-        <v>4.893290717899316E-7</v>
+        <v>5.797821501957724E-7</v>
       </c>
       <c r="I14" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="J14" t="n">
         <v>95.0</v>
@@ -5895,31 +5948,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C15" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="D15" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="E15" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="F15" t="n">
-        <v>6.938739454456758E-8</v>
+        <v>8.009785609459728E-8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.4967852251756722E-6</v>
+        <v>1.7335464569044982E-6</v>
       </c>
       <c r="H15" t="n">
-        <v>9.599459094887546E-7</v>
+        <v>1.1141431110902629E-6</v>
       </c>
       <c r="I15" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="J15" t="n">
         <v>79.0</v>
@@ -5927,31 +5980,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B16" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C16" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D16" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="E16" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="F16" t="n">
-        <v>9.819843927725085E-8</v>
+        <v>1.038225080618317E-7</v>
       </c>
       <c r="G16" t="n">
-        <v>1.9770619107819836E-6</v>
+        <v>2.0972146628490002E-6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.267965812422046E-6</v>
+        <v>1.3478711572939555E-6</v>
       </c>
       <c r="I16" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="J16" t="n">
         <v>20.0</v>
@@ -5959,31 +6012,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C17" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="D17" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="E17" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="F17" t="n">
-        <v>2.654641997914046E-7</v>
+        <v>2.94815783725964E-7</v>
       </c>
       <c r="G17" t="n">
-        <v>5.010636771062762E-6</v>
+        <v>5.583073904310443E-6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2135139974748984E-6</v>
+        <v>3.5882184203489036E-6</v>
       </c>
       <c r="I17" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="J17" t="n">
         <v>51.0</v>
@@ -5991,31 +6044,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C18" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="D18" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="E18" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="F18" t="n">
-        <v>3.124854744909526E-7</v>
+        <v>3.4825140769641363E-7</v>
       </c>
       <c r="G18" t="n">
-        <v>5.551212546839276E-6</v>
+        <v>6.20706920776549E-6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5602060251600794E-6</v>
+        <v>3.989257611383066E-6</v>
       </c>
       <c r="I18" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="J18" t="n">
         <v>54.0</v>
@@ -6023,31 +6076,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D19" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="E19" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="F19" t="n">
-        <v>6.393948131863145E-7</v>
+        <v>7.092937128548729E-7</v>
       </c>
       <c r="G19" t="n">
-        <v>1.0727624087903722E-5</v>
+        <v>1.1939777499723692E-5</v>
       </c>
       <c r="H19" t="n">
-        <v>6.880037755922917E-6</v>
+        <v>7.673645431470847E-6</v>
       </c>
       <c r="I19" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="J19" t="n">
         <v>52.0</v>
@@ -6055,31 +6108,31 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C20" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="D20" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="E20" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="F20" t="n">
-        <v>6.83168012781612E-7</v>
+        <v>7.670728859543552E-7</v>
       </c>
       <c r="G20" t="n">
-        <v>1.0858775782107728E-5</v>
+        <v>1.2232793918114192E-5</v>
       </c>
       <c r="H20" t="n">
-        <v>6.9641503796020285E-6</v>
+        <v>7.8619658671222E-6</v>
       </c>
       <c r="I20" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="J20" t="n">
         <v>62.0</v>
@@ -6087,31 +6140,31 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B21" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="D21" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="E21" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="F21" t="n">
-        <v>8.260139414529404E-7</v>
+        <v>8.996520738675206E-7</v>
       </c>
       <c r="G21" t="n">
-        <v>1.1878867158037524E-5</v>
+        <v>1.298069420865994E-5</v>
       </c>
       <c r="H21" t="n">
-        <v>7.6183741968592E-6</v>
+        <v>8.342638278971995E-6</v>
       </c>
       <c r="I21" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="J21" t="n">
         <v>39.0</v>
@@ -6119,31 +6172,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B22" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="C22" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D22" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="E22" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="F22" t="n">
-        <v>8.260139414529404E-7</v>
+        <v>8.996520738675206E-7</v>
       </c>
       <c r="G22" t="n">
-        <v>1.1878867158037524E-5</v>
+        <v>1.298069420865994E-5</v>
       </c>
       <c r="H22" t="n">
-        <v>7.6183741968592E-6</v>
+        <v>8.342638278971995E-6</v>
       </c>
       <c r="I22" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="J22" t="n">
         <v>39.0</v>
@@ -6151,31 +6204,31 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="C23" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D23" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="E23" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="F23" t="n">
-        <v>1.414143702489041E-6</v>
+        <v>1.491172886096791E-6</v>
       </c>
       <c r="G23" t="n">
-        <v>1.941233627962229E-5</v>
+        <v>2.0537517476696713E-5</v>
       </c>
       <c r="H23" t="n">
-        <v>1.2449877572152322E-5</v>
+        <v>1.3199377221430926E-5</v>
       </c>
       <c r="I23" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="J23" t="n">
         <v>20.0</v>
@@ -6183,31 +6236,31 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="C24" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D24" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="E24" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="F24" t="n">
-        <v>1.8325426542892657E-6</v>
+        <v>2.0240360038631294E-6</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4062081808493835E-5</v>
+        <v>2.66644743117621E-5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.543193814138329E-5</v>
+        <v>1.7137146943463567E-5</v>
       </c>
       <c r="I24" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="J24" t="n">
         <v>51.0</v>
@@ -6221,25 +6274,25 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F25" t="n">
-        <v>2.4074290346116587E-6</v>
+        <v>2.9596937924182587E-6</v>
       </c>
       <c r="G25" t="n">
-        <v>3.0293482018863374E-5</v>
+        <v>3.736613412928052E-5</v>
       </c>
       <c r="H25" t="n">
-        <v>1.942837466528707E-5</v>
+        <v>2.401505928058675E-5</v>
       </c>
       <c r="I25" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="J25" t="n">
         <v>171.0</v>
@@ -6247,31 +6300,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B26" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C26" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="D26" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="E26" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="F26" t="n">
-        <v>2.936533218506446E-6</v>
+        <v>3.3019909958029287E-6</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5473321279557866E-5</v>
+        <v>4.00201308691315E-5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2750404724428888E-5</v>
+        <v>2.5720771967307025E-5</v>
       </c>
       <c r="I26" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="J26" t="n">
         <v>68.0</v>
@@ -6279,31 +6332,31 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B27" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C27" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D27" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="E27" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F27" t="n">
-        <v>4.1876878959150475E-6</v>
+        <v>4.596628588163435E-6</v>
       </c>
       <c r="G27" t="n">
-        <v>4.864160556024401E-5</v>
+        <v>5.3568402392827724E-5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.119573169426594E-5</v>
+        <v>3.44281898303739E-5</v>
       </c>
       <c r="I27" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="J27" t="n">
         <v>48.0</v>
@@ -6311,31 +6364,31 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B28" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C28" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="D28" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="E28" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="F28" t="n">
-        <v>7.689989346986899E-6</v>
+        <v>8.474688137210792E-6</v>
       </c>
       <c r="G28" t="n">
-        <v>8.601395491814975E-5</v>
+        <v>9.510483353980999E-5</v>
       </c>
       <c r="H28" t="n">
-        <v>5.516405613433098E-5</v>
+        <v>6.112348169138387E-5</v>
       </c>
       <c r="I28" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="J28" t="n">
         <v>53.0</v>
@@ -6343,31 +6396,31 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B29" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="C29" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D29" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="E29" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="F29" t="n">
-        <v>8.646090077845917E-6</v>
+        <v>9.063045564522481E-6</v>
       </c>
       <c r="G29" t="n">
-        <v>9.325425726819526E-5</v>
+        <v>9.807510021608257E-5</v>
       </c>
       <c r="H29" t="n">
-        <v>5.98075403881071E-5</v>
+        <v>6.303245975325786E-5</v>
       </c>
       <c r="I29" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="J29" t="n">
         <v>18.0</v>
@@ -6375,31 +6428,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B30" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="C30" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="D30" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="E30" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0778836640387497E-5</v>
+        <v>1.2031451168512905E-5</v>
       </c>
       <c r="G30" t="n">
-        <v>1.1068851262750721E-4</v>
+        <v>1.2570792082963484E-4</v>
       </c>
       <c r="H30" t="n">
-        <v>7.098879861785057E-5</v>
+        <v>8.079195884482349E-5</v>
       </c>
       <c r="I30" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="J30" t="n">
         <v>66.0</v>
@@ -6407,31 +6460,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B31" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C31" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D31" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="E31" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="F31" t="n">
-        <v>1.0995547612004027E-5</v>
+        <v>1.2717447424760577E-5</v>
       </c>
       <c r="G31" t="n">
-        <v>1.1068851262750721E-4</v>
+        <v>1.2844621899008182E-4</v>
       </c>
       <c r="H31" t="n">
-        <v>7.098879861785057E-5</v>
+        <v>8.255185170458619E-5</v>
       </c>
       <c r="I31" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="J31" t="n">
         <v>105.0</v>
@@ -6439,95 +6492,95 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B32" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C32" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="D32" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="E32" t="s">
-        <v>677</v>
+        <v>262</v>
       </c>
       <c r="F32" t="n">
-        <v>1.2120957187089033E-5</v>
+        <v>1.3548221877498596E-5</v>
       </c>
       <c r="G32" t="n">
-        <v>1.1808158291938348E-4</v>
+        <v>1.3200323191110087E-4</v>
       </c>
       <c r="H32" t="n">
-        <v>7.573025882595526E-5</v>
+        <v>8.483792914210061E-5</v>
       </c>
       <c r="I32" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="J32" t="n">
-        <v>99.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B33" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C33" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="D33" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>684</v>
       </c>
       <c r="F33" t="n">
-        <v>1.2523621871189845E-5</v>
+        <v>1.3940935383350588E-5</v>
       </c>
       <c r="G33" t="n">
-        <v>1.1819168140935416E-4</v>
+        <v>1.3200323191110087E-4</v>
       </c>
       <c r="H33" t="n">
-        <v>7.580086922035959E-5</v>
+        <v>8.483792914210061E-5</v>
       </c>
       <c r="I33" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="J33" t="n">
-        <v>39.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B34" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C34" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="D34" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="E34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F34" t="n">
-        <v>1.580986212800575E-5</v>
+        <v>1.713555123925545E-5</v>
       </c>
       <c r="G34" t="n">
-        <v>1.446841928078102E-4</v>
+        <v>1.5733551592407276E-4</v>
       </c>
       <c r="H34" t="n">
-        <v>9.279153529674827E-5</v>
+        <v>1.011188829110768E-4</v>
       </c>
       <c r="I34" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="J34" t="n">
         <v>41.0</v>
@@ -6535,31 +6588,31 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B35" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="C35" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="D35" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="E35" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="F35" t="n">
-        <v>1.9372726452183043E-5</v>
+        <v>2.209099381684982E-5</v>
       </c>
       <c r="G35" t="n">
-        <v>1.7207539378115527E-4</v>
+        <v>1.9686973901486752E-4</v>
       </c>
       <c r="H35" t="n">
-        <v>1.1035856554803964E-4</v>
+        <v>1.265273639664773E-4</v>
       </c>
       <c r="I35" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="J35" t="n">
         <v>92.0</v>
@@ -6567,31 +6620,31 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B36" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="C36" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D36" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="E36" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="F36" t="n">
-        <v>2.1631656945541423E-5</v>
+        <v>2.4213782731599893E-5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.8665029707295742E-4</v>
+        <v>2.0962217621927907E-4</v>
       </c>
       <c r="H36" t="n">
-        <v>1.1970601136780819E-4</v>
+        <v>1.3472330241642047E-4</v>
       </c>
       <c r="I36" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="J36" t="n">
         <v>72.0</v>
@@ -6599,31 +6652,31 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B37" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="C37" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="D37" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="E37" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F37" t="n">
-        <v>2.7624127867032868E-5</v>
+        <v>3.0270436874030634E-5</v>
       </c>
       <c r="G37" t="n">
-        <v>2.221606518339648E-4</v>
+        <v>2.4545294765560173E-4</v>
       </c>
       <c r="H37" t="n">
-        <v>1.4248016708765958E-4</v>
+        <v>1.5775159046825193E-4</v>
       </c>
       <c r="I37" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="J37" t="n">
         <v>52.0</v>
@@ -6631,31 +6684,31 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B38" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="C38" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="D38" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E38" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F38" t="n">
-        <v>2.8910875385398944E-5</v>
+        <v>3.1570667540814574E-5</v>
       </c>
       <c r="G38" t="n">
-        <v>2.221606518339648E-4</v>
+        <v>2.4545294765560173E-4</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4248016708765958E-4</v>
+        <v>1.5775159046825193E-4</v>
       </c>
       <c r="I38" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="J38" t="n">
         <v>49.0</v>
@@ -6663,63 +6716,63 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B39" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="C39" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="D39" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="E39" t="s">
-        <v>662</v>
+        <v>284</v>
       </c>
       <c r="F39" t="n">
-        <v>2.8933660868768607E-5</v>
+        <v>3.190961593308248E-5</v>
       </c>
       <c r="G39" t="n">
-        <v>2.221606518339648E-4</v>
+        <v>2.4545294765560173E-4</v>
       </c>
       <c r="H39" t="n">
-        <v>1.4248016708765958E-4</v>
+        <v>1.5775159046825193E-4</v>
       </c>
       <c r="I39" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="J39" t="n">
-        <v>74.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B40" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C40" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D40" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="E40" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F40" t="n">
-        <v>2.9425251898538385E-5</v>
+        <v>3.190961593308248E-5</v>
       </c>
       <c r="G40" t="n">
-        <v>2.221606518339648E-4</v>
+        <v>2.4545294765560173E-4</v>
       </c>
       <c r="H40" t="n">
-        <v>1.4248016708765958E-4</v>
+        <v>1.5775159046825193E-4</v>
       </c>
       <c r="I40" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="J40" t="n">
         <v>43.0</v>
@@ -6727,63 +6780,63 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B41" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C41" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="D41" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="E41" t="s">
-        <v>282</v>
+        <v>669</v>
       </c>
       <c r="F41" t="n">
-        <v>2.9425251898538385E-5</v>
+        <v>3.2403029393478775E-5</v>
       </c>
       <c r="G41" t="n">
-        <v>2.221606518339648E-4</v>
+        <v>2.4545294765560173E-4</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4248016708765958E-4</v>
+        <v>1.5775159046825193E-4</v>
       </c>
       <c r="I41" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="J41" t="n">
-        <v>43.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B42" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C42" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="D42" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="E42" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="F42" t="n">
-        <v>6.637839790554092E-5</v>
+        <v>7.389677348661544E-5</v>
       </c>
       <c r="G42" t="n">
-        <v>4.889335650603259E-4</v>
+        <v>5.461151796693776E-4</v>
       </c>
       <c r="H42" t="n">
-        <v>3.1357189254478896E-4</v>
+        <v>3.5098595879393726E-4</v>
       </c>
       <c r="I42" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="J42" t="n">
         <v>72.0</v>
@@ -6791,31 +6844,31 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="E43" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F43" t="n">
-        <v>8.108604048291416E-5</v>
+        <v>9.064792885383106E-5</v>
       </c>
       <c r="G43" t="n">
-        <v>5.830472434723827E-4</v>
+        <v>6.539600581597812E-4</v>
       </c>
       <c r="H43" t="n">
-        <v>3.739306127532884E-4</v>
+        <v>4.2029741448518156E-4</v>
       </c>
       <c r="I43" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="J43" t="n">
         <v>78.0</v>
@@ -6823,31 +6876,31 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B44" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C44" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="D44" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="E44" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F44" t="n">
-        <v>1.0383160002995658E-4</v>
+        <v>1.1591743633973929E-4</v>
       </c>
       <c r="G44" t="n">
-        <v>7.292358885824858E-4</v>
+        <v>8.168135630451397E-4</v>
       </c>
       <c r="H44" t="n">
-        <v>4.6768701115084484E-4</v>
+        <v>5.249626859939234E-4</v>
       </c>
       <c r="I44" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="J44" t="n">
         <v>78.0</v>
@@ -6861,25 +6914,25 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F45" t="n">
-        <v>1.1508602321224651E-4</v>
+        <v>1.3160708598051492E-4</v>
       </c>
       <c r="G45" t="n">
-        <v>7.899086138658738E-4</v>
+        <v>9.062942511840006E-4</v>
       </c>
       <c r="H45" t="n">
-        <v>5.065987624653914E-4</v>
+        <v>5.824715527845756E-4</v>
       </c>
       <c r="I45" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="J45" t="n">
         <v>110.0</v>
@@ -6887,31 +6940,31 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B46" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="C46" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="D46" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="E46" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="F46" t="n">
-        <v>1.3538426593339965E-4</v>
+        <v>1.4814171297525443E-4</v>
       </c>
       <c r="G46" t="n">
-        <v>9.0857885137526E-4</v>
+        <v>9.974875340333798E-4</v>
       </c>
       <c r="H46" t="n">
-        <v>5.827065481110068E-4</v>
+        <v>6.410810970858963E-4</v>
       </c>
       <c r="I46" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="J46" t="n">
         <v>57.0</v>
@@ -6919,31 +6972,31 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B47" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C47" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D47" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="E47" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F47" t="n">
-        <v>1.516373357511448E-4</v>
+        <v>1.687867521964454E-4</v>
       </c>
       <c r="G47" t="n">
-        <v>9.955320738444723E-4</v>
+        <v>0.0011117909981635426</v>
       </c>
       <c r="H47" t="n">
-        <v>6.384729926363992E-4</v>
+        <v>7.145434589552037E-4</v>
       </c>
       <c r="I47" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="J47" t="n">
         <v>77.0</v>
@@ -6951,31 +7004,31 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B48" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C48" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="D48" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="E48" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F48" t="n">
-        <v>1.686032986248953E-4</v>
+        <v>1.7968205538512026E-4</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0010833658762706038</v>
+        <v>0.0011583758038657753</v>
       </c>
       <c r="H48" t="n">
-        <v>6.948041869424578E-4</v>
+        <v>7.444833201847088E-4</v>
       </c>
       <c r="I48" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="J48" t="n">
         <v>33.0</v>
@@ -6983,31 +7036,31 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B49" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="C49" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D49" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="E49" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F49" t="n">
-        <v>1.7422643770007856E-4</v>
+        <v>1.879784164925139E-4</v>
       </c>
       <c r="G49" t="n">
-        <v>0.001096174670529661</v>
+        <v>0.001186613754108994</v>
       </c>
       <c r="H49" t="n">
-        <v>7.03018959140668E-4</v>
+        <v>7.626317335770848E-4</v>
       </c>
       <c r="I49" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="J49" t="n">
         <v>44.0</v>
@@ -7015,31 +7068,31 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B50" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C50" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D50" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="E50" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F50" t="n">
-        <v>2.96056074995061E-4</v>
+        <v>3.145893104646438E-4</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0018246721356838453</v>
+        <v>0.0019453175728732055</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0011702323909579212</v>
+        <v>0.0012502475281623866</v>
       </c>
       <c r="I50" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="J50" t="n">
         <v>32.0</v>
@@ -7047,31 +7100,31 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B51" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="C51" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="D51" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="E51" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F51" t="n">
-        <v>3.136146164081768E-4</v>
+        <v>3.298340347100584E-4</v>
       </c>
       <c r="G51" t="n">
-        <v>0.001894232283105388</v>
+        <v>0.0019987942503429538</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0012148439877706218</v>
+        <v>0.0012846167667654904</v>
       </c>
       <c r="I51" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="J51" t="n">
         <v>24.0</v>
@@ -7079,31 +7132,31 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B52" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C52" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="D52" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="E52" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="F52" t="n">
-        <v>3.7689778087278197E-4</v>
+        <v>4.020105335200986E-4</v>
       </c>
       <c r="G52" t="n">
-        <v>0.00223182607497216</v>
+        <v>0.002388415522678233</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0014313558654404932</v>
+        <v>0.0015350247409952164</v>
       </c>
       <c r="I52" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="J52" t="n">
         <v>36.0</v>
@@ -7111,31 +7164,31 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B53" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C53" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="D53" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F53" t="n">
-        <v>3.894064409058991E-4</v>
+        <v>4.139052402798859E-4</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0022615527914150294</v>
+        <v>0.002411793996246258</v>
       </c>
       <c r="H53" t="n">
-        <v>0.001450420751552337</v>
+        <v>0.0015500499889024068</v>
       </c>
       <c r="I53" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="J53" t="n">
         <v>33.0</v>
@@ -7143,63 +7196,63 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B54" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C54" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D54" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="E54" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="F54" t="n">
-        <v>4.339586862493762E-4</v>
+        <v>4.889666529485841E-4</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0024727457216473887</v>
+        <v>0.0027462257614209954</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0015858668971178793</v>
+        <v>0.0017649878959975134</v>
       </c>
       <c r="I54" t="s">
-        <v>751</v>
+        <v>758</v>
       </c>
       <c r="J54" t="n">
-        <v>35.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B55" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="C55" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="D55" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="E55" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F55" t="n">
-        <v>4.562786852958038E-4</v>
+        <v>4.894263733225537E-4</v>
       </c>
       <c r="G55" t="n">
-        <v>0.002551780795543199</v>
+        <v>0.0027462257614209954</v>
       </c>
       <c r="H55" t="n">
-        <v>0.001636555128546353</v>
+        <v>0.0017649878959975134</v>
       </c>
       <c r="I55" t="s">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="J55" t="n">
         <v>42.0</v>
@@ -7207,255 +7260,255 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B56" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C56" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D56" t="s">
-        <v>607</v>
+        <v>642</v>
       </c>
       <c r="E56" t="s">
-        <v>291</v>
+        <v>690</v>
       </c>
       <c r="F56" t="n">
-        <v>4.6795759981847334E-4</v>
+        <v>6.452263301551086E-4</v>
       </c>
       <c r="G56" t="n">
-        <v>0.002569512639003254</v>
+        <v>0.0035546105097635982</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0016479272414660117</v>
+        <v>0.0022845334177740684</v>
       </c>
       <c r="I56" t="s">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="J56" t="n">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B57" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C57" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="D57" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="E57" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="F57" t="n">
-        <v>5.923781745105299E-4</v>
+        <v>6.73941742689954E-4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0031946108696817863</v>
+        <v>0.003646506214911715</v>
       </c>
       <c r="H57" t="n">
-        <v>0.002048826768983788</v>
+        <v>0.0023435944059707046</v>
       </c>
       <c r="I57" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="J57" t="n">
-        <v>60.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B58" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="C58" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="D58" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
       <c r="E58" t="s">
-        <v>684</v>
+        <v>310</v>
       </c>
       <c r="F58" t="n">
-        <v>7.266384376095016E-4</v>
+        <v>8.107142573435509E-4</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0038499089150538504</v>
+        <v>0.00430958631535256</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0024690945987100336</v>
+        <v>0.002769753233768364</v>
       </c>
       <c r="I58" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="J58" t="n">
-        <v>41.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B59" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C59" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="D59" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="E59" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F59" t="n">
-        <v>7.537889123888903E-4</v>
+        <v>8.860464941464523E-4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.003924900888645601</v>
+        <v>0.004603335736689943</v>
       </c>
       <c r="H59" t="n">
-        <v>0.002517189834474697</v>
+        <v>0.002958544767370642</v>
       </c>
       <c r="I59" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="J59" t="n">
-        <v>47.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B60" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="C60" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="D60" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="E60" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="F60" t="n">
-        <v>8.096842838448457E-4</v>
+        <v>8.963591038439162E-4</v>
       </c>
       <c r="G60" t="n">
-        <v>0.004144485656290566</v>
+        <v>0.004603335736689943</v>
       </c>
       <c r="H60" t="n">
-        <v>0.002658017988000921</v>
+        <v>0.002958544767370642</v>
       </c>
       <c r="I60" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="J60" t="n">
-        <v>68.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B61" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="C61" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="D61" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="E61" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="F61" t="n">
-        <v>8.394153184073547E-4</v>
+        <v>9.651292903633755E-4</v>
       </c>
       <c r="G61" t="n">
-        <v>0.004225057102650352</v>
+        <v>0.004873902916335046</v>
       </c>
       <c r="H61" t="n">
-        <v>0.002709691554157075</v>
+        <v>0.003132437170477622</v>
       </c>
       <c r="I61" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="J61" t="n">
-        <v>40.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>477</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>477</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>564</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
       <c r="E62" t="s">
-        <v>687</v>
+        <v>305</v>
       </c>
       <c r="F62" t="n">
-        <v>8.851867220100344E-4</v>
+        <v>0.0010228610743009145</v>
       </c>
       <c r="G62" t="n">
-        <v>0.004382399836836563</v>
+        <v>0.0050807689428389695</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0028106014987031294</v>
+        <v>0.0032653891069140497</v>
       </c>
       <c r="I62" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="J62" t="n">
-        <v>64.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="C63" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D63" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="E63" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F63" t="n">
-        <v>9.457630884904781E-4</v>
+        <v>0.0010416674508882703</v>
       </c>
       <c r="G63" t="n">
-        <v>0.004606781495550394</v>
+        <v>0.005090729639018482</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0029545060828904584</v>
+        <v>0.003271790804997114</v>
       </c>
       <c r="I63" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="J63" t="n">
         <v>78.0</v>
@@ -7463,31 +7516,31 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="C64" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="D64" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="E64" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0010012656886323992</v>
+        <v>0.001071481211386132</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0047799140143006385</v>
+        <v>0.005153314397619015</v>
       </c>
       <c r="H64" t="n">
-        <v>0.003065542623322822</v>
+        <v>0.0033120137695310677</v>
       </c>
       <c r="I64" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="J64" t="n">
         <v>43.0</v>
@@ -7495,31 +7548,31 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B65" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C65" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D65" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="E65" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001012961910315367</v>
+        <v>0.0011027002650836895</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0047799140143006385</v>
+        <v>0.005220596567505592</v>
       </c>
       <c r="H65" t="n">
-        <v>0.003065542623322822</v>
+        <v>0.00335525574079741</v>
       </c>
       <c r="I65" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="J65" t="n">
         <v>63.0</v>
@@ -7527,63 +7580,63 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B66" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C66" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D66" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="E66" t="s">
-        <v>689</v>
+        <v>331</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0012854843983889416</v>
+        <v>0.001329025453384204</v>
       </c>
       <c r="G66" t="n">
-        <v>0.005972558281745545</v>
+        <v>0.006195303267314059</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0038304312437824335</v>
+        <v>0.003981695690300853</v>
       </c>
       <c r="I66" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="J66" t="n">
-        <v>117.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B67" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="C67" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="D67" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="E67" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001336088164198497</v>
+        <v>0.001427915806995461</v>
       </c>
       <c r="G67" t="n">
-        <v>0.006113615539211305</v>
+        <v>0.006550016284031052</v>
       </c>
       <c r="H67" t="n">
-        <v>0.00392089668600516</v>
+        <v>0.004209668273565206</v>
       </c>
       <c r="I67" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="J67" t="n">
         <v>43.0</v>
@@ -7591,127 +7644,127 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B68" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C68" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D68" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="E68" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0014350046155083345</v>
+        <v>0.0014483534357428397</v>
       </c>
       <c r="G68" t="n">
-        <v>0.006468229759455478</v>
+        <v>0.006550016284031052</v>
       </c>
       <c r="H68" t="n">
-        <v>0.004148324418751509</v>
+        <v>0.004209668273565206</v>
       </c>
       <c r="I68" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
       <c r="J68" t="n">
-        <v>13.0</v>
+        <v>117.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B69" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C69" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D69" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="E69" t="s">
-        <v>299</v>
+        <v>697</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0015279038943332122</v>
+        <v>0.0014803513773039689</v>
       </c>
       <c r="G69" t="n">
-        <v>0.006651738777848023</v>
+        <v>0.0065962715782809205</v>
       </c>
       <c r="H69" t="n">
-        <v>0.004266015807333693</v>
+        <v>0.004239396359152233</v>
       </c>
       <c r="I69" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="J69" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B70" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C70" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D70" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="E70" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0015417937564548398</v>
+        <v>0.001598154966378197</v>
       </c>
       <c r="G70" t="n">
-        <v>0.006651738777848023</v>
+        <v>0.006906753368551925</v>
       </c>
       <c r="H70" t="n">
-        <v>0.004266015807333693</v>
+        <v>0.00443894171680426</v>
       </c>
       <c r="I70" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="J70" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B71" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C71" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D71" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="E71" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0015417937564548398</v>
+        <v>0.0016184141556672828</v>
       </c>
       <c r="G71" t="n">
-        <v>0.006651738777848023</v>
+        <v>0.006906753368551925</v>
       </c>
       <c r="H71" t="n">
-        <v>0.004266015807333693</v>
+        <v>0.00443894171680426</v>
       </c>
       <c r="I71" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
       <c r="J71" t="n">
         <v>26.0</v>
@@ -7719,415 +7772,415 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>492</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
+        <v>580</v>
       </c>
       <c r="D72" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="E72" t="s">
-        <v>288</v>
+        <v>332</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0015956708220440893</v>
+        <v>0.0016184141556672828</v>
       </c>
       <c r="G72" t="n">
-        <v>0.006787219552919928</v>
+        <v>0.006906753368551925</v>
       </c>
       <c r="H72" t="n">
-        <v>0.004352904837006856</v>
+        <v>0.00443894171680426</v>
       </c>
       <c r="I72" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="J72" t="n">
-        <v>111.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>487</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>487</v>
+        <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>574</v>
+        <v>137</v>
       </c>
       <c r="D73" t="s">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="E73" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0017027952554483003</v>
+        <v>0.0017880401376916709</v>
       </c>
       <c r="G73" t="n">
-        <v>0.007142280099241482</v>
+        <v>0.007524668912785781</v>
       </c>
       <c r="H73" t="n">
-        <v>0.004580618815825837</v>
+        <v>0.004836073471826887</v>
       </c>
       <c r="I73" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="J73" t="n">
-        <v>47.0</v>
+        <v>111.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>493</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>493</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>581</v>
       </c>
       <c r="D74" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E74" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001896571302561703</v>
+        <v>0.0018241968120760437</v>
       </c>
       <c r="G74" t="n">
-        <v>0.007846089498268963</v>
+        <v>0.007571666219986867</v>
       </c>
       <c r="H74" t="n">
-        <v>0.00503199884169219</v>
+        <v>0.004866278446057218</v>
       </c>
       <c r="I74" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="J74" t="n">
-        <v>55.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>488</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>488</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>575</v>
+        <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="E75" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002041670840471615</v>
+        <v>0.002044115535936042</v>
       </c>
       <c r="G75" t="n">
-        <v>0.008332224240843617</v>
+        <v>0.00836982442417055</v>
       </c>
       <c r="H75" t="n">
-        <v>0.005343775741774924</v>
+        <v>0.005379251410358005</v>
       </c>
       <c r="I75" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="J75" t="n">
-        <v>24.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B76" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C76" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D76" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="E76" t="s">
-        <v>668</v>
+        <v>323</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0023488575860980444</v>
+        <v>0.0021362655360245867</v>
       </c>
       <c r="G76" t="n">
-        <v>0.009458066546688125</v>
+        <v>0.00863051276553933</v>
       </c>
       <c r="H76" t="n">
-        <v>0.006065821696028635</v>
+        <v>0.005546794725116471</v>
       </c>
       <c r="I76" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="J76" t="n">
-        <v>41.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B77" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C77" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D77" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="E77" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0031056879857432403</v>
+        <v>0.0024991286797658233</v>
       </c>
       <c r="G77" t="n">
-        <v>0.012341023311769192</v>
+        <v>0.009963631446961111</v>
       </c>
       <c r="H77" t="n">
-        <v>0.007914772706049256</v>
+        <v>0.0064035845672669985</v>
       </c>
       <c r="I77" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="J77" t="n">
-        <v>21.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B78" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C78" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="D78" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="E78" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0032132054015403012</v>
+        <v>0.003233934583436741</v>
       </c>
       <c r="G78" t="n">
-        <v>0.012602441964482741</v>
+        <v>0.012725742581575748</v>
       </c>
       <c r="H78" t="n">
-        <v>0.008082430538392556</v>
+        <v>0.00817878192666845</v>
       </c>
       <c r="I78" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="J78" t="n">
-        <v>56.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B79" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="C79" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D79" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="E79" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="F79" t="n">
-        <v>0.003513855369224564</v>
+        <v>0.003455038363539668</v>
       </c>
       <c r="G79" t="n">
-        <v>0.013604927198792542</v>
+        <v>0.013421495181442557</v>
       </c>
       <c r="H79" t="n">
-        <v>0.008725362860152764</v>
+        <v>0.008625939234208348</v>
       </c>
       <c r="I79" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="J79" t="n">
-        <v>23.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B80" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C80" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D80" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E80" t="s">
-        <v>301</v>
+        <v>700</v>
       </c>
       <c r="F80" t="n">
-        <v>0.004088358994700124</v>
+        <v>0.0036661270540585254</v>
       </c>
       <c r="G80" t="n">
-        <v>0.015628916663284018</v>
+        <v>0.014061221485819408</v>
       </c>
       <c r="H80" t="n">
-        <v>0.010023425116919692</v>
+        <v>0.00903708867422821</v>
       </c>
       <c r="I80" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="J80" t="n">
-        <v>46.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B81" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="C81" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="D81" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="E81" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0041697203891356</v>
+        <v>0.0043559842993708825</v>
       </c>
       <c r="G81" t="n">
-        <v>0.015740694468986887</v>
+        <v>0.01636793192576195</v>
       </c>
       <c r="H81" t="n">
-        <v>0.010095112521065137</v>
+        <v>0.010519601897745215</v>
       </c>
       <c r="I81" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="J81" t="n">
-        <v>29.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B82" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C82" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="D82" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
       <c r="E82" t="s">
         <v>291</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004705157266009226</v>
+        <v>0.004375585762332402</v>
       </c>
       <c r="G82" t="n">
-        <v>0.017542685115244275</v>
+        <v>0.01636793192576195</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01125079840085377</v>
+        <v>0.010519601897745215</v>
       </c>
       <c r="I82" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="J82" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>63</v>
+        <v>501</v>
       </c>
       <c r="B83" t="s">
-        <v>63</v>
+        <v>501</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>589</v>
       </c>
       <c r="D83" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F83" t="n">
-        <v>0.005044498128629762</v>
+        <v>0.004875755681359193</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01849893963585259</v>
+        <v>0.018016511846973605</v>
       </c>
       <c r="H83" t="n">
-        <v>0.011864081188556558</v>
+        <v>0.011579137369081524</v>
       </c>
       <c r="I83" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="J83" t="n">
-        <v>51.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B84" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C84" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D84" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="E84" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005084145661509155</v>
+        <v>0.005388579484967781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01849893963585259</v>
+        <v>0.019438786970647787</v>
       </c>
       <c r="H84" t="n">
-        <v>0.011864081188556558</v>
+        <v>0.01249322768653757</v>
       </c>
       <c r="I84" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="J84" t="n">
         <v>41.0</v>
@@ -8135,351 +8188,351 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>497</v>
+        <v>64</v>
       </c>
       <c r="B85" t="s">
-        <v>497</v>
+        <v>64</v>
       </c>
       <c r="C85" t="s">
-        <v>584</v>
+        <v>157</v>
       </c>
       <c r="D85" t="s">
-        <v>650</v>
+        <v>616</v>
       </c>
       <c r="E85" t="s">
-        <v>695</v>
+        <v>283</v>
       </c>
       <c r="F85" t="n">
-        <v>0.005701715405407744</v>
+        <v>0.005388970645328099</v>
       </c>
       <c r="G85" t="n">
-        <v>0.020499024433727843</v>
+        <v>0.019438786970647787</v>
       </c>
       <c r="H85" t="n">
-        <v>0.013146812463596806</v>
+        <v>0.01249322768653757</v>
       </c>
       <c r="I85" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="J85" t="n">
-        <v>31.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B86" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C86" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="D86" t="s">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="E86" t="s">
-        <v>257</v>
+        <v>701</v>
       </c>
       <c r="F86" t="n">
-        <v>0.006278784937972195</v>
+        <v>0.005986992048916112</v>
       </c>
       <c r="G86" t="n">
-        <v>0.022122885966886323</v>
+        <v>0.02134186577437155</v>
       </c>
       <c r="H86" t="n">
-        <v>0.014188257294900955</v>
+        <v>0.013716328533120502</v>
       </c>
       <c r="I86" t="s">
-        <v>783</v>
+        <v>790</v>
       </c>
       <c r="J86" t="n">
-        <v>54.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B87" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C87" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D87" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E87" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="F87" t="n">
-        <v>0.006299894679311999</v>
+        <v>0.006712925668097548</v>
       </c>
       <c r="G87" t="n">
-        <v>0.022122885966886323</v>
+        <v>0.023247214856247</v>
       </c>
       <c r="H87" t="n">
-        <v>0.014188257294900955</v>
+        <v>0.014940888478046532</v>
       </c>
       <c r="I87" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="J87" t="n">
-        <v>57.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B88" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="C88" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="D88" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="E88" t="s">
-        <v>258</v>
+        <v>316</v>
       </c>
       <c r="F88" t="n">
-        <v>0.006415901155568141</v>
+        <v>0.006749519805619543</v>
       </c>
       <c r="G88" t="n">
-        <v>0.022271289068753777</v>
+        <v>0.023247214856247</v>
       </c>
       <c r="H88" t="n">
-        <v>0.014283433909552789</v>
+        <v>0.014940888478046532</v>
       </c>
       <c r="I88" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="J88" t="n">
-        <v>34.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>506</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>506</v>
       </c>
       <c r="C89" t="s">
-        <v>188</v>
+        <v>594</v>
       </c>
       <c r="D89" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="E89" t="s">
-        <v>325</v>
+        <v>260</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00714137264920422</v>
+        <v>0.006751666360890217</v>
       </c>
       <c r="G89" t="n">
-        <v>0.024507892500678117</v>
+        <v>0.023247214856247</v>
       </c>
       <c r="H89" t="n">
-        <v>0.01571785367767436</v>
+        <v>0.014940888478046532</v>
       </c>
       <c r="I89" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="J89" t="n">
-        <v>53.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>501</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>501</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>588</v>
+        <v>190</v>
       </c>
       <c r="D90" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="E90" t="s">
-        <v>696</v>
+        <v>330</v>
       </c>
       <c r="F90" t="n">
-        <v>0.007652314190310208</v>
+        <v>0.007623321649437449</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02596627961206385</v>
+        <v>0.02595355572786008</v>
       </c>
       <c r="H90" t="n">
-        <v>0.01665317340055681</v>
+        <v>0.016680242520945333</v>
       </c>
       <c r="I90" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="J90" t="n">
-        <v>27.0</v>
+        <v>53.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B91" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C91" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="D91" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="E91" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="F91" t="n">
-        <v>0.008068433164786124</v>
+        <v>0.007994703073780219</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02707407573072677</v>
+        <v>0.026915500348393403</v>
       </c>
       <c r="H91" t="n">
-        <v>0.017363645641177157</v>
+        <v>0.017298480335080007</v>
       </c>
       <c r="I91" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="J91" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B92" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C92" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D92" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
       <c r="E92" t="s">
-        <v>323</v>
+        <v>703</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00960306352112499</v>
+        <v>0.00830663129931754</v>
       </c>
       <c r="G92" t="n">
-        <v>0.031869507509667556</v>
+        <v>0.02765834377684851</v>
       </c>
       <c r="H92" t="n">
-        <v>0.020439140403551166</v>
+        <v>0.017775902722657545</v>
       </c>
       <c r="I92" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="J92" t="n">
-        <v>33.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>509</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>509</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>597</v>
       </c>
       <c r="D93" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E93" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F93" t="n">
-        <v>0.009897192412382861</v>
+        <v>0.010077136350003584</v>
       </c>
       <c r="G93" t="n">
-        <v>0.032488609875430695</v>
+        <v>0.03318882950055528</v>
       </c>
       <c r="H93" t="n">
-        <v>0.020836194552384973</v>
+        <v>0.021330322937650605</v>
       </c>
       <c r="I93" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="J93" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>504</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>504</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>591</v>
+        <v>186</v>
       </c>
       <c r="D94" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="E94" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F94" t="n">
-        <v>0.010675176694680827</v>
+        <v>0.010366322804737649</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03396435423499425</v>
+        <v>0.03377414849285492</v>
       </c>
       <c r="H94" t="n">
-        <v>0.021782646145831096</v>
+        <v>0.021706505024068647</v>
       </c>
       <c r="I94" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="J94" t="n">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>510</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>510</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>598</v>
       </c>
       <c r="D95" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="E95" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F95" t="n">
-        <v>0.010675176694680827</v>
+        <v>0.011205629898073473</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03396435423499425</v>
+        <v>0.03553968075272941</v>
       </c>
       <c r="H95" t="n">
-        <v>0.021782646145831096</v>
+        <v>0.022841205277939692</v>
       </c>
       <c r="I95" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="J95" t="n">
         <v>34.0</v>
@@ -8487,194 +8540,194 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D96" t="s">
-        <v>612</v>
+        <v>659</v>
       </c>
       <c r="E96" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F96" t="n">
-        <v>0.010684151166637262</v>
+        <v>0.011205629898073473</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03396435423499425</v>
+        <v>0.03553968075272941</v>
       </c>
       <c r="H96" t="n">
-        <v>0.021782646145831096</v>
+        <v>0.022841205277939692</v>
       </c>
       <c r="I96" t="s">
-        <v>793</v>
+        <v>800</v>
       </c>
       <c r="J96" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D97" t="s">
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="E97" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F97" t="n">
-        <v>0.011200342191325296</v>
+        <v>0.011260096872151893</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03523440981021083</v>
+        <v>0.03553968075272941</v>
       </c>
       <c r="H97" t="n">
-        <v>0.022597181614077352</v>
+        <v>0.022841205277939692</v>
       </c>
       <c r="I97" t="s">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="J97" t="n">
-        <v>61.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>505</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>505</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>592</v>
+        <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="E98" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="F98" t="n">
-        <v>0.011975099309232769</v>
+        <v>0.011981469322267067</v>
       </c>
       <c r="G98" t="n">
-        <v>0.037283298880291714</v>
+        <v>0.03742665159429816</v>
       </c>
       <c r="H98" t="n">
-        <v>0.023911212945185344</v>
+        <v>0.024053953604117276</v>
       </c>
       <c r="I98" t="s">
-        <v>795</v>
+        <v>802</v>
       </c>
       <c r="J98" t="n">
-        <v>24.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B99" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C99" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D99" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E99" t="s">
-        <v>698</v>
+        <v>299</v>
       </c>
       <c r="F99" t="n">
-        <v>0.012716304242165943</v>
+        <v>0.012451802267312281</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03918697837891954</v>
+        <v>0.03849893966322063</v>
       </c>
       <c r="H99" t="n">
-        <v>0.025132115795472976</v>
+        <v>0.024743108694444384</v>
       </c>
       <c r="I99" t="s">
-        <v>796</v>
+        <v>803</v>
       </c>
       <c r="J99" t="n">
-        <v>47.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>41</v>
+        <v>512</v>
       </c>
       <c r="B100" t="s">
-        <v>41</v>
+        <v>512</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>600</v>
       </c>
       <c r="D100" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="E100" t="s">
-        <v>285</v>
+        <v>704</v>
       </c>
       <c r="F100" t="n">
-        <v>0.015544679006314517</v>
+        <v>0.013466357427713337</v>
       </c>
       <c r="G100" t="n">
-        <v>0.04741912181724227</v>
+        <v>0.04121521515754688</v>
       </c>
       <c r="H100" t="n">
-        <v>0.030411705870939623</v>
+        <v>0.026488847678117673</v>
       </c>
       <c r="I100" t="s">
-        <v>797</v>
+        <v>804</v>
       </c>
       <c r="J100" t="n">
-        <v>133.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>513</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>513</v>
       </c>
       <c r="C101" t="s">
-        <v>166</v>
+        <v>601</v>
       </c>
       <c r="D101" t="s">
-        <v>645</v>
+        <v>616</v>
       </c>
       <c r="E101" t="s">
-        <v>312</v>
+        <v>705</v>
       </c>
       <c r="F101" t="n">
-        <v>0.01640939453827888</v>
+        <v>0.014210215445395176</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04955637150560222</v>
+        <v>0.04305695279954738</v>
       </c>
       <c r="H101" t="n">
-        <v>0.03178240626361383</v>
+        <v>0.02767252481471692</v>
       </c>
       <c r="I101" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="J101" t="n">
-        <v>55.0</v>
+        <v>51.0</v>
       </c>
     </row>
   </sheetData>

--- a/counts/ALS Mice/experimental/results/tg_1-tg_3/KEGG.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_3/KEGG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="490">
   <si>
     <t>ID</t>
   </si>
@@ -42,829 +42,1447 @@
     <t>Count</t>
   </si>
   <si>
+    <t>mmu04380</t>
+  </si>
+  <si>
+    <t>mmu04621</t>
+  </si>
+  <si>
+    <t>mmu05140</t>
+  </si>
+  <si>
     <t>mmu04145</t>
   </si>
   <si>
-    <t>mmu04380</t>
-  </si>
-  <si>
-    <t>mmu05140</t>
+    <t>mmu04142</t>
+  </si>
+  <si>
+    <t>mmu05168</t>
+  </si>
+  <si>
+    <t>mmu05152</t>
   </si>
   <si>
     <t>mmu05150</t>
   </si>
   <si>
+    <t>mmu04064</t>
+  </si>
+  <si>
+    <t>mmu05133</t>
+  </si>
+  <si>
+    <t>mmu05202</t>
+  </si>
+  <si>
+    <t>mmu05166</t>
+  </si>
+  <si>
+    <t>mmu05142</t>
+  </si>
+  <si>
+    <t>mmu05205</t>
+  </si>
+  <si>
+    <t>mmu04210</t>
+  </si>
+  <si>
+    <t>mmu04933</t>
+  </si>
+  <si>
+    <t>mmu04612</t>
+  </si>
+  <si>
+    <t>mmu05145</t>
+  </si>
+  <si>
+    <t>mmu05321</t>
+  </si>
+  <si>
+    <t>mmu04514</t>
+  </si>
+  <si>
+    <t>mmu04640</t>
+  </si>
+  <si>
+    <t>mmu05167</t>
+  </si>
+  <si>
+    <t>mmu05418</t>
+  </si>
+  <si>
+    <t>mmu04218</t>
+  </si>
+  <si>
+    <t>mmu04060</t>
+  </si>
+  <si>
+    <t>mmu05164</t>
+  </si>
+  <si>
     <t>mmu04610</t>
   </si>
   <si>
-    <t>mmu05168</t>
-  </si>
-  <si>
-    <t>mmu05152</t>
-  </si>
-  <si>
-    <t>mmu04640</t>
-  </si>
-  <si>
-    <t>mmu04612</t>
-  </si>
-  <si>
-    <t>mmu04621</t>
-  </si>
-  <si>
-    <t>mmu04060</t>
+    <t>mmu04390</t>
+  </si>
+  <si>
+    <t>mmu05144</t>
+  </si>
+  <si>
+    <t>mmu04630</t>
+  </si>
+  <si>
+    <t>mmu04620</t>
+  </si>
+  <si>
+    <t>mmu05323</t>
+  </si>
+  <si>
+    <t>mmu05165</t>
+  </si>
+  <si>
+    <t>mmu04670</t>
+  </si>
+  <si>
+    <t>mmu05200</t>
+  </si>
+  <si>
+    <t>mmu04940</t>
   </si>
   <si>
     <t>mmu05332</t>
   </si>
   <si>
-    <t>mmu05133</t>
-  </si>
-  <si>
-    <t>mmu05142</t>
-  </si>
-  <si>
-    <t>mmu04940</t>
-  </si>
-  <si>
-    <t>mmu05167</t>
+    <t>mmu05162</t>
   </si>
   <si>
     <t>mmu05416</t>
   </si>
   <si>
+    <t>mmu05161</t>
+  </si>
+  <si>
+    <t>mmu04668</t>
+  </si>
+  <si>
+    <t>mmu05210</t>
+  </si>
+  <si>
+    <t>mmu05134</t>
+  </si>
+  <si>
+    <t>mmu05212</t>
+  </si>
+  <si>
     <t>mmu05330</t>
   </si>
   <si>
-    <t>mmu05166</t>
-  </si>
-  <si>
-    <t>mmu05164</t>
-  </si>
-  <si>
-    <t>mmu04514</t>
-  </si>
-  <si>
-    <t>mmu05321</t>
+    <t>mmu04662</t>
+  </si>
+  <si>
+    <t>mmu04659</t>
+  </si>
+  <si>
+    <t>mmu05221</t>
+  </si>
+  <si>
+    <t>mmu05169</t>
+  </si>
+  <si>
+    <t>mmu05220</t>
+  </si>
+  <si>
+    <t>mmu05225</t>
+  </si>
+  <si>
+    <t>mmu04115</t>
+  </si>
+  <si>
+    <t>mmu04510</t>
+  </si>
+  <si>
+    <t>mmu05222</t>
+  </si>
+  <si>
+    <t>mmu04151</t>
+  </si>
+  <si>
+    <t>mmu04666</t>
+  </si>
+  <si>
+    <t>mmu05219</t>
+  </si>
+  <si>
+    <t>mmu00531</t>
+  </si>
+  <si>
+    <t>mmu04512</t>
+  </si>
+  <si>
+    <t>mmu04392</t>
+  </si>
+  <si>
+    <t>mmu04520</t>
+  </si>
+  <si>
+    <t>mmu04350</t>
   </si>
   <si>
     <t>mmu05320</t>
   </si>
   <si>
-    <t>mmu05323</t>
-  </si>
-  <si>
-    <t>mmu04064</t>
-  </si>
-  <si>
-    <t>mmu05162</t>
-  </si>
-  <si>
-    <t>mmu05205</t>
-  </si>
-  <si>
-    <t>mmu05202</t>
-  </si>
-  <si>
-    <t>mmu05145</t>
-  </si>
-  <si>
-    <t>mmu04662</t>
-  </si>
-  <si>
-    <t>mmu04659</t>
-  </si>
-  <si>
-    <t>mmu04630</t>
-  </si>
-  <si>
-    <t>mmu05144</t>
-  </si>
-  <si>
-    <t>mmu04666</t>
-  </si>
-  <si>
-    <t>mmu04620</t>
-  </si>
-  <si>
-    <t>mmu04151</t>
-  </si>
-  <si>
-    <t>mmu04933</t>
-  </si>
-  <si>
-    <t>mmu04142</t>
-  </si>
-  <si>
-    <t>mmu04650</t>
-  </si>
-  <si>
-    <t>mmu04668</t>
-  </si>
-  <si>
-    <t>mmu05169</t>
-  </si>
-  <si>
-    <t>mmu04210</t>
-  </si>
-  <si>
-    <t>mmu04670</t>
+    <t>mmu04066</t>
+  </si>
+  <si>
+    <t>mmu05132</t>
+  </si>
+  <si>
+    <t>mmu04810</t>
+  </si>
+  <si>
+    <t>mmu00480</t>
   </si>
   <si>
     <t>mmu04672</t>
   </si>
   <si>
-    <t>mmu04066</t>
-  </si>
-  <si>
-    <t>mmu05418</t>
-  </si>
-  <si>
-    <t>mmu04218</t>
-  </si>
-  <si>
-    <t>mmu05134</t>
-  </si>
-  <si>
-    <t>mmu05221</t>
-  </si>
-  <si>
-    <t>mmu05161</t>
-  </si>
-  <si>
-    <t>mmu04062</t>
-  </si>
-  <si>
-    <t>mmu05132</t>
-  </si>
-  <si>
-    <t>mmu04664</t>
-  </si>
-  <si>
-    <t>mmu04512</t>
+    <t>mmu00520</t>
+  </si>
+  <si>
+    <t>mmu04622</t>
+  </si>
+  <si>
+    <t>mmu04215</t>
+  </si>
+  <si>
+    <t>mmu01524</t>
+  </si>
+  <si>
+    <t>mmu04623</t>
+  </si>
+  <si>
+    <t>mmu04010</t>
   </si>
   <si>
     <t>mmu05203</t>
   </si>
   <si>
-    <t>mmu05210</t>
-  </si>
-  <si>
-    <t>mmu05020</t>
-  </si>
-  <si>
-    <t>mmu05165</t>
-  </si>
-  <si>
-    <t>mmu04622</t>
-  </si>
-  <si>
-    <t>mmu05310</t>
-  </si>
-  <si>
-    <t>mmu05340</t>
+    <t>mmu04216</t>
+  </si>
+  <si>
+    <t>mmu01521</t>
+  </si>
+  <si>
+    <t>mmu05224</t>
+  </si>
+  <si>
+    <t>mmu04015</t>
   </si>
   <si>
     <t>mmu04611</t>
   </si>
   <si>
+    <t>Osteoclast differentiation</t>
+  </si>
+  <si>
+    <t>NOD-like receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>Leishmaniasis</t>
+  </si>
+  <si>
     <t>Phagosome</t>
   </si>
   <si>
-    <t>Osteoclast differentiation</t>
-  </si>
-  <si>
-    <t>Leishmaniasis</t>
+    <t>Lysosome</t>
+  </si>
+  <si>
+    <t>Herpes simplex infection</t>
+  </si>
+  <si>
+    <t>Tuberculosis</t>
   </si>
   <si>
     <t>Staphylococcus aureus infection</t>
   </si>
   <si>
+    <t>NF-kappa B signaling pathway</t>
+  </si>
+  <si>
+    <t>Pertussis</t>
+  </si>
+  <si>
+    <t>Transcriptional misregulation in cancer</t>
+  </si>
+  <si>
+    <t>HTLV-I infection</t>
+  </si>
+  <si>
+    <t>Chagas disease (American trypanosomiasis)</t>
+  </si>
+  <si>
+    <t>Proteoglycans in cancer</t>
+  </si>
+  <si>
+    <t>Apoptosis</t>
+  </si>
+  <si>
+    <t>AGE-RAGE signaling pathway in diabetic complications</t>
+  </si>
+  <si>
+    <t>Antigen processing and presentation</t>
+  </si>
+  <si>
+    <t>Toxoplasmosis</t>
+  </si>
+  <si>
+    <t>Inflammatory bowel disease (IBD)</t>
+  </si>
+  <si>
+    <t>Cell adhesion molecules (CAMs)</t>
+  </si>
+  <si>
+    <t>Hematopoietic cell lineage</t>
+  </si>
+  <si>
+    <t>Kaposi's sarcoma-associated herpesvirus infection</t>
+  </si>
+  <si>
+    <t>Fluid shear stress and atherosclerosis</t>
+  </si>
+  <si>
+    <t>Cellular senescence</t>
+  </si>
+  <si>
+    <t>Cytokine-cytokine receptor interaction</t>
+  </si>
+  <si>
+    <t>Influenza A</t>
+  </si>
+  <si>
     <t>Complement and coagulation cascades</t>
   </si>
   <si>
-    <t>Herpes simplex infection</t>
-  </si>
-  <si>
-    <t>Tuberculosis</t>
-  </si>
-  <si>
-    <t>Hematopoietic cell lineage</t>
-  </si>
-  <si>
-    <t>Antigen processing and presentation</t>
-  </si>
-  <si>
-    <t>NOD-like receptor signaling pathway</t>
-  </si>
-  <si>
-    <t>Cytokine-cytokine receptor interaction</t>
+    <t>Hippo signaling pathway</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>Jak-STAT signaling pathway</t>
+  </si>
+  <si>
+    <t>Toll-like receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>Human papillomavirus infection</t>
+  </si>
+  <si>
+    <t>Leukocyte transendothelial migration</t>
+  </si>
+  <si>
+    <t>Pathways in cancer</t>
+  </si>
+  <si>
+    <t>Type I diabetes mellitus</t>
   </si>
   <si>
     <t>Graft-versus-host disease</t>
   </si>
   <si>
-    <t>Pertussis</t>
-  </si>
-  <si>
-    <t>Chagas disease (American trypanosomiasis)</t>
-  </si>
-  <si>
-    <t>Type I diabetes mellitus</t>
-  </si>
-  <si>
-    <t>Kaposi's sarcoma-associated herpesvirus infection</t>
+    <t>Measles</t>
   </si>
   <si>
     <t>Viral myocarditis</t>
   </si>
   <si>
+    <t>Hepatitis B</t>
+  </si>
+  <si>
+    <t>TNF signaling pathway</t>
+  </si>
+  <si>
+    <t>Colorectal cancer</t>
+  </si>
+  <si>
+    <t>Legionellosis</t>
+  </si>
+  <si>
+    <t>Pancreatic cancer</t>
+  </si>
+  <si>
     <t>Allograft rejection</t>
   </si>
   <si>
-    <t>HTLV-I infection</t>
-  </si>
-  <si>
-    <t>Influenza A</t>
-  </si>
-  <si>
-    <t>Cell adhesion molecules (CAMs)</t>
-  </si>
-  <si>
-    <t>Inflammatory bowel disease (IBD)</t>
+    <t>B cell receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>Th17 cell differentiation</t>
+  </si>
+  <si>
+    <t>Acute myeloid leukemia</t>
+  </si>
+  <si>
+    <t>Epstein-Barr virus infection</t>
+  </si>
+  <si>
+    <t>Chronic myeloid leukemia</t>
+  </si>
+  <si>
+    <t>Hepatocellular carcinoma</t>
+  </si>
+  <si>
+    <t>p53 signaling pathway</t>
+  </si>
+  <si>
+    <t>Focal adhesion</t>
+  </si>
+  <si>
+    <t>Small cell lung cancer</t>
+  </si>
+  <si>
+    <t>PI3K-Akt signaling pathway</t>
+  </si>
+  <si>
+    <t>Fc gamma R-mediated phagocytosis</t>
+  </si>
+  <si>
+    <t>Bladder cancer</t>
+  </si>
+  <si>
+    <t>Glycosaminoglycan degradation</t>
+  </si>
+  <si>
+    <t>ECM-receptor interaction</t>
+  </si>
+  <si>
+    <t>Hippo signaling pathway - multiple species</t>
+  </si>
+  <si>
+    <t>Adherens junction</t>
+  </si>
+  <si>
+    <t>TGF-beta signaling pathway</t>
   </si>
   <si>
     <t>Autoimmune thyroid disease</t>
   </si>
   <si>
-    <t>Rheumatoid arthritis</t>
-  </si>
-  <si>
-    <t>NF-kappa B signaling pathway</t>
-  </si>
-  <si>
-    <t>Measles</t>
-  </si>
-  <si>
-    <t>Proteoglycans in cancer</t>
-  </si>
-  <si>
-    <t>Transcriptional misregulation in cancer</t>
-  </si>
-  <si>
-    <t>Toxoplasmosis</t>
-  </si>
-  <si>
-    <t>B cell receptor signaling pathway</t>
-  </si>
-  <si>
-    <t>Th17 cell differentiation</t>
-  </si>
-  <si>
-    <t>Jak-STAT signaling pathway</t>
-  </si>
-  <si>
-    <t>Malaria</t>
-  </si>
-  <si>
-    <t>Fc gamma R-mediated phagocytosis</t>
-  </si>
-  <si>
-    <t>Toll-like receptor signaling pathway</t>
-  </si>
-  <si>
-    <t>PI3K-Akt signaling pathway</t>
-  </si>
-  <si>
-    <t>AGE-RAGE signaling pathway in diabetic complications</t>
-  </si>
-  <si>
-    <t>Lysosome</t>
-  </si>
-  <si>
-    <t>Natural killer cell mediated cytotoxicity</t>
-  </si>
-  <si>
-    <t>TNF signaling pathway</t>
-  </si>
-  <si>
-    <t>Epstein-Barr virus infection</t>
-  </si>
-  <si>
-    <t>Apoptosis</t>
-  </si>
-  <si>
-    <t>Leukocyte transendothelial migration</t>
+    <t>HIF-1 signaling pathway</t>
+  </si>
+  <si>
+    <t>Salmonella infection</t>
+  </si>
+  <si>
+    <t>Regulation of actin cytoskeleton</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
   </si>
   <si>
     <t>Intestinal immune network for IgA production</t>
   </si>
   <si>
-    <t>HIF-1 signaling pathway</t>
-  </si>
-  <si>
-    <t>Fluid shear stress and atherosclerosis</t>
-  </si>
-  <si>
-    <t>Cellular senescence</t>
-  </si>
-  <si>
-    <t>Legionellosis</t>
-  </si>
-  <si>
-    <t>Acute myeloid leukemia</t>
-  </si>
-  <si>
-    <t>Hepatitis B</t>
-  </si>
-  <si>
-    <t>Chemokine signaling pathway</t>
-  </si>
-  <si>
-    <t>Salmonella infection</t>
-  </si>
-  <si>
-    <t>Fc epsilon RI signaling pathway</t>
-  </si>
-  <si>
-    <t>ECM-receptor interaction</t>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t>RIG-I-like receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>Apoptosis - multiple species</t>
+  </si>
+  <si>
+    <t>Platinum drug resistance</t>
+  </si>
+  <si>
+    <t>Cytosolic DNA-sensing pathway</t>
+  </si>
+  <si>
+    <t>MAPK signaling pathway</t>
   </si>
   <si>
     <t>Viral carcinogenesis</t>
   </si>
   <si>
-    <t>Colorectal cancer</t>
-  </si>
-  <si>
-    <t>Prion diseases</t>
-  </si>
-  <si>
-    <t>Human papillomavirus infection</t>
-  </si>
-  <si>
-    <t>RIG-I-like receptor signaling pathway</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>Primary immunodeficiency</t>
+    <t>Ferroptosis</t>
+  </si>
+  <si>
+    <t>EGFR tyrosine kinase inhibitor resistance</t>
+  </si>
+  <si>
+    <t>Breast cancer</t>
+  </si>
+  <si>
+    <t>Rap1 signaling pathway</t>
   </si>
   <si>
     <t>Platelet activation</t>
   </si>
   <si>
-    <t>40/419</t>
-  </si>
-  <si>
-    <t>32/419</t>
-  </si>
-  <si>
-    <t>23/419</t>
-  </si>
-  <si>
-    <t>20/419</t>
-  </si>
-  <si>
-    <t>22/419</t>
-  </si>
-  <si>
-    <t>35/419</t>
-  </si>
-  <si>
-    <t>31/419</t>
-  </si>
-  <si>
-    <t>21/419</t>
-  </si>
-  <si>
-    <t>29/419</t>
-  </si>
-  <si>
-    <t>38/419</t>
-  </si>
-  <si>
-    <t>17/419</t>
-  </si>
-  <si>
-    <t>18/419</t>
-  </si>
-  <si>
-    <t>19/419</t>
-  </si>
-  <si>
-    <t>16/419</t>
-  </si>
-  <si>
-    <t>36/419</t>
-  </si>
-  <si>
-    <t>26/419</t>
-  </si>
-  <si>
-    <t>14/419</t>
-  </si>
-  <si>
-    <t>27/419</t>
-  </si>
-  <si>
-    <t>25/419</t>
-  </si>
-  <si>
-    <t>11/419</t>
-  </si>
-  <si>
-    <t>15/419</t>
-  </si>
-  <si>
-    <t>9/419</t>
-  </si>
-  <si>
-    <t>10/419</t>
-  </si>
-  <si>
-    <t>6/419</t>
-  </si>
-  <si>
-    <t>5/419</t>
-  </si>
-  <si>
-    <t>13/419</t>
-  </si>
-  <si>
-    <t>182/8092</t>
-  </si>
-  <si>
-    <t>128/8092</t>
-  </si>
-  <si>
-    <t>67/8092</t>
-  </si>
-  <si>
-    <t>52/8092</t>
-  </si>
-  <si>
-    <t>87/8092</t>
-  </si>
-  <si>
-    <t>215/8092</t>
-  </si>
-  <si>
-    <t>178/8092</t>
-  </si>
-  <si>
-    <t>95/8092</t>
-  </si>
-  <si>
-    <t>91/8092</t>
-  </si>
-  <si>
-    <t>168/8092</t>
-  </si>
-  <si>
-    <t>271/8092</t>
-  </si>
-  <si>
-    <t>65/8092</t>
-  </si>
-  <si>
-    <t>75/8092</t>
-  </si>
-  <si>
-    <t>101/8092</t>
-  </si>
-  <si>
-    <t>70/8092</t>
-  </si>
-  <si>
-    <t>217/8092</t>
-  </si>
-  <si>
-    <t>88/8092</t>
-  </si>
-  <si>
-    <t>64/8092</t>
-  </si>
-  <si>
-    <t>282/8092</t>
-  </si>
-  <si>
-    <t>169/8092</t>
-  </si>
-  <si>
-    <t>59/8092</t>
-  </si>
-  <si>
-    <t>79/8092</t>
-  </si>
-  <si>
-    <t>83/8092</t>
-  </si>
-  <si>
-    <t>104/8092</t>
-  </si>
-  <si>
-    <t>136/8092</t>
-  </si>
-  <si>
-    <t>206/8092</t>
-  </si>
-  <si>
-    <t>183/8092</t>
-  </si>
-  <si>
-    <t>108/8092</t>
-  </si>
-  <si>
-    <t>72/8092</t>
-  </si>
-  <si>
-    <t>102/8092</t>
-  </si>
-  <si>
-    <t>159/8092</t>
-  </si>
-  <si>
-    <t>49/8092</t>
-  </si>
-  <si>
-    <t>99/8092</t>
-  </si>
-  <si>
-    <t>346/8092</t>
-  </si>
-  <si>
-    <t>100/8092</t>
-  </si>
-  <si>
-    <t>124/8092</t>
-  </si>
-  <si>
-    <t>118/8092</t>
-  </si>
-  <si>
-    <t>220/8092</t>
-  </si>
-  <si>
-    <t>115/8092</t>
-  </si>
-  <si>
-    <t>43/8092</t>
-  </si>
-  <si>
-    <t>105/8092</t>
-  </si>
-  <si>
-    <t>142/8092</t>
-  </si>
-  <si>
-    <t>186/8092</t>
-  </si>
-  <si>
-    <t>58/8092</t>
-  </si>
-  <si>
-    <t>69/8092</t>
-  </si>
-  <si>
-    <t>143/8092</t>
-  </si>
-  <si>
-    <t>195/8092</t>
-  </si>
-  <si>
-    <t>78/8092</t>
-  </si>
-  <si>
-    <t>68/8092</t>
-  </si>
-  <si>
-    <t>231/8092</t>
-  </si>
-  <si>
-    <t>74/8092</t>
-  </si>
-  <si>
-    <t>34/8092</t>
-  </si>
-  <si>
-    <t>350/8092</t>
-  </si>
-  <si>
-    <t>25/8092</t>
-  </si>
-  <si>
-    <t>36/8092</t>
-  </si>
-  <si>
-    <t>16414/16402/13057/13058/14129/17969/13039/16419/21826/12266/20288/17970/14130/24088/21827/16409/15015/21354/15000/13040/21898/21825/15002/12475/21899/15042/50909/14131/15018/14972/15040/17972/667977/15019/14964/14961/56644/15024/14999/15013</t>
-  </si>
-  <si>
-    <t>20375/16391/21803/16822/14282/13057/21812/14129/17969/15979/18035/14281/20963/21943/83433/12978/16177/20846/17970/14130/16175/14284/21682/21937/22177/12229/234779/16477/12702/14131/17060/17972</t>
-  </si>
-  <si>
-    <t>16414/21803/15170/13057/13058/14129/17969/15979/18035/14281/12266/20846/17970/16175/24088/16409/15000/21898/15002/14131/17972/14961/14999</t>
-  </si>
-  <si>
-    <t>16414/14129/12266/14130/16409/12259/12262/12260/15894/15000/50908/12267/15002/12273/50909/19204/14131/12268/14961/14999</t>
-  </si>
-  <si>
-    <t>16414/12062/18792/12759/19128/12258/12266/19124/14066/232345/16409/16411/12259/12262/12260/18787/50908/12267/18793/12273/50909/12268</t>
-  </si>
-  <si>
-    <t>16391/15979/18626/18035/14281/12266/16149/14102/54123/20846/20684/71586/24088/23961/21937/15957/15015/21354/15000/230073/15002/81897/246730/12702/15042/15018/14972/15040/667977/15019/14964/14961/15024/14999/15013</t>
-  </si>
-  <si>
-    <t>16414/21803/13033/14129/16985/15979/20963/12266/16149/20846/14130/16175/24088/21937/16409/16411/16154/15000/13040/21898/15002/21897/81897/12475/21899/12608/14127/14131/14961/56644/14999</t>
-  </si>
-  <si>
-    <t>16402/16197/12489/12505/14129/12490/12978/16177/16175/16194/12986/12527/12483/16190/16409/12493/15000/15002/12475/16188/14961/14999</t>
-  </si>
-  <si>
-    <t>13039/13030/16149/65972/15015/21354/15000/13040/15002/15042/15018/12010/14972/15040/667977/15019/14964/14961/15024/14999/15013</t>
-  </si>
-  <si>
-    <t>16391/13057/13058/21929/18035/13030/18753/69146/22051/54123/12364/12362/20846/55932/14469/23961/11796/216799/383619/56338/21898/18796/229900/246730/17951/15951/226691/17948/229898</t>
-  </si>
-  <si>
-    <t>18053/16161/20302/21803/16172/16197/21812/17295/66102/20305/20308/15979/21943/18414/12978/14102/16177/16175/16194/21949/21938/12986/15234/17000/21937/60504/16190/16154/16878/15945/56708/13019/12767/13051/13607/16188/12983/12984</t>
-  </si>
-  <si>
-    <t>12524/14102/16175/15015/15000/15002/15042/15018/14972/15040/667977/15019/14964/14961/15024/14999/15013</t>
-  </si>
-  <si>
-    <t>16414/16402/14281/12258/12266/12362/16175/16409/216799/12259/12262/12260/50908/21898/15900/12475/50909/12268</t>
-  </si>
-  <si>
-    <t>20302/21803/21812/15979/18035/12062/14281/12266/14102/24088/21937/17127/14676/12259/12262/12260/18787/21898/18796/81897/21899</t>
-  </si>
-  <si>
-    <t>16391/15162/15979/30955/18035/14281/20963/17869/12524/12575/12266/14102/54123/20846/21937/234779/15015/14173/15894/14710/17096/22695/15042/15018/14972/15040/12443/667977/15019/14964/15024/15013</t>
-  </si>
-  <si>
-    <t>16414/12524/19354/15015/15894/15000/15002/15042/15018/14972/15040/12443/667977/15019/14964/14961/15024/14999/15013</t>
-  </si>
-  <si>
-    <t>12524/14102/15015/15000/15002/15042/15018/14972/15040/667977/15019/14964/14961/15024/14999/15013</t>
-  </si>
-  <si>
-    <t>22415/16414/20375/21803/21812/18035/14281/17869/12575/16177/11910/60599/12580/17000/21937/17127/15015/15894/15000/13654/13653/15002/12257/22695/15042/15018/14972/15040/12443/667977/15019/14964/14961/15024/14999/15013</t>
-  </si>
-  <si>
-    <t>217069/16391/15979/58185/18035/17858/14102/54123/12362/20846/71586/16175/23961/21937/216799/15945/15894/15000/21898/230073/15002/170743/246730/12702/14961/14999</t>
-  </si>
-  <si>
-    <t>16414/50723/12490/20971/12524/320910/18566/19264/20612/12483/16409/15015/15894/15000/15002/15042/15018/14972/15040/667977/15019/14964/14961/15024/14999/15013</t>
-  </si>
-  <si>
-    <t>16161/21803/15979/20846/16175/24088/60504/16190/17127/15000/21898/15002/14961/14999</t>
-  </si>
-  <si>
-    <t>16414/20302/21803/14281/13039/21943/11600/12524/16175/24088/15894/15000/21898/15002/14961/14999</t>
-  </si>
-  <si>
-    <t>217069/21929/18035/20963/18792/21943/16177/17000/21937/12229/11796/234779/15894/21898/230073/17096/12475/17060</t>
-  </si>
-  <si>
-    <t>170770/16391/21929/15979/18035/17858/14102/54123/20846/14130/71586/16175/24088/23961/21898/230073/170743/81897/246730/13448/12443</t>
-  </si>
-  <si>
-    <t>22415/16402/21803/15170/12505/17295/20971/13039/18792/17869/16419/15163/12575/15200/14102/74055/12512/24088/15234/234779/14173/21898/21825/18793/22350/68794/12443</t>
-  </si>
-  <si>
-    <t>18053/15395/20375/17295/14129/14247/18792/17869/12524/12394/12575/12978/15242/12580/56312/16409/15446/11796/17095/12606/80859/15405/12475/12608/235320</t>
-  </si>
-  <si>
-    <t>21803/15979/30955/18035/11689/20846/16782/24088/21937/11796/16154/15000/21898/15002/15944/14961/16145/14999</t>
-  </si>
-  <si>
-    <t>15170/18035/14281/20963/83490/16331/14130/12483/12229/19354/22324/234779/17096/17060</t>
-  </si>
-  <si>
-    <t>16161/21803/21812/15979/18035/14281/12394/16177/20846/16194/60504/16190/17127/15000/15002/14961/14999</t>
-  </si>
-  <si>
-    <t>16161/16391/16197/15170/15979/14580/18414/17869/12575/20846/16194/12986/60504/16190/16154/16878/13019/12702/16188/12443/12983/12984</t>
-  </si>
-  <si>
-    <t>16414/21803/17295/21826/24088/21827/15234/15894/21898/21825/81897</t>
-  </si>
-  <si>
-    <t>15162/14129/17969/94176/20963/18753/16331/19264/14130/11867/22376/19354/22324/234779/17096</t>
-  </si>
-  <si>
-    <t>20302/18035/14281/12524/54123/20846/24088/20750/27056/15945/21898/170743/21897/81897/12475/21899</t>
-  </si>
-  <si>
-    <t>18053/16402/16197/17295/20393/74747/30955/20963/18414/11600/17869/16419/15370/12575/21826/12978/83490/320910/170755/16782/16194/24088/21827/12986/15234/20750/16190/13685/12669/65086/14173/14710/21898/21825/16188/12443</t>
-  </si>
-  <si>
-    <t>21803/21812/13058/13614/18753/74055/20846/16175/14066/17127/234779/15894/18787/13653/18796/12443</t>
-  </si>
-  <si>
-    <t>27419/13423/13034/17159/13033/50917/64138/12514/13039/15212/13030/12512/110006/18173/16792/13032/13036/13040</t>
-  </si>
-  <si>
-    <t>16414/16822/15170/12506/15979/20963/14102/22177/19354/22324/234779/15894/14127/19229/14972/15040/14964</t>
-  </si>
-  <si>
-    <t>21929/18035/14281/13614/14102/21938/21937/11796/16878/15945/15894/16477/12702/12051/12608/15953</t>
-  </si>
-  <si>
-    <t>20375/15507/12505/21929/18035/20963/17869/12575/22352/14191/16154/234779/15015/15894/230073/17096/15042/15018/14972/15040/667977/15019/14964/15024/15013</t>
-  </si>
-  <si>
-    <t>170770/13033/64138/18035/14281/13039/13030/58801/14102/12364/21937/13032/11796/13036/13040/16188/12983/12984</t>
-  </si>
-  <si>
-    <t>16414/13057/13058/17969/223864/17970/74734/16409/19354/22324/234779/15894/12767/22350/19229/17972</t>
-  </si>
-  <si>
-    <t>50723/21803/12524/17000/15000/15002/12767/14961/14999</t>
-  </si>
-  <si>
-    <t>15277/21857/15368/13058/15979/13614/11600/12575/212032/16194/17000/13685/234779/18787/21898</t>
-  </si>
-  <si>
-    <t>18104/15368/13057/56615/63873/17969/20971/14281/13614/13039/19252/16177/17970/16175/21937/19354/15894/14867</t>
-  </si>
-  <si>
-    <t>21803/21812/63873/17869/12575/16175/13685/17127/15015/18787/12193/15042/15018/14972/15040/12443/667977/15019/14964/15024/15013</t>
-  </si>
-  <si>
-    <t>16414/18035/12266/12362/24088/16409/21898/12475/17951/17948</t>
-  </si>
-  <si>
-    <t>20375/14129/17869/12394/12978/16409/13685/12606/12475/235320/12443</t>
-  </si>
-  <si>
-    <t>21803/21812/18035/14281/17869/12575/14102/54123/12364/20846/71586/24088/13654/21898/230073/19229/12443</t>
-  </si>
-  <si>
-    <t>20302/15162/17969/66102/20305/20308/94176/18035/18753/20846/14191/22376/19354/22324/15945/14710/18796/17096/12767/13051/19229</t>
-  </si>
-  <si>
-    <t>20302/15979/14281/12362/16175/11867/22376/21898/232943/12475/68794</t>
-  </si>
-  <si>
-    <t>16822/20963/11689/16331/12229/19354/22324/234779/17096/14127</t>
-  </si>
-  <si>
-    <t>16402/12505/20971/16419/21826/320910/16782/21827/20750/21825/114249</t>
-  </si>
-  <si>
-    <t>16391/18035/20963/12575/12266/58801/54123/20684/17000/15015/13654/17096/15042/15018/14972/15040/12443/667977/15019/14964/15024/15013</t>
-  </si>
-  <si>
-    <t>170770/21803/21812/14281/17869/12575/58801/17127/19354/12443</t>
-  </si>
-  <si>
-    <t>12364/16175/12259/12262/12260/13653</t>
-  </si>
-  <si>
-    <t>22415/16402/16391/16419/12575/17858/21826/14102/320910/20846/16782/21827/20750/23962/21937/13685/100038882/15015/21825/15042/15018/14972/15040/12443/667977/15019/14964/15024/15013</t>
-  </si>
-  <si>
-    <t>217069/80861/18035/54123/71586/67664/15945/100038882/230073</t>
-  </si>
-  <si>
-    <t>15000/15002/14127/14961/14999</t>
-  </si>
-  <si>
-    <t>16197/11486/19264/12229/21354/17060</t>
-  </si>
-  <si>
-    <t>16822/30955/20963/107589/108101/54519/21391/12229/234779/18796/17096/22320/14127</t>
+    <t>46/874</t>
+  </si>
+  <si>
+    <t>49/874</t>
+  </si>
+  <si>
+    <t>28/874</t>
+  </si>
+  <si>
+    <t>51/874</t>
+  </si>
+  <si>
+    <t>38/874</t>
+  </si>
+  <si>
+    <t>54/874</t>
+  </si>
+  <si>
+    <t>47/874</t>
+  </si>
+  <si>
+    <t>22/874</t>
+  </si>
+  <si>
+    <t>33/874</t>
+  </si>
+  <si>
+    <t>27/874</t>
+  </si>
+  <si>
+    <t>63/874</t>
+  </si>
+  <si>
+    <t>32/874</t>
+  </si>
+  <si>
+    <t>50/874</t>
+  </si>
+  <si>
+    <t>37/874</t>
+  </si>
+  <si>
+    <t>30/874</t>
+  </si>
+  <si>
+    <t>31/874</t>
+  </si>
+  <si>
+    <t>21/874</t>
+  </si>
+  <si>
+    <t>41/874</t>
+  </si>
+  <si>
+    <t>48/874</t>
+  </si>
+  <si>
+    <t>35/874</t>
+  </si>
+  <si>
+    <t>42/874</t>
+  </si>
+  <si>
+    <t>55/874</t>
+  </si>
+  <si>
+    <t>39/874</t>
+  </si>
+  <si>
+    <t>25/874</t>
+  </si>
+  <si>
+    <t>36/874</t>
+  </si>
+  <si>
+    <t>17/874</t>
+  </si>
+  <si>
+    <t>26/874</t>
+  </si>
+  <si>
+    <t>23/874</t>
+  </si>
+  <si>
+    <t>69/874</t>
+  </si>
+  <si>
+    <t>20/874</t>
+  </si>
+  <si>
+    <t>19/874</t>
+  </si>
+  <si>
+    <t>18/874</t>
+  </si>
+  <si>
+    <t>24/874</t>
+  </si>
+  <si>
+    <t>58/874</t>
+  </si>
+  <si>
+    <t>12/874</t>
+  </si>
+  <si>
+    <t>8/874</t>
+  </si>
+  <si>
+    <t>9/874</t>
+  </si>
+  <si>
+    <t>14/874</t>
+  </si>
+  <si>
+    <t>11/874</t>
+  </si>
+  <si>
+    <t>15/874</t>
+  </si>
+  <si>
+    <t>16/874</t>
+  </si>
+  <si>
+    <t>40/874</t>
+  </si>
+  <si>
+    <t>10/874</t>
+  </si>
+  <si>
+    <t>34/874</t>
+  </si>
+  <si>
+    <t>128/8116</t>
+  </si>
+  <si>
+    <t>168/8116</t>
+  </si>
+  <si>
+    <t>67/8116</t>
+  </si>
+  <si>
+    <t>182/8116</t>
+  </si>
+  <si>
+    <t>124/8116</t>
+  </si>
+  <si>
+    <t>215/8116</t>
+  </si>
+  <si>
+    <t>178/8116</t>
+  </si>
+  <si>
+    <t>52/8116</t>
+  </si>
+  <si>
+    <t>104/8116</t>
+  </si>
+  <si>
+    <t>75/8116</t>
+  </si>
+  <si>
+    <t>183/8116</t>
+  </si>
+  <si>
+    <t>282/8116</t>
+  </si>
+  <si>
+    <t>101/8116</t>
+  </si>
+  <si>
+    <t>206/8116</t>
+  </si>
+  <si>
+    <t>136/8116</t>
+  </si>
+  <si>
+    <t>100/8116</t>
+  </si>
+  <si>
+    <t>91/8116</t>
+  </si>
+  <si>
+    <t>108/8116</t>
+  </si>
+  <si>
+    <t>59/8116</t>
+  </si>
+  <si>
+    <t>169/8116</t>
+  </si>
+  <si>
+    <t>95/8116</t>
+  </si>
+  <si>
+    <t>217/8116</t>
+  </si>
+  <si>
+    <t>142/8116</t>
+  </si>
+  <si>
+    <t>186/8116</t>
+  </si>
+  <si>
+    <t>271/8116</t>
+  </si>
+  <si>
+    <t>87/8116</t>
+  </si>
+  <si>
+    <t>154/8116</t>
+  </si>
+  <si>
+    <t>49/8116</t>
+  </si>
+  <si>
+    <t>165/8116</t>
+  </si>
+  <si>
+    <t>99/8116</t>
+  </si>
+  <si>
+    <t>83/8116</t>
+  </si>
+  <si>
+    <t>350/8116</t>
+  </si>
+  <si>
+    <t>115/8116</t>
+  </si>
+  <si>
+    <t>394/8116</t>
+  </si>
+  <si>
+    <t>70/8116</t>
+  </si>
+  <si>
+    <t>65/8116</t>
+  </si>
+  <si>
+    <t>88/8116</t>
+  </si>
+  <si>
+    <t>143/8116</t>
+  </si>
+  <si>
+    <t>74/8116</t>
+  </si>
+  <si>
+    <t>58/8116</t>
+  </si>
+  <si>
+    <t>64/8116</t>
+  </si>
+  <si>
+    <t>72/8116</t>
+  </si>
+  <si>
+    <t>102/8116</t>
+  </si>
+  <si>
+    <t>69/8116</t>
+  </si>
+  <si>
+    <t>220/8116</t>
+  </si>
+  <si>
+    <t>78/8116</t>
+  </si>
+  <si>
+    <t>170/8116</t>
+  </si>
+  <si>
+    <t>199/8116</t>
+  </si>
+  <si>
+    <t>92/8116</t>
+  </si>
+  <si>
+    <t>355/8116</t>
+  </si>
+  <si>
+    <t>41/8116</t>
+  </si>
+  <si>
+    <t>21/8116</t>
+  </si>
+  <si>
+    <t>26/8116</t>
+  </si>
+  <si>
+    <t>85/8116</t>
+  </si>
+  <si>
+    <t>79/8116</t>
+  </si>
+  <si>
+    <t>106/8116</t>
+  </si>
+  <si>
+    <t>214/8116</t>
+  </si>
+  <si>
+    <t>61/8116</t>
+  </si>
+  <si>
+    <t>43/8116</t>
+  </si>
+  <si>
+    <t>68/8116</t>
+  </si>
+  <si>
+    <t>32/8116</t>
+  </si>
+  <si>
+    <t>76/8116</t>
+  </si>
+  <si>
+    <t>252/8116</t>
+  </si>
+  <si>
+    <t>231/8116</t>
+  </si>
+  <si>
+    <t>80/8116</t>
+  </si>
+  <si>
+    <t>151/8116</t>
+  </si>
+  <si>
+    <t>213/8116</t>
+  </si>
+  <si>
+    <t>20375/16391/21803/16822/19698/14282/14389/13057/21812/12977/14129/17969/15979/53859/18035/14281/20963/21943/83433/12978/14283/19697/18034/16177/20846/21934/17970/14130/16175/14284/21682/21937/22177/12229/21813/18018/234779/19261/21808/16476/16477/12702/14131/17060/16478/17972</t>
+  </si>
+  <si>
+    <t>16391/13057/12048/13058/21929/18035/19766/59079/13030/18753/69146/22051/72512/19697/18797/54123/12364/12362/12370/20846/59125/55932/14469/23961/16439/66824/11796/270151/17874/216799/69538/383619/56338/21898/18796/229900/192656/239319/56489/106759/16476/246730/12043/266632/17951/15951/226691/17948/229898</t>
+  </si>
+  <si>
+    <t>16414/21803/15170/13057/13058/14129/17969/15979/18035/14281/12266/19697/20846/17970/16175/24088/16409/17874/15000/21898/21808/15002/16476/14131/266632/17972/14961/14999</t>
+  </si>
+  <si>
+    <t>16414/16402/67951/27060/13057/13058/11974/14129/17969/14991/16784/19345/13039/16419/21826/12266/21355/20288/17970/14130/17533/16410/24088/21827/16409/15015/21354/15000/13040/21898/66290/21825/15002/12475/21899/15042/50909/15039/14131/15018/14972/15040/17972/667977/15019/14964/14961/56644/15024/14999/15013</t>
+  </si>
+  <si>
+    <t>14667/27060/27419/13423/19156/13034/17159/13033/15586/50917/64138/16784/19025/12514/17775/19141/67963/13039/15212/13030/17939/15211/12512/110006/18173/229445/16792/71665/12492/58911/13032/12752/11886/192654/13036/75612/13040/11881</t>
+  </si>
+  <si>
+    <t>16391/19046/14991/15979/18626/18035/20384/14281/19106/12266/21355/16149/14102/19697/54123/12370/20846/20684/71586/24088/23961/21937/142980/17874/15957/15015/18854/21354/15000/230073/15002/68077/56489/19247/81897/106759/407786/16476/246730/12702/15042/66656/15039/15018/14972/19294/15040/667977/15019/14964/14961/15024/14999/15013</t>
+  </si>
+  <si>
+    <t>16414/27060/21803/13033/14129/16784/16985/19345/15979/20963/16155/12266/16149/19697/12370/20846/14130/17533/16175/24088/12042/21937/16409/16411/16154/75600/17874/15000/13040/21898/21808/192656/15002/21897/81897/12475/21899/12608/12043/14127/14131/266632/108960/20698/14961/56644/14999</t>
+  </si>
+  <si>
+    <t>16414/14129/12266/12628/14130/16409/12259/12262/12260/15894/15000/50908/12267/15002/20345/12273/50909/19204/14131/12268/14961/14999</t>
+  </si>
+  <si>
+    <t>217069/19698/12048/17873/21929/53859/18035/19766/20963/18792/21943/19697/18034/12633/16177/21934/22329/12042/17000/21937/12229/11796/17874/234779/15894/21898/230073/17096/106759/12475/12043/266632/17060</t>
+  </si>
+  <si>
+    <t>16414/16402/16362/14281/12258/12266/19697/12362/16175/16409/66824/75600/17874/14678/216799/12259/12262/12260/50908/21898/15900/106759/12475/16476/50909/266632/12268</t>
+  </si>
+  <si>
+    <t>18053/15395/20375/18505/12048/17295/17873/14129/14247/15081/67603/19696/15902/23882/18792/17869/12524/12394/11908/12575/12978/19697/15242/13198/18124/12580/17355/14011/56312/16409/18791/15446/17125/11796/21813/17095/140780/12606/80859/13197/18854/15405/12393/56458/12475/12608/235320</t>
+  </si>
+  <si>
+    <t>22415/16414/20375/21803/19698/107995/18973/21812/12048/14991/30939/53859/18035/14281/17702/19645/17869/22422/11908/12575/14283/19697/18034/16177/11910/22329/60599/12580/20525/18595/22419/17000/21937/17127/21813/18018/15015/15894/15000/13654/20130/13653/21808/14369/15002/12257/14362/22695/16476/15042/15039/15018/14972/15040/12443/667977/15019/14964/14961/12579/15024/14999/15013</t>
+  </si>
+  <si>
+    <t>20302/21803/21812/15979/18035/12062/14281/12266/14102/19697/18797/12370/12633/24088/21937/17127/21813/17874/14678/14676/12259/12262/12260/18787/21898/21808/18796/81897/106759/21899/16476/266632</t>
+  </si>
+  <si>
+    <t>12390/22415/16402/21803/20848/15170/12505/83383/17295/19046/20971/21859/13649/20969/13039/18792/15529/17869/22422/16419/15163/12575/15200/14102/74055/12512/14268/16410/24088/15234/19303/22419/16439/17698/192176/234779/14173/20130/21898/21808/21825/14369/19247/14362/18793/22350/75705/13866/68794/12443</t>
+  </si>
+  <si>
+    <t>170770/12048/13033/17873/64138/53859/18035/14281/19766/23882/13039/13030/235587/58801/14102/19697/13198/12364/12370/12633/12334/12125/229445/16905/16439/21937/13032/11796/13036/13197/17210/13040/16476/12043/16188/12983/12984</t>
+  </si>
+  <si>
+    <t>21803/20848/21812/18799/13058/13614/18753/18712/19697/18797/74055/20846/14268/16175/22329/14066/50490/17127/21813/18018/234779/15894/18787/13653/21808/18796/56458/16476/12043/12443</t>
+  </si>
+  <si>
+    <t>14991/19141/13039/13030/19186/21356/21355/16149/65972/15015/21354/15000/13040/15002/15042/15039/15512/15018/12010/14972/15040/667977/15019/14964/14961/15024/14999/15013</t>
+  </si>
+  <si>
+    <t>21803/20848/12048/16773/15979/30955/18035/16155/19697/11689/12370/20846/16782/24088/21937/11796/16154/17874/14678/15000/21898/21808/15002/15944/16779/12043/266632/15512/14961/16145/14999</t>
+  </si>
+  <si>
+    <t>16161/20852/21803/20848/15979/19697/20846/16175/24088/19885/60504/16190/17127/18018/15000/21898/21808/15002/16476/14961/14999</t>
+  </si>
+  <si>
+    <t>16414/50723/69524/14991/12490/60533/20971/20969/13003/15529/12737/58998/12524/320910/18566/19264/16410/20612/22329/12483/16409/15015/15894/15000/16456/52118/15002/20345/15042/15039/15018/14972/19294/15040/667977/15019/14964/14961/15024/14999/15013</t>
+  </si>
+  <si>
+    <t>16402/16197/12489/12505/12977/14129/12490/12978/16177/16175/16194/12986/12494/12527/12483/16190/16409/12493/16399/15000/15002/12475/233274/12982/16188/14961/16157/14999</t>
+  </si>
+  <si>
+    <t>16391/15162/20848/14991/15979/30955/18035/14281/20963/19645/17869/12524/12575/19106/12266/14102/19697/54123/12768/12370/20846/16439/21937/142980/75600/18018/234779/15015/14173/15894/14710/12571/17096/56489/22695/106759/16476/15042/15039/15018/14972/15040/12443/667977/15019/14964/15024/15013</t>
+  </si>
+  <si>
+    <t>12390/18104/15368/13057/56615/63873/18024/17969/20971/20969/14281/13614/13039/15529/19252/19697/16177/17970/16410/16175/14865/22329/21937/18791/75600/19354/16399/15894/12167/16476/16598/12043/14862/14867/11898</t>
+  </si>
+  <si>
+    <t>21803/21812/15257/63873/19046/17873/14991/12192/23882/19645/17869/12575/19697/12334/16175/16439/13685/75600/17127/21813/18018/15015/13197/18787/20130/21808/12571/56458/12193/15042/15039/15018/14972/15040/12443/667977/15019/14964/12579/15024/217708/15013</t>
+  </si>
+  <si>
+    <t>18053/16161/20302/21803/16172/16197/21812/17295/57916/12977/16164/66102/20305/20308/15979/13649/57266/21943/18414/16155/27279/12978/14102/12768/16177/21934/16175/16194/13645/21949/21938/12986/15234/18595/17000/21937/60504/16190/16154/21813/16878/15945/21808/56708/13019/12767/13051/12167/12982/13607/16188/12983/12984/16157/21944</t>
+  </si>
+  <si>
+    <t>217069/16391/15979/58185/18035/17858/19106/14102/19697/54123/12362/20846/71586/16175/23961/21937/18550/66824/142980/270151/17874/216799/15945/18854/15894/15000/21898/230073/15002/56489/170743/106759/16476/246730/12702/266632/15512/14961/14999</t>
+  </si>
+  <si>
+    <t>16414/12062/18792/12759/19128/12258/12266/12628/19124/14066/232345/16409/16411/18791/12259/12262/12260/18787/50908/74145/12267/18793/12273/50909/12268</t>
+  </si>
+  <si>
+    <t>22415/16414/170770/21678/21803/68473/21812/18016/56289/19046/14219/15902/16475/17869/22422/21416/209456/97064/22419/17125/17127/21813/241324/18787/21808/14369/15901/232157/14362/14633/12167/22601/21676/21415/12443/20674</t>
+  </si>
+  <si>
+    <t>16414/21803/17295/20969/15529/21826/22329/24088/21827/15234/17874/15894/21898/21808/21825/16971/81897</t>
+  </si>
+  <si>
+    <t>16161/20852/16391/16197/20848/15170/12048/16164/15979/13649/14580/18414/17869/16155/12575/18712/20846/16194/13645/12986/18595/60504/16190/16154/16878/17210/13019/19247/12702/54607/12043/12982/16188/12443/12983/12984/16157</t>
+  </si>
+  <si>
+    <t>20302/18035/14281/19766/12524/26410/19697/54123/12370/20846/24088/20750/27056/142980/17874/15945/21898/56489/170743/21897/81897/106759/12475/21899/16476/266632</t>
+  </si>
+  <si>
+    <t>16414/20302/27060/21803/12977/11974/14281/13039/21943/11600/12524/21934/16175/24088/15894/15000/21898/66290/21808/15002/16476/14961/14999</t>
+  </si>
+  <si>
+    <t>22415/16402/27060/16391/18132/14991/17305/16362/15214/16773/13649/19645/22422/16419/12575/17858/21826/19106/14102/19697/21416/320910/16404/12370/20846/14268/16782/16410/26427/13645/21827/21923/20750/19303/23962/22419/21937/13685/142980/270118/16399/100038882/15015/21825/12571/14369/56489/56458/14362/106759/16779/15042/21415/15039/15018/14972/15040/12443/667977/15019/14964/15024/15013</t>
+  </si>
+  <si>
+    <t>16414/69524/13057/13058/17969/223864/12737/67268/17970/22329/74734/19303/16409/17698/14678/19354/12388/22324/234779/15894/16456/19247/12767/22350/215449/20469/19229/17972</t>
+  </si>
+  <si>
+    <t>22415/20375/21803/20848/21812/12048/17295/56289/16773/13649/14674/18035/12062/14281/19645/17869/22422/12394/12575/12978/14102/19697/18797/21416/18034/12370/20846/14268/16782/16410/13645/54124/20525/12986/15234/18595/22419/11796/13143/17127/21813/14678/19354/67168/234779/16399/12606/65086/18854/14173/14710/21808/18796/12571/14369/56458/14362/12767/14633/16476/16779/14184/21415/12043/12982/13866/235320/12443/12579</t>
+  </si>
+  <si>
+    <t>14991/12524/14102/16175/15015/15000/12876/15002/15042/15039/15018/14972/15040/667977/15019/14964/14961/15024/14999/15013</t>
+  </si>
+  <si>
+    <t>14991/12524/14102/16175/15015/15000/15002/15042/15039/15018/14972/15040/667977/15019/14964/14961/15024/14999/15013</t>
+  </si>
+  <si>
+    <t>170770/16391/20848/21929/15979/14694/18035/17858/19106/14102/19697/54123/20846/14130/71586/16175/24088/23961/17698/17874/21898/12571/230073/56489/170743/81897/246730/266632/15512/13448/12443</t>
+  </si>
+  <si>
+    <t>16414/14991/16773/12524/12370/19354/15015/15894/15000/15002/15042/15039/15018/14972/15040/12443/667977/15019/14964/14961/15024/14999/15013</t>
+  </si>
+  <si>
+    <t>20852/21803/20848/21812/18035/14281/19645/17869/12575/14102/19697/54123/12364/12370/20846/71586/26427/24088/142980/17874/18018/13654/21898/21808/12571/230073/56489/106759/16476/12043/19229/12443</t>
+  </si>
+  <si>
+    <t>12977/21929/53859/18035/14281/13614/19766/26410/14102/19697/12370/12633/26427/22329/21938/21937/11796/16878/15945/15894/16476/16477/12702/12051/12608/15953</t>
+  </si>
+  <si>
+    <t>170770/21803/21812/17873/14281/23882/17869/12575/58801/21416/12125/17127/21813/19354/13197/21808/16476/21415/12043/12443</t>
+  </si>
+  <si>
+    <t>16414/18035/12266/19697/18034/12362/12370/24088/16409/66824/17874/13627/21898/12475/15512/17951/17948</t>
+  </si>
+  <si>
+    <t>21803/20848/21812/12048/17873/13649/23882/19645/12575/19697/20846/13645/17127/21813/19354/13197/21808/12571/13866/12443</t>
+  </si>
+  <si>
+    <t>14991/12524/14102/15015/15000/15002/15042/15039/15018/14972/15040/667977/15019/14964/14961/15024/14999/15013</t>
+  </si>
+  <si>
+    <t>15170/18035/14281/20963/19697/83490/16331/14130/26377/12042/12483/12229/18018/19354/22324/234779/17096/16476/17060</t>
+  </si>
+  <si>
+    <t>16161/20852/21803/20848/21812/15979/18035/14281/12394/19697/16177/20846/16194/19885/60504/16190/17127/21813/18018/15000/15002/16476/14961/14999</t>
+  </si>
+  <si>
+    <t>20375/20848/14129/67603/17869/12394/18712/12978/19697/21416/16409/13685/12606/18854/12475/21415/235320/12443</t>
+  </si>
+  <si>
+    <t>20375/19698/20848/15507/12505/14991/21929/53859/18035/19766/20963/19645/17869/16155/12575/19106/19697/18034/22352/14191/12494/16154/234779/15015/15894/230073/17096/12495/16476/15042/15039/12043/15512/15018/14972/15040/667977/15019/14964/15024/15013</t>
+  </si>
+  <si>
+    <t>21803/14389/21812/12048/17873/18035/23882/19645/17869/12394/12575/19697/17127/21813/13197/21808/12571/19247/12443</t>
+  </si>
+  <si>
+    <t>22415/21803/18104/15368/21812/12048/56615/17295/17873/18024/13649/23882/19645/17869/22422/12575/16973/21416/14865/15234/22419/17127/21813/234779/13197/21808/12571/14369/14362/21415/14862/14867/12443</t>
+  </si>
+  <si>
+    <t>170770/17873/12450/20135/23882/12575/58801/14102/66940/12370/230784/13197/18787/140742/21825/12571/12443</t>
+  </si>
+  <si>
+    <t>12390/16402/17295/19046/16773/13649/64099/16419/107589/21826/67268/320910/16404/14268/16782/12334/16410/13645/21827/21923/15234/18595/20750/19303/192176/11796/19354/22324/16399/21825/215449/16476/16779/12043/13866/68794/12443</t>
+  </si>
+  <si>
+    <t>12048/17873/16773/18035/23882/19645/17869/12575/19697/14268/16782/16410/54124/11796/16399/13197/12571/16779/12043/12443/12579</t>
+  </si>
+  <si>
+    <t>18053/16402/16197/13836/12048/17295/12977/16773/20393/74747/13649/30955/20963/18414/11600/17869/16419/15370/12575/21826/12978/19697/83490/320910/16404/170755/14268/16782/16410/26427/12125/16194/24088/13645/21827/21923/12986/15234/18595/20750/16190/13685/12669/67168/16399/65086/14173/17210/14710/21898/21825/12571/16779/14184/12043/75705/16188/12443</t>
+  </si>
+  <si>
+    <t>15162/14389/14129/17969/94176/20963/18753/16331/19264/14130/242687/11867/22376/19354/13430/22324/234779/17096/20698/17118</t>
+  </si>
+  <si>
+    <t>56289/13649/19645/17869/12575/15200/13645/13143/21825/14184/13866/12443</t>
+  </si>
+  <si>
+    <t>27419/15586/50917/15212/15211/110006/75612/11881</t>
+  </si>
+  <si>
+    <t>16402/12505/20971/16773/20969/16419/21826/320910/16404/14268/16782/16410/21827/21923/20750/16399/21825/114249/16779</t>
+  </si>
+  <si>
+    <t>21678/68473/18016/56289/16475/97064/232157/22601/21676</t>
+  </si>
+  <si>
+    <t>15170/21812/17295/13649/58998/21416/20411/19271/242687/22376/17127/21813/19354/12388/21415/19294/13866</t>
+  </si>
+  <si>
+    <t>268977/21803/21812/15903/15902/15904/17869/68010/17125/17127/21813/17130/21808/21825/17965/15901/21815/12167/12579</t>
+  </si>
+  <si>
+    <t>15277/21857/20848/15368/13058/15979/13649/13614/11600/12575/19697/212032/16194/13645/20525/17000/13685/234779/18787/21898/12043/13866</t>
+  </si>
+  <si>
+    <t>20302/15979/14281/19697/12362/16175/242687/11867/66824/22376/192176/17874/21898/232943/12475/16476/68794</t>
+  </si>
+  <si>
+    <t>16414/16402/19046/13649/14674/12062/544963/56419/105855/16419/107589/67268/320910/16404/14268/16410/13645/242687/18595/19303/11867/16409/16411/22376/17698/12669/19354/22324/54004/16399/14173/20130/19241/12475/22350/14184</t>
+  </si>
+  <si>
+    <t>23887/14598/56615/14778/20135/69590/75475/14865/76263/54486/269951/14862/14775/14867</t>
+  </si>
+  <si>
+    <t>50723/21803/57916/53859/12524/17000/15000/15002/12767/14961/14999</t>
+  </si>
+  <si>
+    <t>15277/109754/14584/15212/15211/72157/212032/227620/66681/19703/74091/320635</t>
+  </si>
+  <si>
+    <t>217069/80861/18035/19766/72512/19697/54123/12370/71586/270151/67664/15945/100038882/230073/56489</t>
+  </si>
+  <si>
+    <t>18053/170770/12048/58801/12370/12125/21937/11796/12043</t>
+  </si>
+  <si>
+    <t>170770/13870/11979/12048/56615/12575/58801/14102/12370/14865/22590/11796/12043/14862/13866/14867</t>
+  </si>
+  <si>
+    <t>18035/19766/72512/19697/54123/12362/26388/58203/66824/214763/15945/383619/230073/56489</t>
+  </si>
+  <si>
+    <t>21803/19698/15507/21812/17873/67603/13649/53859/14281/23882/17869/15370/19252/26410/14102/19697/18034/13198/16177/16175/13645/53608/18595/21937/192176/21813/18018/19354/240672/13197/14173/20130/21808/12475/215449/16476/14184/15512/68794/16478</t>
+  </si>
+  <si>
+    <t>16391/20848/107995/14991/19696/18035/20963/19645/12575/19106/12266/58801/19697/18034/54123/12370/20684/26427/19303/17000/15015/13654/12571/17096/16476/15042/15039/15018/14972/15040/12443/667977/15019/14964/12579/15024/15013</t>
+  </si>
+  <si>
+    <t>12870/14792/15368/17254/13058/213053/14319/20229/14325/69215</t>
+  </si>
+  <si>
+    <t>26362/20848/12048/17295/13649/12125/16194/13645/15234/18595/13685/234779/14173/14184/12043/13866</t>
+  </si>
+  <si>
+    <t>22415/17873/18132/15214/13649/14281/23882/21943/19645/17869/22422/12575/16973/21416/18034/13645/22419/13197/14173/12571/14369/14362/16476/21415/13866/12443</t>
+  </si>
+  <si>
+    <t>18053/16414/18760/16822/13836/17295/12977/11541/13649/23880/11600/223864/12978/18797/74055/54519/13645/15234/18595/16409/75600/14678/19354/12388/16399/65086/14173/20130/18796/21825/15901/215449/14184/20469</t>
+  </si>
+  <si>
+    <t>16822/19046/30955/14674/20963/107589/67268/18797/108101/54519/21391/16439/12229/14678/234779/16399/18796/17096/19224/22320/215449/14127</t>
   </si>
   <si>
     <t>mmu00100</t>
   </si>
   <si>
+    <t>mmu04724</t>
+  </si>
+  <si>
+    <t>mmu04713</t>
+  </si>
+  <si>
+    <t>mmu04080</t>
+  </si>
+  <si>
+    <t>mmu04020</t>
+  </si>
+  <si>
+    <t>mmu05033</t>
+  </si>
+  <si>
+    <t>mmu04725</t>
+  </si>
+  <si>
+    <t>mmu04728</t>
+  </si>
+  <si>
+    <t>mmu04024</t>
+  </si>
+  <si>
     <t>mmu00900</t>
   </si>
   <si>
+    <t>mmu04926</t>
+  </si>
+  <si>
+    <t>mmu04014</t>
+  </si>
+  <si>
+    <t>mmu04540</t>
+  </si>
+  <si>
+    <t>mmu04723</t>
+  </si>
+  <si>
+    <t>mmu04261</t>
+  </si>
+  <si>
+    <t>mmu04915</t>
+  </si>
+  <si>
+    <t>mmu04727</t>
+  </si>
+  <si>
+    <t>mmu04072</t>
+  </si>
+  <si>
+    <t>mmu05014</t>
+  </si>
+  <si>
+    <t>mmu04921</t>
+  </si>
+  <si>
+    <t>mmu05414</t>
+  </si>
+  <si>
+    <t>mmu04360</t>
+  </si>
+  <si>
+    <t>mmu01522</t>
+  </si>
+  <si>
+    <t>mmu04012</t>
+  </si>
+  <si>
+    <t>mmu04911</t>
+  </si>
+  <si>
+    <t>mmu04970</t>
+  </si>
+  <si>
+    <t>mmu05032</t>
+  </si>
+  <si>
+    <t>mmu05410</t>
+  </si>
+  <si>
+    <t>mmu04070</t>
+  </si>
+  <si>
+    <t>mmu04925</t>
+  </si>
+  <si>
     <t>Steroid biosynthesis</t>
   </si>
   <si>
+    <t>Glutamatergic synapse</t>
+  </si>
+  <si>
+    <t>Circadian entrainment</t>
+  </si>
+  <si>
+    <t>Neuroactive ligand-receptor interaction</t>
+  </si>
+  <si>
+    <t>Calcium signaling pathway</t>
+  </si>
+  <si>
+    <t>Nicotine addiction</t>
+  </si>
+  <si>
+    <t>Cholinergic synapse</t>
+  </si>
+  <si>
+    <t>Dopaminergic synapse</t>
+  </si>
+  <si>
+    <t>cAMP signaling pathway</t>
+  </si>
+  <si>
     <t>Terpenoid backbone biosynthesis</t>
   </si>
   <si>
-    <t>9/95</t>
-  </si>
-  <si>
-    <t>5/95</t>
-  </si>
-  <si>
-    <t>19/8092</t>
-  </si>
-  <si>
-    <t>23/8092</t>
-  </si>
-  <si>
-    <t>13121/20775/73166/18194/66234/235293/16987/74754/13360</t>
-  </si>
-  <si>
-    <t>192156/15357/319554/110196/208715</t>
+    <t>Relaxin signaling pathway</t>
+  </si>
+  <si>
+    <t>Ras signaling pathway</t>
+  </si>
+  <si>
+    <t>Gap junction</t>
+  </si>
+  <si>
+    <t>Retrograde endocannabinoid signaling</t>
+  </si>
+  <si>
+    <t>Adrenergic signaling in cardiomyocytes</t>
+  </si>
+  <si>
+    <t>Estrogen signaling pathway</t>
+  </si>
+  <si>
+    <t>GABAergic synapse</t>
+  </si>
+  <si>
+    <t>Phospholipase D signaling pathway</t>
+  </si>
+  <si>
+    <t>Amyotrophic lateral sclerosis (ALS)</t>
+  </si>
+  <si>
+    <t>Oxytocin signaling pathway</t>
+  </si>
+  <si>
+    <t>Dilated cardiomyopathy (DCM)</t>
+  </si>
+  <si>
+    <t>Axon guidance</t>
+  </si>
+  <si>
+    <t>Endocrine resistance</t>
+  </si>
+  <si>
+    <t>ErbB signaling pathway</t>
+  </si>
+  <si>
+    <t>Insulin secretion</t>
+  </si>
+  <si>
+    <t>Salivary secretion</t>
+  </si>
+  <si>
+    <t>Morphine addiction</t>
+  </si>
+  <si>
+    <t>Hypertrophic cardiomyopathy (HCM)</t>
+  </si>
+  <si>
+    <t>Phosphatidylinositol signaling system</t>
+  </si>
+  <si>
+    <t>Aldosterone synthesis and secretion</t>
+  </si>
+  <si>
+    <t>12/430</t>
+  </si>
+  <si>
+    <t>22/430</t>
+  </si>
+  <si>
+    <t>20/430</t>
+  </si>
+  <si>
+    <t>37/430</t>
+  </si>
+  <si>
+    <t>28/430</t>
+  </si>
+  <si>
+    <t>11/430</t>
+  </si>
+  <si>
+    <t>19/430</t>
+  </si>
+  <si>
+    <t>21/430</t>
+  </si>
+  <si>
+    <t>26/430</t>
+  </si>
+  <si>
+    <t>8/430</t>
+  </si>
+  <si>
+    <t>29/430</t>
+  </si>
+  <si>
+    <t>15/430</t>
+  </si>
+  <si>
+    <t>14/430</t>
+  </si>
+  <si>
+    <t>10/430</t>
+  </si>
+  <si>
+    <t>13/430</t>
+  </si>
+  <si>
+    <t>33/430</t>
+  </si>
+  <si>
+    <t>19/8116</t>
+  </si>
+  <si>
+    <t>114/8116</t>
+  </si>
+  <si>
+    <t>98/8116</t>
+  </si>
+  <si>
+    <t>285/8116</t>
+  </si>
+  <si>
+    <t>40/8116</t>
+  </si>
+  <si>
+    <t>113/8116</t>
+  </si>
+  <si>
+    <t>134/8116</t>
+  </si>
+  <si>
+    <t>197/8116</t>
+  </si>
+  <si>
+    <t>23/8116</t>
+  </si>
+  <si>
+    <t>131/8116</t>
+  </si>
+  <si>
+    <t>237/8116</t>
+  </si>
+  <si>
+    <t>86/8116</t>
+  </si>
+  <si>
+    <t>150/8116</t>
+  </si>
+  <si>
+    <t>147/8116</t>
+  </si>
+  <si>
+    <t>96/8116</t>
+  </si>
+  <si>
+    <t>153/8116</t>
+  </si>
+  <si>
+    <t>89/8116</t>
+  </si>
+  <si>
+    <t>175/8116</t>
+  </si>
+  <si>
+    <t>93/8116</t>
+  </si>
+  <si>
+    <t>84/8116</t>
+  </si>
+  <si>
+    <t>13121/14137/20775/73166/15490/13595/18194/66234/235293/16987/74754/13360</t>
+  </si>
+  <si>
+    <t>53623/14814/108069/11515/432530/104111/58234/14823/14802/14660/14812/140919/66066/12286/170483/243961/18798/216456/18783/14811/268934/14709</t>
+  </si>
+  <si>
+    <t>53623/14814/11515/432530/104111/12291/20191/239556/14802/18628/19092/14812/66066/70729/18798/234889/16522/20192/14811/14709</t>
+  </si>
+  <si>
+    <t>14654/18390/53623/14814/108069/94045/17203/14401/22355/12921/110902/18440/14652/14823/15566/14802/15562/11550/14658/14812/11441/12426/14608/15558/170483/14745/22045/18168/23796/20607/243764/15551/18386/110886/14811/268934/11609</t>
+  </si>
+  <si>
+    <t>14814/18575/11515/94045/13867/432530/104111/12291/20191/239556/18440/14680/14675/15566/15562/11550/11941/11441/12426/320707/12286/15558/12326/22045/18798/243764/20192/14811</t>
+  </si>
+  <si>
+    <t>53623/14814/14401/14802/14812/140919/11441/12286/170483/110886/14811</t>
+  </si>
+  <si>
+    <t>11515/16536/23797/432530/104111/12647/63993/60613/11441/66066/12286/12326/18798/16515/16522/243764/211480/14709/20508</t>
+  </si>
+  <si>
+    <t>53623/16573/23797/26419/29857/72930/14680/14802/16574/269643/14812/66066/12286/18798/16522/26414/19094/14811/14709/20265/16572</t>
+  </si>
+  <si>
+    <t>13637/11515/23797/432530/104111/16416/14180/29857/22339/54354/14812/14183/14174/14164/14745/18798/217944/217692/14166/14924/56508/99470/70549/19094/14172/14811/16542/109905</t>
+  </si>
+  <si>
+    <t>53623/14814/11515/22355/23797/15166/432530/104111/20191/26419/14652/14802/15562/14812/11941/320707/330953/170483/12326/243764/26414/56508/15551/14811/15245/109905</t>
+  </si>
+  <si>
+    <t>192156/15357/110460/110606/17855/319554/110196/208715</t>
+  </si>
+  <si>
+    <t>12842/11515/17395/23797/216148/432530/104111/20418/26419/29857/22339/20662/17126/12825/66066/26398/18798/26414/19094/14709</t>
+  </si>
+  <si>
+    <t>13637/23797/216148/20418/26419/14180/22339/20662/15566/54354/21802/14812/14183/14174/18481/66066/14164/241656/217944/14255/14166/26414/18783/14172/14811/333050/16542/14709/109905</t>
+  </si>
+  <si>
+    <t>11515/432530/104111/20662/22145/19092/53857/15558/227613/14745/18798/234889/22146/22152/14617</t>
+  </si>
+  <si>
+    <t>53623/68198/11515/14401/432530/104111/26419/29857/66082/14802/140919/70316/66066/12286/18798/116837/16522/26414/19094/110886/14709</t>
+  </si>
+  <si>
+    <t>11515/12300/23797/432530/104111/20191/12294/29857/72930/11550/269643/11941/320707/18798/17888/319734/399548/56508/19094/11609</t>
+  </si>
+  <si>
+    <t>18390/11515/17395/23797/216148/432530/104111/15519/20418/20662/14228/18798/16522/15511/193740</t>
+  </si>
+  <si>
+    <t>11515/14401/57138/432530/104111/70827/14660/209837/66066/12286/16522/216456/110886/14709</t>
+  </si>
+  <si>
+    <t>108069/110524/11515/23797/216148/432530/104111/20418/110197/14823/20662/18719/14745/18798/103967/56508/18783/331374/268934</t>
+  </si>
+  <si>
+    <t>14814/380684/18040/18039/29857/19132/74018/14812/19094/14811</t>
+  </si>
+  <si>
+    <t>11515/28240/12300/432530/104111/20191/12294/207565/12326/108097/227541/18798/319734/234889/16515/16522/18783/20192/211480</t>
+  </si>
+  <si>
+    <t>17868/11515/12300/432530/104111/16416/192897/20191/12294/16401/17888/319734/213119</t>
+  </si>
+  <si>
+    <t>12300/23797/12291/26419/14180/12294/239556/29857/20662/14183/19259/14174/26398/71751/12286/14164/319734/14166/26414/19094/18783/14172/109905/15511/193740/17165</t>
+  </si>
+  <si>
+    <t>20423/13637/107449/13839/16885/243743/259302/18481/140571/18846/20563/270190/171171/241656/13837/13840/20564/80883/13176/20315</t>
+  </si>
+  <si>
+    <t>11515/17395/23797/216148/432530/104111/20418/26419/29857/20662/13555/26414/19094</t>
+  </si>
+  <si>
+    <t>13867/23797/216148/20418/26419/20662/21802/18481/26398/241656/26414/211323</t>
+  </si>
+  <si>
+    <t>84036/11515/432530/104111/20191/14652/20614/16532/18798/20927/56508/26875</t>
+  </si>
+  <si>
+    <t>12842/11515/23797/432530/104111/16416/29857/12825/19092/18798/234889/70549/19094/18783/109905</t>
+  </si>
+  <si>
+    <t>23797/432530/26419/29857/72930/14680/17126/14675/269643/26398/18798/26414/19094</t>
+  </si>
+  <si>
+    <t>11515/432530/104111/11550/19092/11941/320707/12796/18798/234889/20192</t>
+  </si>
+  <si>
+    <t>18390/18575/11515/14401/432530/104111/23984/66066/12286/16522/110886/14709</t>
+  </si>
+  <si>
+    <t>17868/12300/16416/192897/20191/12294/16401/108097/17888/319734/213119</t>
+  </si>
+  <si>
+    <t>110524/110197/114663/18719/83493/240752/64436/74596/327655/18798/227399/331374</t>
+  </si>
+  <si>
+    <t>11515/432530/104111/12291/239556/16835/223604/12326/227541/18798/16527</t>
+  </si>
+  <si>
+    <t>12447/20423/11515/17395/23797/432530/104111/15519/22031/26419/14180/22339/20662/17126/54354/12156/13555/21802/14183/14174/66066/112407/14164/14745/18798/14255/14166/26414/14172/13176/20315/14709/15245</t>
   </si>
 </sst>
 </file>
@@ -953,28 +1571,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F2" t="n">
-        <v>2.1569116418330933E-15</v>
+        <v>2.520613184819395E-14</v>
       </c>
       <c r="G2" t="n">
-        <v>5.672677618021035E-13</v>
+        <v>7.410602763369021E-12</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2003016183065505E-13</v>
+        <v>5.17389022147139E-12</v>
       </c>
       <c r="I2" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="J2" t="n">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="3">
@@ -985,28 +1603,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="F3" t="n">
-        <v>3.366234979952579E-14</v>
+        <v>2.7239702972659924E-11</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4265989986376416E-12</v>
+        <v>4.004236336981009E-9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2776498489011958E-12</v>
+        <v>2.7956537261414128E-9</v>
       </c>
       <c r="I3" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="J3" t="n">
-        <v>32.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="4">
@@ -1017,28 +1635,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="F4" t="n">
-        <v>9.460409712516309E-14</v>
+        <v>4.9793944648829136E-11</v>
       </c>
       <c r="G4" t="n">
-        <v>8.293625847972631E-12</v>
+        <v>4.0050019413597055E-9</v>
       </c>
       <c r="H4" t="n">
-        <v>6.140967708124623E-12</v>
+        <v>2.7961882512178393E-9</v>
       </c>
       <c r="I4" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="J4" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="5">
@@ -1049,28 +1667,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F5" t="n">
-        <v>3.338202352482305E-13</v>
+        <v>5.448982233142457E-11</v>
       </c>
       <c r="G5" t="n">
-        <v>2.1948680467571156E-11</v>
+        <v>4.0050019413597055E-9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6251774610769118E-11</v>
+        <v>2.7961882512178393E-9</v>
       </c>
       <c r="I5" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="J5" t="n">
-        <v>20.0</v>
+        <v>51.0</v>
       </c>
     </row>
     <row r="6">
@@ -1081,28 +1699,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="F6" t="n">
-        <v>2.9898775675256855E-10</v>
+        <v>1.0117053412568692E-9</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5726756005185106E-8</v>
+        <v>5.9488274065903906E-8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.1644786315626356E-8</v>
+        <v>4.153316664107147E-8</v>
       </c>
       <c r="I6" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="J6" t="n">
-        <v>22.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="7">
@@ -1113,28 +1731,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0176269430906038E-9</v>
+        <v>1.2822195025969335E-9</v>
       </c>
       <c r="G7" t="n">
-        <v>4.460598100547147E-8</v>
+        <v>6.282875562724975E-8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.302824288978276E-8</v>
+        <v>4.386540403621088E-8</v>
       </c>
       <c r="I7" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="J7" t="n">
-        <v>35.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,28 +1763,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7747754034312735E-9</v>
+        <v>2.7261458373245106E-9</v>
       </c>
       <c r="G8" t="n">
-        <v>6.04274026321617E-8</v>
+        <v>1.1449812516762945E-7</v>
       </c>
       <c r="H8" t="n">
-        <v>4.474312382209291E-8</v>
+        <v>7.993961477868864E-8</v>
       </c>
       <c r="I8" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="J8" t="n">
-        <v>31.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="9">
@@ -1177,25 +1795,25 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="F9" t="n">
-        <v>1.8380958975562492E-9</v>
+        <v>4.532349858502896E-9</v>
       </c>
       <c r="G9" t="n">
-        <v>6.04274026321617E-8</v>
+        <v>1.583244601363814E-7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.474312382209291E-8</v>
+        <v>1.1053802265160891E-7</v>
       </c>
       <c r="I9" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="J9" t="n">
         <v>22.0</v>
@@ -1209,28 +1827,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="F10" t="n">
-        <v>4.629331803583638E-9</v>
+        <v>4.8466671470320835E-9</v>
       </c>
       <c r="G10" t="n">
-        <v>1.3527936270472185E-7</v>
+        <v>1.583244601363814E-7</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0016682849859336E-7</v>
+        <v>1.1053802265160891E-7</v>
       </c>
       <c r="I10" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="J10" t="n">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="11">
@@ -1241,28 +1859,28 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F11" t="n">
-        <v>7.456760138154892E-9</v>
+        <v>5.733960782414677E-9</v>
       </c>
       <c r="G11" t="n">
-        <v>1.9611279163347367E-7</v>
+        <v>1.685784470029915E-7</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4521059216406895E-7</v>
+        <v>1.1769708974430125E-7</v>
       </c>
       <c r="I11" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="J11" t="n">
-        <v>29.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="12">
@@ -1273,28 +1891,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="F12" t="n">
-        <v>1.427566426070561E-8</v>
+        <v>7.197147862177579E-9</v>
       </c>
       <c r="G12" t="n">
-        <v>3.413181545968705E-7</v>
+        <v>1.92360133770928E-7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.5272707064407064E-7</v>
+        <v>1.34300845275084E-7</v>
       </c>
       <c r="I12" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="J12" t="n">
-        <v>38.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="13">
@@ -1305,28 +1923,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8782254980865715E-8</v>
+        <v>8.298236507929785E-9</v>
       </c>
       <c r="G13" t="n">
-        <v>4.116444216639736E-7</v>
+        <v>1.9560916193548208E-7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.0479975188246997E-7</v>
+        <v>1.365692322857823E-7</v>
       </c>
       <c r="I13" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="J13" t="n">
-        <v>17.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="14">
@@ -1337,28 +1955,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="F14" t="n">
-        <v>3.096332310896692E-8</v>
+        <v>8.64938471143288E-9</v>
       </c>
       <c r="G14" t="n">
-        <v>6.264118444352538E-7</v>
+        <v>1.9560916193548208E-7</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6382305871731833E-7</v>
+        <v>1.365692322857823E-7</v>
       </c>
       <c r="I14" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="J14" t="n">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="15">
@@ -1369,28 +1987,28 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="F15" t="n">
-        <v>3.335792055192014E-8</v>
+        <v>1.8073898950256383E-8</v>
       </c>
       <c r="G15" t="n">
-        <v>6.266523646539282E-7</v>
+        <v>3.7955187795538404E-7</v>
       </c>
       <c r="H15" t="n">
-        <v>4.640011505342275E-7</v>
+        <v>2.6499325528571384E-7</v>
       </c>
       <c r="I15" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="J15" t="n">
-        <v>21.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="16">
@@ -1401,28 +2019,28 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="F16" t="n">
-        <v>6.230722900052901E-8</v>
+        <v>5.853407662684912E-8</v>
       </c>
       <c r="G16" t="n">
-        <v>1.0367749244866785E-6</v>
+        <v>1.1472679018862429E-6</v>
       </c>
       <c r="H16" t="n">
-        <v>7.676740485492718E-7</v>
+        <v>8.009926275253037E-7</v>
       </c>
       <c r="I16" t="s">
-        <v>225</v>
+        <v>294</v>
       </c>
       <c r="J16" t="n">
-        <v>17.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="17">
@@ -1433,28 +2051,28 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="F17" t="n">
-        <v>6.307375966458881E-8</v>
+        <v>1.0066418763420223E-7</v>
       </c>
       <c r="G17" t="n">
-        <v>1.0367749244866785E-6</v>
+        <v>1.849704447778466E-6</v>
       </c>
       <c r="H17" t="n">
-        <v>7.676740485492718E-7</v>
+        <v>1.2914155650440418E-6</v>
       </c>
       <c r="I17" t="s">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="J17" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="18">
@@ -1465,28 +2083,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="F18" t="n">
-        <v>8.024458069734354E-8</v>
+        <v>1.4843690985501566E-7</v>
       </c>
       <c r="G18" t="n">
-        <v>1.2414308660824324E-6</v>
+        <v>2.567085382198506E-6</v>
       </c>
       <c r="H18" t="n">
-        <v>9.192103671212728E-7</v>
+        <v>1.7922722861751114E-6</v>
       </c>
       <c r="I18" t="s">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="J18" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="19">
@@ -1497,28 +2115,28 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F19" t="n">
-        <v>9.881370150338083E-8</v>
+        <v>1.8818483652188747E-7</v>
       </c>
       <c r="G19" t="n">
-        <v>1.4437779719660642E-6</v>
+        <v>3.0736856631908286E-6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0690371215278046E-6</v>
+        <v>2.1459674340215232E-6</v>
       </c>
       <c r="I19" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="J19" t="n">
-        <v>16.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="20">
@@ -1529,28 +2147,28 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="F20" t="n">
-        <v>3.872064498192602E-7</v>
+        <v>3.566037074551257E-7</v>
       </c>
       <c r="G20" t="n">
-        <v>5.359752436971865E-6</v>
+        <v>5.254438828641814E-6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9685979621364625E-6</v>
+        <v>3.6685126086113627E-6</v>
       </c>
       <c r="I20" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="J20" t="n">
-        <v>36.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="21">
@@ -1561,28 +2179,28 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="E21" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="F21" t="n">
-        <v>4.327292577661731E-7</v>
+        <v>3.574448182749533E-7</v>
       </c>
       <c r="G21" t="n">
-        <v>5.690389739625176E-6</v>
+        <v>5.254438828641814E-6</v>
       </c>
       <c r="H21" t="n">
-        <v>4.213416457196949E-6</v>
+        <v>3.6685126086113627E-6</v>
       </c>
       <c r="I21" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="J21" t="n">
-        <v>26.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="22">
@@ -1593,28 +2211,28 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="F22" t="n">
-        <v>4.873129945312601E-7</v>
+        <v>4.033638360729869E-7</v>
       </c>
       <c r="G22" t="n">
-        <v>6.103015121986734E-6</v>
+        <v>5.647093705021816E-6</v>
       </c>
       <c r="H22" t="n">
-        <v>4.518942555803666E-6</v>
+        <v>3.942654036803631E-6</v>
       </c>
       <c r="I22" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="J22" t="n">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="23">
@@ -1625,28 +2243,28 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>179</v>
+        <v>234</v>
       </c>
       <c r="F23" t="n">
-        <v>1.2519006374146105E-6</v>
+        <v>7.077167509623516E-7</v>
       </c>
       <c r="G23" t="n">
-        <v>1.496590307454739E-5</v>
+        <v>9.457669308315063E-6</v>
       </c>
       <c r="H23" t="n">
-        <v>1.1081417125440333E-5</v>
+        <v>6.603098872615242E-6</v>
       </c>
       <c r="I23" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="J23" t="n">
-        <v>14.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="24">
@@ -1657,28 +2275,28 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="F24" t="n">
-        <v>2.1271751008524222E-6</v>
+        <v>1.732872370918192E-6</v>
       </c>
       <c r="G24" t="n">
-        <v>2.43237848488777E-5</v>
+        <v>2.2150629436954282E-5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.8010407032388933E-5</v>
+        <v>1.5464993699269902E-5</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="J24" t="n">
-        <v>16.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="25">
@@ -1689,28 +2307,28 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="E25" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="F25" t="n">
-        <v>4.211930148334459E-6</v>
+        <v>1.999501089000639E-6</v>
       </c>
       <c r="G25" t="n">
-        <v>4.615573454216512E-5</v>
+        <v>2.3767344225313392E-5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.417574901060855E-5</v>
+        <v>1.6593741940336952E-5</v>
       </c>
       <c r="I25" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="J25" t="n">
-        <v>16.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="26">
@@ -1721,28 +2339,28 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="F26" t="n">
-        <v>5.3407981124729E-6</v>
+        <v>2.0210326722205264E-6</v>
       </c>
       <c r="G26" t="n">
-        <v>5.61851961432149E-5</v>
+        <v>2.3767344225313392E-5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1602006349788905E-5</v>
+        <v>1.6593741940336952E-5</v>
       </c>
       <c r="I26" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="J26" t="n">
-        <v>18.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="27">
@@ -1753,28 +2371,28 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="F27" t="n">
-        <v>5.871162487279029E-6</v>
+        <v>2.254762078449623E-6</v>
       </c>
       <c r="G27" t="n">
-        <v>5.938906669824556E-5</v>
+        <v>2.5496155810161124E-5</v>
       </c>
       <c r="H27" t="n">
-        <v>4.397429393306156E-5</v>
+        <v>1.7800753250918076E-5</v>
       </c>
       <c r="I27" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="J27" t="n">
-        <v>21.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="28">
@@ -1785,28 +2403,28 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="F28" t="n">
-        <v>7.038687825402872E-6</v>
+        <v>2.8102031405999985E-6</v>
       </c>
       <c r="G28" t="n">
-        <v>6.85620332622576E-5</v>
+        <v>3.059998975319999E-5</v>
       </c>
       <c r="H28" t="n">
-        <v>5.076636443273027E-5</v>
+        <v>2.136411744315788E-5</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="J28" t="n">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="29">
@@ -1817,28 +2435,28 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="E29" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="F29" t="n">
-        <v>7.401420293029917E-6</v>
+        <v>4.652319762349895E-6</v>
       </c>
       <c r="G29" t="n">
-        <v>6.952048346667387E-5</v>
+        <v>4.8849357504673895E-5</v>
       </c>
       <c r="H29" t="n">
-        <v>5.147604339137349E-5</v>
+        <v>3.4105351641286815E-5</v>
       </c>
       <c r="I29" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="J29" t="n">
-        <v>25.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="30">
@@ -1849,28 +2467,28 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="F30" t="n">
-        <v>9.246300942541343E-6</v>
+        <v>6.953448895311908E-6</v>
       </c>
       <c r="G30" t="n">
-        <v>8.38543844099439E-5</v>
+        <v>7.049358535247244E-5</v>
       </c>
       <c r="H30" t="n">
-        <v>6.208949816225585E-5</v>
+        <v>4.9216788914185916E-5</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="J30" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="31">
@@ -1881,28 +2499,28 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F31" t="n">
-        <v>1.5156388571258035E-5</v>
+        <v>9.595888521677636E-6</v>
       </c>
       <c r="G31" t="n">
-        <v>1.3287100647469546E-4</v>
+        <v>9.403970751244083E-5</v>
       </c>
       <c r="H31" t="n">
-        <v>9.838357493623639E-5</v>
+        <v>6.565607935884698E-5</v>
       </c>
       <c r="I31" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="J31" t="n">
-        <v>14.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="32">
@@ -1913,28 +2531,28 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="F32" t="n">
-        <v>1.6370775036203144E-5</v>
+        <v>1.0978848999373875E-5</v>
       </c>
       <c r="G32" t="n">
-        <v>1.388875430490783E-4</v>
+        <v>1.041219872843845E-4</v>
       </c>
       <c r="H32" t="n">
-        <v>1.0283848494728631E-4</v>
+        <v>7.269526502132106E-5</v>
       </c>
       <c r="I32" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="J32" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="33">
@@ -1945,28 +2563,28 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="F33" t="n">
-        <v>2.1396635606171844E-5</v>
+        <v>1.3561916005664013E-5</v>
       </c>
       <c r="G33" t="n">
-        <v>1.7585359888822486E-4</v>
+        <v>1.246001033020381E-4</v>
       </c>
       <c r="H33" t="n">
-        <v>1.3020978905071683E-4</v>
+        <v>8.699255332580534E-5</v>
       </c>
       <c r="I33" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="J33" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="34">
@@ -1977,28 +2595,28 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="F34" t="n">
-        <v>3.071762992150117E-5</v>
+        <v>2.2975503690785156E-5</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448102021016608E-4</v>
+        <v>2.011415626363507E-4</v>
       </c>
       <c r="H34" t="n">
-        <v>1.8126831054155395E-4</v>
+        <v>1.4043181064836514E-4</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="J34" t="n">
-        <v>11.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="35">
@@ -2009,28 +2627,28 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="F35" t="n">
-        <v>3.405743247023151E-5</v>
+        <v>2.3769556256689316E-5</v>
       </c>
       <c r="G35" t="n">
-        <v>2.6344425704914374E-4</v>
+        <v>2.011415626363507E-4</v>
       </c>
       <c r="H35" t="n">
-        <v>1.950657896901805E-4</v>
+        <v>1.4043181064836514E-4</v>
       </c>
       <c r="I35" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="J35" t="n">
-        <v>15.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="36">
@@ -2041,28 +2659,28 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="F36" t="n">
-        <v>4.28931098204955E-5</v>
+        <v>2.3945424123375084E-5</v>
       </c>
       <c r="G36" t="n">
-        <v>3.182786930292806E-4</v>
+        <v>2.011415626363507E-4</v>
       </c>
       <c r="H36" t="n">
-        <v>2.3566763342172068E-4</v>
+        <v>1.4043181064836514E-4</v>
       </c>
       <c r="I36" t="s">
-        <v>246</v>
+        <v>314</v>
       </c>
       <c r="J36" t="n">
-        <v>16.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="37">
@@ -2073,28 +2691,28 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="F37" t="n">
-        <v>4.35666652055289E-5</v>
+        <v>3.0166706230785633E-5</v>
       </c>
       <c r="G37" t="n">
-        <v>3.182786930292806E-4</v>
+        <v>2.4636143421808267E-4</v>
       </c>
       <c r="H37" t="n">
-        <v>2.3566763342172068E-4</v>
+        <v>1.72003149561497E-4</v>
       </c>
       <c r="I37" t="s">
-        <v>247</v>
+        <v>315</v>
       </c>
       <c r="J37" t="n">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="38">
@@ -2105,28 +2723,28 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="F38" t="n">
-        <v>4.868502795053077E-5</v>
+        <v>3.343478507226339E-5</v>
       </c>
       <c r="G38" t="n">
-        <v>3.4605844191863764E-4</v>
+        <v>2.656709948985253E-4</v>
       </c>
       <c r="H38" t="n">
-        <v>2.562369892133199E-4</v>
+        <v>1.8548458290444837E-4</v>
       </c>
       <c r="I38" t="s">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="J38" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="39">
@@ -2137,28 +2755,28 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D39" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="F39" t="n">
-        <v>6.331706991939065E-5</v>
+        <v>3.57747443554841E-5</v>
       </c>
       <c r="G39" t="n">
-        <v>4.382207733894669E-4</v>
+        <v>2.7678354843453483E-4</v>
       </c>
       <c r="H39" t="n">
-        <v>3.244780591436917E-4</v>
+        <v>1.9324307892851518E-4</v>
       </c>
       <c r="I39" t="s">
-        <v>249</v>
+        <v>317</v>
       </c>
       <c r="J39" t="n">
-        <v>18.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="40">
@@ -2169,28 +2787,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="F40" t="n">
-        <v>1.1096901498615793E-4</v>
+        <v>3.800976171881315E-5</v>
       </c>
       <c r="G40" t="n">
-        <v>7.483295113169112E-4</v>
+        <v>2.8653512680336065E-4</v>
       </c>
       <c r="H40" t="n">
-        <v>5.540962961522056E-4</v>
+        <v>2.000513774674376E-4</v>
       </c>
       <c r="I40" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="J40" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="41">
@@ -2201,28 +2819,28 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E41" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="F41" t="n">
-        <v>1.2575674661648105E-4</v>
+        <v>3.966965163537319E-5</v>
       </c>
       <c r="G41" t="n">
-        <v>8.268506090033629E-4</v>
+        <v>2.9157193951999296E-4</v>
       </c>
       <c r="H41" t="n">
-        <v>6.122367927381315E-4</v>
+        <v>2.035679491815203E-4</v>
       </c>
       <c r="I41" t="s">
-        <v>251</v>
+        <v>319</v>
       </c>
       <c r="J41" t="n">
-        <v>16.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="42">
@@ -2233,28 +2851,28 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="F42" t="n">
-        <v>1.6770220294514172E-4</v>
+        <v>5.6674697938608505E-5</v>
       </c>
       <c r="G42" t="n">
-        <v>0.001075748277428592</v>
+        <v>4.063990535109976E-4</v>
       </c>
       <c r="H42" t="n">
-        <v>7.965316442837284E-4</v>
+        <v>2.837372554051003E-4</v>
       </c>
       <c r="I42" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="J42" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="43">
@@ -2265,28 +2883,28 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E43" t="s">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="F43" t="n">
-        <v>2.1204992545095989E-4</v>
+        <v>7.222071536058069E-5</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0013278364379429154</v>
+        <v>5.055450075240649E-4</v>
       </c>
       <c r="H43" t="n">
-        <v>9.831888774042002E-4</v>
+        <v>3.529583833411838E-4</v>
       </c>
       <c r="I43" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
       <c r="J43" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="44">
@@ -2297,28 +2915,28 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="F44" t="n">
-        <v>2.652439323063486E-4</v>
+        <v>8.28424232756978E-5</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0016223059115481324</v>
+        <v>5.664109870477942E-4</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0012012271108121052</v>
+        <v>3.95453428121446E-4</v>
       </c>
       <c r="I44" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c r="J44" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="45">
@@ -2329,28 +2947,28 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="F45" t="n">
-        <v>2.8698710461141653E-4</v>
+        <v>8.870684913802445E-5</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0017154001934727853</v>
+        <v>5.927230374222543E-4</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0012701582381127287</v>
+        <v>4.138238177491571E-4</v>
       </c>
       <c r="I45" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="J45" t="n">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="46">
@@ -2361,28 +2979,28 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="F46" t="n">
-        <v>3.062019284887046E-4</v>
+        <v>9.368022411693403E-5</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0017895801598339846</v>
+        <v>6.120441308973024E-4</v>
       </c>
       <c r="H46" t="n">
-        <v>0.001325084368898488</v>
+        <v>4.273133029895236E-4</v>
       </c>
       <c r="I46" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="J46" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="47">
@@ -2393,28 +3011,28 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="F47" t="n">
-        <v>3.647886319750081E-4</v>
+        <v>1.539073807293198E-4</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0020856393523788507</v>
+        <v>9.836689116178264E-4</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0015442997005806981</v>
+        <v>6.867720650392987E-4</v>
       </c>
       <c r="I47" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="J47" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="48">
@@ -2425,28 +3043,28 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="F48" t="n">
-        <v>6.009961547637249E-4</v>
+        <v>1.585251084882392E-4</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0033630210362310562</v>
+        <v>9.916251467136665E-4</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0024901296445977404</v>
+        <v>6.923269015723771E-4</v>
       </c>
       <c r="I48" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="J48" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="49">
@@ -2457,28 +3075,28 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="F49" t="n">
-        <v>6.929125421646189E-4</v>
+        <v>2.664905388133185E-4</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0037965833039436416</v>
+        <v>0.0016322545502315757</v>
       </c>
       <c r="H49" t="n">
-        <v>0.002811158339922248</v>
+        <v>0.0011395976988727433</v>
       </c>
       <c r="I49" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="J49" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="50">
@@ -2489,28 +3107,28 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="E50" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="F50" t="n">
-        <v>7.55286432006139E-4</v>
+        <v>2.9067176464106915E-4</v>
       </c>
       <c r="G50" t="n">
-        <v>0.004053884318726828</v>
+        <v>0.001744030587846415</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0030016754010985117</v>
+        <v>0.0012176368228788072</v>
       </c>
       <c r="I50" t="s">
-        <v>260</v>
+        <v>328</v>
       </c>
       <c r="J50" t="n">
-        <v>11.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="51">
@@ -2521,28 +3139,28 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0011027324636053465</v>
+        <v>4.698420289429179E-4</v>
       </c>
       <c r="G51" t="n">
-        <v>0.005746680540876843</v>
+        <v>0.002762671130184357</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00425509665824381</v>
+        <v>0.0019288251714498733</v>
       </c>
       <c r="I51" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="J51" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="52">
@@ -2553,28 +3171,28 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0011143753140103383</v>
+        <v>5.255047622136968E-4</v>
       </c>
       <c r="G52" t="n">
-        <v>0.005746680540876843</v>
+        <v>0.003029380393937781</v>
       </c>
       <c r="H52" t="n">
-        <v>0.00425509665824381</v>
+        <v>0.002115034646680513</v>
       </c>
       <c r="I52" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="J52" t="n">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="53">
@@ -2585,28 +3203,28 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0021206141419647926</v>
+        <v>5.56300152767769E-4</v>
       </c>
       <c r="G53" t="n">
-        <v>0.010725413833398855</v>
+        <v>0.003145235479110079</v>
       </c>
       <c r="H53" t="n">
-        <v>0.007941571179422808</v>
+        <v>0.0021959216556622463</v>
       </c>
       <c r="I53" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
       <c r="J53" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="54">
@@ -2617,28 +3235,28 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>260</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0024338244393529588</v>
+        <v>5.922718871428466E-4</v>
       </c>
       <c r="G54" t="n">
-        <v>0.012077279765091096</v>
+        <v>0.0032854327324527716</v>
       </c>
       <c r="H54" t="n">
-        <v>0.008942552557702035</v>
+        <v>0.002293803733721054</v>
       </c>
       <c r="I54" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="J54" t="n">
-        <v>10.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="55">
@@ -2649,28 +3267,28 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="E55" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003490955637325231</v>
+        <v>6.180038913843548E-4</v>
       </c>
       <c r="G55" t="n">
-        <v>0.017002246900306217</v>
+        <v>0.003364687853092598</v>
       </c>
       <c r="H55" t="n">
-        <v>0.012589216235968183</v>
+        <v>0.0023491375988294186</v>
       </c>
       <c r="I55" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="J55" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="56">
@@ -2681,28 +3299,28 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="E56" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="F56" t="n">
-        <v>0.004090185338614964</v>
+        <v>6.953032583165502E-4</v>
       </c>
       <c r="G56" t="n">
-        <v>0.019558522619195193</v>
+        <v>0.0037167119626375592</v>
       </c>
       <c r="H56" t="n">
-        <v>0.014481995935765902</v>
+        <v>0.002594911681755546</v>
       </c>
       <c r="I56" t="s">
-        <v>266</v>
+        <v>334</v>
       </c>
       <c r="J56" t="n">
-        <v>22.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="57">
@@ -2713,28 +3331,28 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="E57" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004564407719690066</v>
+        <v>7.505567416619281E-4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02143641482640156</v>
+        <v>0.003940422893725122</v>
       </c>
       <c r="H57" t="n">
-        <v>0.01587247045380944</v>
+        <v>0.0027511008387984203</v>
       </c>
       <c r="I57" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="J57" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="58">
@@ -2745,28 +3363,28 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>210</v>
+        <v>263</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0072677836957879376</v>
+        <v>9.216495396219508E-4</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03353380898231978</v>
+        <v>0.0047537713096290094</v>
       </c>
       <c r="H58" t="n">
-        <v>0.024829916596874765</v>
+        <v>0.0033189595609654735</v>
       </c>
       <c r="I58" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="J58" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="59">
@@ -2777,28 +3395,28 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="E59" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="F59" t="n">
-        <v>0.007960501851552953</v>
+        <v>9.881400984776173E-4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0356684069352311</v>
+        <v>0.005008848085386542</v>
       </c>
       <c r="H59" t="n">
-        <v>0.02641046741251853</v>
+        <v>0.0034970475354471025</v>
       </c>
       <c r="I59" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="J59" t="n">
-        <v>29.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="60">
@@ -2809,28 +3427,28 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D60" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="F60" t="n">
-        <v>0.008001657829576559</v>
+        <v>0.0010645806180874348</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0356684069352311</v>
+        <v>0.005244862806212174</v>
       </c>
       <c r="H60" t="n">
-        <v>0.02641046741251853</v>
+        <v>0.0036618268786658566</v>
       </c>
       <c r="I60" t="s">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="J60" t="n">
-        <v>9.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="61">
@@ -2841,28 +3459,28 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00816853893386208</v>
+        <v>0.0010703801645330967</v>
       </c>
       <c r="G61" t="n">
-        <v>0.035805428993428784</v>
+        <v>0.005244862806212174</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02651192460990324</v>
+        <v>0.0036618268786658566</v>
       </c>
       <c r="I61" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="J61" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="62">
@@ -2873,28 +3491,28 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="F62" t="n">
-        <v>0.009648758997981656</v>
+        <v>0.001335138089224634</v>
       </c>
       <c r="G62" t="n">
-        <v>0.041600387155232385</v>
+        <v>0.006434927839869547</v>
       </c>
       <c r="H62" t="n">
-        <v>0.03080276815576543</v>
+        <v>0.004492699351144152</v>
       </c>
       <c r="I62" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="J62" t="n">
-        <v>6.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="63">
@@ -2905,28 +3523,604 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E63" t="s">
+        <v>266</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.0014400513443974248</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.006828630568594241</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.004767572362606075</v>
+      </c>
+      <c r="I63" t="s">
+        <v>341</v>
+      </c>
+      <c r="J63" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0015107051801186045</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.007049957507220155</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.0049220970780806655</v>
+      </c>
+      <c r="I64" t="s">
+        <v>324</v>
+      </c>
+      <c r="J64" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" t="s">
+        <v>268</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0017731908436179951</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.008145595437870166</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0056870430017353455</v>
+      </c>
+      <c r="I65" t="s">
+        <v>342</v>
+      </c>
+      <c r="J65" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" t="s">
+        <v>194</v>
+      </c>
+      <c r="E66" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.003330441407126539</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.015063842672233884</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.010517183390925913</v>
+      </c>
+      <c r="I66" t="s">
+        <v>343</v>
+      </c>
+      <c r="J66" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" t="s">
+        <v>269</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.004227693902251233</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.018832454655482764</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.013148330318006227</v>
+      </c>
+      <c r="I67" t="s">
+        <v>344</v>
+      </c>
+      <c r="J67" t="n">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" t="s">
+        <v>206</v>
+      </c>
+      <c r="E68" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.004547918437107341</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.019956537619545647</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.013933135824602224</v>
+      </c>
+      <c r="I68" t="s">
+        <v>345</v>
+      </c>
+      <c r="J68" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" t="s">
+        <v>207</v>
+      </c>
+      <c r="E69" t="s">
+        <v>271</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.004783885654189343</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.020470262406050845</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.014291805117006496</v>
+      </c>
+      <c r="I69" t="s">
+        <v>346</v>
+      </c>
+      <c r="J69" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" t="s">
+        <v>240</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0048042452585629536</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.020470262406050845</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.014291805117006496</v>
+      </c>
+      <c r="I70" t="s">
+        <v>347</v>
+      </c>
+      <c r="J70" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
         <v>158</v>
       </c>
-      <c r="E63" t="s">
-        <v>194</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.011667808507197891</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.04949409092569428</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.03664761585452649</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="D71" t="s">
+        <v>208</v>
+      </c>
+      <c r="E71" t="s">
+        <v>272</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.005020896849885253</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02108776676951806</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.014722930612445477</v>
+      </c>
+      <c r="I71" t="s">
+        <v>348</v>
+      </c>
+      <c r="J71" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" t="s">
         <v>273</v>
       </c>
-      <c r="J63" t="n">
-        <v>13.0</v>
+      <c r="F72" t="n">
+        <v>0.005318047526922625</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.022021210886130304</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.015374637031132864</v>
+      </c>
+      <c r="I72" t="s">
+        <v>349</v>
+      </c>
+      <c r="J72" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" t="s">
+        <v>274</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0061816839314363745</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.025241876053365194</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.017623221734358083</v>
+      </c>
+      <c r="I73" t="s">
+        <v>350</v>
+      </c>
+      <c r="J73" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" t="s">
+        <v>206</v>
+      </c>
+      <c r="E74" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.007132758166670674</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.028726450698646277</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.020056061175209534</v>
+      </c>
+      <c r="I74" t="s">
+        <v>351</v>
+      </c>
+      <c r="J74" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D75" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" t="s">
+        <v>275</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.007407216753978026</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02942867196850729</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.020546333812599075</v>
+      </c>
+      <c r="I75" t="s">
+        <v>352</v>
+      </c>
+      <c r="J75" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" t="s">
+        <v>163</v>
+      </c>
+      <c r="D76" t="s">
+        <v>182</v>
+      </c>
+      <c r="E76" t="s">
+        <v>276</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.008465890913193863</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03318629237971994</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.02316980670979373</v>
+      </c>
+      <c r="I76" t="s">
+        <v>353</v>
+      </c>
+      <c r="J76" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" t="s">
+        <v>211</v>
+      </c>
+      <c r="E77" t="s">
+        <v>263</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.009984538960306046</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.038624400714868126</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.02696655259362436</v>
+      </c>
+      <c r="I77" t="s">
+        <v>354</v>
+      </c>
+      <c r="J77" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" t="s">
+        <v>209</v>
+      </c>
+      <c r="E78" t="s">
+        <v>277</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.010234505987334925</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03869286057029045</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.027014349485165186</v>
+      </c>
+      <c r="I78" t="s">
+        <v>355</v>
+      </c>
+      <c r="J78" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" t="s">
+        <v>278</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.010265452804362772</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03869286057029045</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.027014349485165186</v>
+      </c>
+      <c r="I79" t="s">
+        <v>356</v>
+      </c>
+      <c r="J79" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" t="s">
+        <v>212</v>
+      </c>
+      <c r="E80" t="s">
+        <v>279</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.011876728179209413</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0441994694264249</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.03085892065217635</v>
+      </c>
+      <c r="I80" t="s">
+        <v>357</v>
+      </c>
+      <c r="J80" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" t="s">
+        <v>217</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.01240951040393546</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.045604950734462815</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.03184019116799229</v>
+      </c>
+      <c r="I81" t="s">
+        <v>358</v>
+      </c>
+      <c r="J81" t="n">
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>
@@ -2974,66 +4168,1122 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>389</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>435</v>
       </c>
       <c r="F2" t="n">
-        <v>2.415499375033631E-13</v>
+        <v>1.5132100042715146E-11</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4783191000484284E-11</v>
+        <v>4.040270711404944E-9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2799938882035614E-11</v>
+        <v>3.249419377593568E-9</v>
       </c>
       <c r="I2" t="s">
-        <v>282</v>
+        <v>455</v>
       </c>
       <c r="J2" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.784966864113875E-8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.2816860415557982E-5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.0308060417007011E-5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J3" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.4400966759053913E-7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.2816860415557982E-5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.0308060417007011E-5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>457</v>
+      </c>
+      <c r="J4" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3.07742396587282E-7</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.6954164770790057E-5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.3635519862965394E-5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>458</v>
+      </c>
+      <c r="J5" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.174937222994393E-7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.6954164770790057E-5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.3635519862965394E-5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>459</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.646198704581498E-6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.0645631663418625E-4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.6604411036220775E-4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.37975968499882E-6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.0645631663418625E-4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.6604411036220775E-4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>461</v>
+      </c>
+      <c r="J8" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.610639411639721E-6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.0645631663418625E-4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.6604411036220775E-4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>462</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.959201684298413E-6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.0645631663418625E-4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.6604411036220775E-4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>463</v>
+      </c>
+      <c r="J10" t="n">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" t="s">
+        <v>427</v>
+      </c>
+      <c r="E11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.3828945786025943E-5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.421560290447494E-4</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.751816673571018E-4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>464</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" t="s">
+        <v>428</v>
+      </c>
+      <c r="E12" t="s">
+        <v>443</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.4096315803341734E-5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.421560290447494E-4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.751816673571018E-4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>465</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" t="s">
+        <v>399</v>
+      </c>
+      <c r="D13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.634011603182287E-5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.635675817080588E-4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.9240207635893554E-4</v>
+      </c>
+      <c r="I13" t="s">
+        <v>466</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>370</v>
+      </c>
+      <c r="B14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" t="s">
+        <v>400</v>
+      </c>
+      <c r="D14" t="s">
+        <v>429</v>
+      </c>
+      <c r="E14" t="s">
+        <v>445</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.9425016661805868E-5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.989599575924744E-4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.208666719844856E-4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>467</v>
+      </c>
+      <c r="J14" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D15" t="s">
+        <v>430</v>
+      </c>
+      <c r="E15" t="s">
+        <v>446</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3.862357243728887E-5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.876562969271801E-4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.530529650035273E-4</v>
+      </c>
+      <c r="I15" t="s">
+        <v>468</v>
+      </c>
+      <c r="J15" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C16" t="s">
+        <v>402</v>
+      </c>
+      <c r="D16" t="s">
+        <v>426</v>
+      </c>
+      <c r="E16" t="s">
+        <v>447</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.863237623186405E-5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.876562969271801E-4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.530529650035273E-4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>469</v>
+      </c>
+      <c r="J16" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E17" t="s">
+        <v>448</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.872715901431612E-5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0014806344660514004</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.001190811870981611</v>
+      </c>
+      <c r="I17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J17" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D18" t="s">
+        <v>430</v>
+      </c>
+      <c r="E18" t="s">
+        <v>449</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.4250442357009719E-4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.002238157711365644</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0018000558766749118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>471</v>
+      </c>
+      <c r="J18" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" t="s">
+        <v>431</v>
+      </c>
+      <c r="E19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.9432417477243297E-4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0028824752591244227</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.002318253313074639</v>
+      </c>
+      <c r="I19" t="s">
+        <v>472</v>
+      </c>
+      <c r="J19" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" t="s">
+        <v>406</v>
+      </c>
+      <c r="D20" t="s">
+        <v>425</v>
+      </c>
+      <c r="E20" t="s">
+        <v>448</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.621121857280368E-4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0036833659783887273</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0029623759495024655</v>
+      </c>
+      <c r="I20" t="s">
+        <v>473</v>
+      </c>
+      <c r="J20" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C21" t="s">
+        <v>407</v>
+      </c>
+      <c r="D21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E21" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.3370990718306805E-4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.004455027260893959</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0035829905823866253</v>
+      </c>
+      <c r="I21" t="s">
+        <v>474</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22" t="s">
+        <v>378</v>
+      </c>
+      <c r="C22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" t="s">
+        <v>425</v>
+      </c>
+      <c r="E22" t="s">
+        <v>450</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4.3905245855042755E-4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.005582238401569722</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.004489558974650988</v>
+      </c>
+      <c r="I22" t="s">
+        <v>475</v>
+      </c>
+      <c r="J22" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C23" t="s">
+        <v>409</v>
+      </c>
+      <c r="D23" t="s">
+        <v>433</v>
+      </c>
+      <c r="E23" t="s">
+        <v>451</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.617588708393833E-4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.009244982659732516</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0074353497440781905</v>
+      </c>
+      <c r="I23" t="s">
+        <v>476</v>
+      </c>
+      <c r="J23" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
+        <v>427</v>
+      </c>
+      <c r="E24" t="s">
         <v>275</v>
       </c>
-      <c r="B3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.7102984992887E-6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4.111414919487864E-4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.8769921389907486E-4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>283</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.0</v>
+      <c r="F24" t="n">
+        <v>8.142291276797682E-4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.009452138134369483</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.007601956157742458</v>
+      </c>
+      <c r="I24" t="s">
+        <v>477</v>
+      </c>
+      <c r="J24" t="n">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" t="s">
+        <v>421</v>
+      </c>
+      <c r="E25" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.193868321898595E-4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.010228178508112187</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.008226092709067163</v>
+      </c>
+      <c r="I25" t="s">
+        <v>478</v>
+      </c>
+      <c r="J25" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D26" t="s">
+        <v>433</v>
+      </c>
+      <c r="E26" t="s">
+        <v>453</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0011600819912973824</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.012389675667056043</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.00996449373577541</v>
+      </c>
+      <c r="I26" t="s">
+        <v>479</v>
+      </c>
+      <c r="J26" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" t="s">
+        <v>412</v>
+      </c>
+      <c r="D27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0016290039281828324</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.016109038845363566</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.012955820715372234</v>
+      </c>
+      <c r="I27" t="s">
+        <v>480</v>
+      </c>
+      <c r="J27" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D28" t="s">
+        <v>419</v>
+      </c>
+      <c r="E28" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0016290039281828324</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.016109038845363566</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.012955820715372234</v>
+      </c>
+      <c r="I28" t="s">
+        <v>481</v>
+      </c>
+      <c r="J28" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" t="s">
+        <v>430</v>
+      </c>
+      <c r="E29" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.002234817658709284</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02131058267412067</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.017139203096868193</v>
+      </c>
+      <c r="I29" t="s">
+        <v>482</v>
+      </c>
+      <c r="J29" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>433</v>
+      </c>
+      <c r="E30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0024840885341026906</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.022598482502846785</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.01817500662558937</v>
+      </c>
+      <c r="I30" t="s">
+        <v>483</v>
+      </c>
+      <c r="J30" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B31" t="s">
+        <v>384</v>
+      </c>
+      <c r="C31" t="s">
+        <v>414</v>
+      </c>
+      <c r="D31" t="s">
+        <v>424</v>
+      </c>
+      <c r="E31" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.002539155337398515</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.022598482502846785</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01817500662558937</v>
+      </c>
+      <c r="I31" t="s">
+        <v>484</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>385</v>
+      </c>
+      <c r="B32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C32" t="s">
+        <v>415</v>
+      </c>
+      <c r="D32" t="s">
+        <v>419</v>
+      </c>
+      <c r="E32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.003216249008806974</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.027701241462950388</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.022278940502432006</v>
+      </c>
+      <c r="I32" t="s">
+        <v>485</v>
+      </c>
+      <c r="J32" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B33" t="s">
+        <v>386</v>
+      </c>
+      <c r="C33" t="s">
+        <v>416</v>
+      </c>
+      <c r="D33" t="s">
+        <v>424</v>
+      </c>
+      <c r="E33" t="s">
+        <v>454</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.004562617757763295</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0380693419163375</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.030617566532358954</v>
+      </c>
+      <c r="I33" t="s">
+        <v>486</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C34" t="s">
+        <v>417</v>
+      </c>
+      <c r="D34" t="s">
+        <v>419</v>
+      </c>
+      <c r="E34" t="s">
+        <v>437</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.005411585348096375</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.04293306590105464</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.03452925465726452</v>
+      </c>
+      <c r="I34" t="s">
+        <v>487</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>388</v>
+      </c>
+      <c r="B35" t="s">
+        <v>388</v>
+      </c>
+      <c r="C35" t="s">
+        <v>418</v>
+      </c>
+      <c r="D35" t="s">
+        <v>424</v>
+      </c>
+      <c r="E35" t="s">
+        <v>446</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.005467131987400216</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04293306590105464</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.03452925465726452</v>
+      </c>
+      <c r="I35" t="s">
+        <v>488</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>434</v>
+      </c>
+      <c r="E36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0057551596356712805</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.04390364636354949</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0353098515993065</v>
+      </c>
+      <c r="I36" t="s">
+        <v>489</v>
+      </c>
+      <c r="J36" t="n">
+        <v>33.0</v>
       </c>
     </row>
   </sheetData>
